--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5999999999999979</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>15.43</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6999999999999975</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L13" t="n">
         <v>15.44</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>15.46</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>15.49</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L16" t="n">
         <v>15.52</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L17" t="n">
         <v>15.56</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L18" t="n">
         <v>15.6</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>66.66666666666676</v>
+      </c>
       <c r="L19" t="n">
         <v>15.64</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>15.69</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333314</v>
+      </c>
       <c r="L21" t="n">
         <v>15.73</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>15.76</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>23.07692307692312</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L23" t="n">
         <v>15.78</v>
@@ -1466,7 +1488,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K24" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>15.78</v>
@@ -1515,7 +1537,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K25" t="n">
-        <v>23.07692307692295</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L25" t="n">
         <v>15.78</v>
@@ -1564,7 +1586,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666657</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L26" t="n">
         <v>15.77</v>
@@ -1613,7 +1635,7 @@
         <v>1.400000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>27.2727272727271</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L27" t="n">
         <v>15.76</v>
@@ -1662,7 +1684,7 @@
         <v>1.500000000000004</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333324</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>15.76</v>
@@ -1711,7 +1733,7 @@
         <v>1.600000000000005</v>
       </c>
       <c r="K29" t="n">
-        <v>23.07692307692289</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L29" t="n">
         <v>15.75</v>
@@ -1760,7 +1782,7 @@
         <v>1.800000000000006</v>
       </c>
       <c r="K30" t="n">
-        <v>33.33333333333318</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L30" t="n">
         <v>15.75</v>
@@ -1809,7 +1831,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K31" t="n">
-        <v>33.33333333333318</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>15.76</v>
@@ -1860,7 +1882,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>23.07692307692299</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>15.76</v>
@@ -1911,7 +1933,7 @@
         <v>2.000000000000005</v>
       </c>
       <c r="K33" t="n">
-        <v>23.07692307692299</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>15.77</v>
@@ -1962,7 +1984,7 @@
         <v>2.100000000000005</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307756</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L34" t="n">
         <v>15.78</v>
@@ -2013,7 +2035,7 @@
         <v>2.200000000000005</v>
       </c>
       <c r="K35" t="n">
-        <v>14.28571428571428</v>
+        <v>25.00000000000006</v>
       </c>
       <c r="L35" t="n">
         <v>15.8</v>
@@ -2064,7 +2086,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L36" t="n">
         <v>15.81000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>14.2857142857145</v>
       </c>
       <c r="L38" t="n">
         <v>15.82000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.400000000000006</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.66666666666673</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L39" t="n">
         <v>15.82000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K40" t="n">
-        <v>-6.666666666666604</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>15.81000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.500000000000007</v>
       </c>
       <c r="K41" t="n">
-        <v>7.692307692307756</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>15.81000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.692307692307756</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>15.80000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>2.600000000000009</v>
       </c>
       <c r="K43" t="n">
-        <v>-7.692307692307756</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L43" t="n">
         <v>15.78</v>
@@ -2472,7 +2494,7 @@
         <v>2.70000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>7.692307692307756</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L44" t="n">
         <v>15.78</v>
@@ -2523,7 +2545,7 @@
         <v>2.70000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>7.692307692307756</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>15.77</v>
@@ -2574,7 +2596,7 @@
         <v>2.70000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>7.692307692307756</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>15.77</v>
@@ -2625,7 +2647,7 @@
         <v>2.900000000000011</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.666666666666604</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L47" t="n">
         <v>15.75</v>
@@ -2676,7 +2698,7 @@
         <v>3.100000000000012</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L48" t="n">
         <v>15.75</v>
@@ -2727,7 +2749,7 @@
         <v>3.100000000000012</v>
       </c>
       <c r="K49" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>15.76000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>3.200000000000014</v>
       </c>
       <c r="K50" t="n">
-        <v>-14.28571428571428</v>
+        <v>-14.28571428571436</v>
       </c>
       <c r="L50" t="n">
         <v>15.75</v>
@@ -2829,7 +2851,7 @@
         <v>3.200000000000014</v>
       </c>
       <c r="K51" t="n">
-        <v>-7.692307692307756</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>15.74</v>
@@ -2880,7 +2902,7 @@
         <v>3.300000000000015</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L52" t="n">
         <v>15.75</v>
@@ -2931,7 +2953,7 @@
         <v>3.300000000000015</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.692307692307608</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>15.76000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>3.300000000000015</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.090909090908973</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>15.76000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>3.300000000000015</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L56" t="n">
         <v>15.76000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>3.400000000000016</v>
       </c>
       <c r="K58" t="n">
-        <v>-9.09090909090912</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>15.77</v>
@@ -3237,7 +3259,7 @@
         <v>3.500000000000018</v>
       </c>
       <c r="K59" t="n">
-        <v>9.09090909090912</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>15.77</v>
@@ -3288,7 +3310,7 @@
         <v>3.500000000000018</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>15.78000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>3.600000000000019</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>15.78000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>3.700000000000021</v>
       </c>
       <c r="K63" t="n">
-        <v>9.09090909090912</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>15.78000000000001</v>
@@ -3645,7 +3667,7 @@
         <v>3.80000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>33.33333333333307</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L67" t="n">
         <v>15.79000000000001</v>
@@ -3696,7 +3718,7 @@
         <v>3.80000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>14.28571428571407</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L68" t="n">
         <v>15.81000000000001</v>
@@ -3747,7 +3769,7 @@
         <v>4.000000000000021</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111116</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L69" t="n">
         <v>15.80000000000001</v>
@@ -3798,7 +3820,7 @@
         <v>4.200000000000022</v>
       </c>
       <c r="K70" t="n">
-        <v>19.99999999999993</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L70" t="n">
         <v>15.81000000000001</v>
@@ -3849,7 +3871,7 @@
         <v>4.200000000000022</v>
       </c>
       <c r="K71" t="n">
-        <v>19.99999999999993</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>15.82</v>
@@ -3900,7 +3922,7 @@
         <v>4.400000000000023</v>
       </c>
       <c r="K72" t="n">
-        <v>-9.09090909090915</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L72" t="n">
         <v>15.82</v>
@@ -4002,7 +4024,7 @@
         <v>4.600000000000025</v>
       </c>
       <c r="K74" t="n">
-        <v>7.692307692307608</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L74" t="n">
         <v>15.83</v>
@@ -4053,7 +4075,7 @@
         <v>4.800000000000026</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.666666666666714</v>
+        <v>-9.090909090909179</v>
       </c>
       <c r="L75" t="n">
         <v>15.82</v>
@@ -4104,7 +4126,7 @@
         <v>4.900000000000027</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-9.090909090909003</v>
       </c>
       <c r="L76" t="n">
         <v>15.82</v>
@@ -4155,7 +4177,7 @@
         <v>5.000000000000028</v>
       </c>
       <c r="K77" t="n">
-        <v>-5.882352941176507</v>
+        <v>-16.66666666666664</v>
       </c>
       <c r="L77" t="n">
         <v>15.8</v>
@@ -4206,7 +4228,7 @@
         <v>5.200000000000029</v>
       </c>
       <c r="K78" t="n">
-        <v>11.11111111111109</v>
+        <v>16.66666666666664</v>
       </c>
       <c r="L78" t="n">
         <v>15.8</v>
@@ -4257,7 +4279,7 @@
         <v>5.200000000000029</v>
       </c>
       <c r="K79" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>15.82</v>
@@ -4308,7 +4330,7 @@
         <v>5.200000000000029</v>
       </c>
       <c r="K80" t="n">
-        <v>5.88235294117641</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>15.82</v>
@@ -4359,7 +4381,7 @@
         <v>5.300000000000029</v>
       </c>
       <c r="K81" t="n">
-        <v>11.111111111111</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L81" t="n">
         <v>15.83</v>
@@ -4410,7 +4432,7 @@
         <v>5.500000000000028</v>
       </c>
       <c r="K82" t="n">
-        <v>5.263157894736891</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>15.84</v>
@@ -4461,7 +4483,7 @@
         <v>5.600000000000028</v>
       </c>
       <c r="K83" t="n">
-        <v>5.263157894736803</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>15.85</v>
@@ -4512,7 +4534,7 @@
         <v>5.700000000000028</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L84" t="n">
         <v>15.84</v>
@@ -4563,7 +4585,7 @@
         <v>5.800000000000027</v>
       </c>
       <c r="K85" t="n">
-        <v>4.76190476190473</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L85" t="n">
         <v>15.86</v>
@@ -4614,7 +4636,7 @@
         <v>5.900000000000027</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L86" t="n">
         <v>15.86</v>
@@ -4665,7 +4687,7 @@
         <v>5.900000000000027</v>
       </c>
       <c r="K87" t="n">
-        <v>-4.76190476190473</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L87" t="n">
         <v>15.87000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>5.900000000000027</v>
       </c>
       <c r="K88" t="n">
-        <v>-4.76190476190473</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L88" t="n">
         <v>15.86000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>5.900000000000027</v>
       </c>
       <c r="K89" t="n">
-        <v>5.263157894736901</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>15.85000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>5.900000000000027</v>
       </c>
       <c r="K90" t="n">
-        <v>-5.882352941176434</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>15.84000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>6.100000000000028</v>
       </c>
       <c r="K91" t="n">
-        <v>-15.78947368421052</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L91" t="n">
         <v>15.80000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>6.300000000000029</v>
       </c>
       <c r="K92" t="n">
-        <v>5.263157894736901</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L92" t="n">
         <v>15.80000000000001</v>
@@ -5022,7 +5044,7 @@
         <v>6.300000000000029</v>
       </c>
       <c r="K94" t="n">
-        <v>-5.882352941176434</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L94" t="n">
         <v>15.79000000000001</v>
@@ -5073,7 +5095,7 @@
         <v>6.300000000000029</v>
       </c>
       <c r="K95" t="n">
-        <v>6.666666666666746</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>15.78000000000001</v>
@@ -5175,7 +5197,7 @@
         <v>6.300000000000029</v>
       </c>
       <c r="K97" t="n">
-        <v>7.692307692307796</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>15.78000000000001</v>
@@ -5226,7 +5248,7 @@
         <v>6.300000000000029</v>
       </c>
       <c r="K98" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>15.78000000000001</v>
@@ -5277,7 +5299,7 @@
         <v>6.400000000000029</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L99" t="n">
         <v>15.79000000000001</v>
@@ -5328,7 +5350,7 @@
         <v>6.500000000000028</v>
       </c>
       <c r="K100" t="n">
-        <v>-7.692307692307672</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L100" t="n">
         <v>15.79000000000001</v>
@@ -5379,7 +5401,7 @@
         <v>6.500000000000028</v>
       </c>
       <c r="K101" t="n">
-        <v>-16.66666666666662</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>15.81000000000001</v>
@@ -5430,7 +5452,7 @@
         <v>6.600000000000028</v>
       </c>
       <c r="K102" t="n">
-        <v>9.090909090909062</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>15.82000000000001</v>
@@ -5481,7 +5503,7 @@
         <v>6.700000000000028</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>15.82000000000001</v>
@@ -5532,7 +5554,7 @@
         <v>6.800000000000027</v>
       </c>
       <c r="K104" t="n">
-        <v>9.090909090909062</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>15.83000000000001</v>
@@ -5583,7 +5605,7 @@
         <v>6.900000000000027</v>
       </c>
       <c r="K105" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>15.83000000000001</v>
@@ -5736,7 +5758,7 @@
         <v>6.900000000000027</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L108" t="n">
         <v>15.83000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>7.000000000000028</v>
       </c>
       <c r="K110" t="n">
-        <v>-9.090909090909207</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L110" t="n">
         <v>15.81000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>7.100000000000028</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L111" t="n">
         <v>15.79000000000001</v>
@@ -5940,7 +5962,7 @@
         <v>7.100000000000028</v>
       </c>
       <c r="K112" t="n">
-        <v>-25.00000000000017</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L112" t="n">
         <v>15.76000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>7.100000000000028</v>
       </c>
       <c r="K113" t="n">
-        <v>-25.00000000000017</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>15.74</v>
@@ -6042,7 +6064,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K114" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L114" t="n">
         <v>15.72</v>
@@ -6093,7 +6115,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L115" t="n">
         <v>15.71</v>
@@ -6144,7 +6166,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L116" t="n">
         <v>15.7</v>
@@ -6195,7 +6217,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K117" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L117" t="n">
         <v>15.68999999999999</v>
@@ -6246,7 +6268,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K118" t="n">
-        <v>-11.11111111111129</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L118" t="n">
         <v>15.67999999999999</v>
@@ -6297,7 +6319,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K119" t="n">
-        <v>-25.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>15.66999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>7.200000000000028</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.2857142857145</v>
+        <v>100</v>
       </c>
       <c r="L120" t="n">
         <v>15.66999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>7.300000000000027</v>
       </c>
       <c r="K121" t="n">
-        <v>-25.00000000000017</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>15.66999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>7.300000000000027</v>
       </c>
       <c r="K122" t="n">
-        <v>-42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>15.66999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>7.300000000000027</v>
       </c>
       <c r="K123" t="n">
-        <v>-33.33333333333353</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>15.66999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>7.400000000000027</v>
       </c>
       <c r="K124" t="n">
-        <v>-33.33333333333353</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>15.66999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>7.600000000000026</v>
       </c>
       <c r="K125" t="n">
-        <v>-42.857142857143</v>
+        <v>-50</v>
       </c>
       <c r="L125" t="n">
         <v>15.64999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>7.700000000000026</v>
       </c>
       <c r="K126" t="n">
-        <v>-25.00000000000017</v>
+        <v>-20</v>
       </c>
       <c r="L126" t="n">
         <v>15.63999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>7.700000000000026</v>
       </c>
       <c r="K127" t="n">
-        <v>-25.00000000000017</v>
+        <v>-20</v>
       </c>
       <c r="L127" t="n">
         <v>15.62999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>7.800000000000026</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
         <v>15.62999999999999</v>
@@ -6807,7 +6829,7 @@
         <v>7.900000000000025</v>
       </c>
       <c r="K129" t="n">
-        <v>-20.00000000000014</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>15.61999999999999</v>
@@ -6858,7 +6880,7 @@
         <v>7.900000000000025</v>
       </c>
       <c r="K130" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>15.60999999999999</v>
@@ -7011,7 +7033,7 @@
         <v>7.900000000000025</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L133" t="n">
         <v>15.60999999999999</v>
@@ -7062,7 +7084,7 @@
         <v>7.900000000000025</v>
       </c>
       <c r="K134" t="n">
-        <v>-14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>15.59999999999999</v>
@@ -7113,7 +7135,7 @@
         <v>8.000000000000025</v>
       </c>
       <c r="K135" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>15.59999999999999</v>
@@ -7164,7 +7186,7 @@
         <v>8.000000000000025</v>
       </c>
       <c r="K136" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L136" t="n">
         <v>15.58999999999999</v>
@@ -7215,7 +7237,7 @@
         <v>8.000000000000025</v>
       </c>
       <c r="K137" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L137" t="n">
         <v>15.57999999999999</v>
@@ -7266,7 +7288,7 @@
         <v>8.200000000000024</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>15.57999999999999</v>
@@ -7317,7 +7339,7 @@
         <v>8.400000000000023</v>
       </c>
       <c r="K139" t="n">
-        <v>-16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>15.57</v>
@@ -7368,7 +7390,7 @@
         <v>8.500000000000023</v>
       </c>
       <c r="K140" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>15.57</v>
@@ -7419,7 +7441,7 @@
         <v>8.600000000000023</v>
       </c>
       <c r="K141" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L141" t="n">
         <v>15.57999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>8.800000000000022</v>
       </c>
       <c r="K142" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L142" t="n">
         <v>15.57</v>
@@ -7521,7 +7543,7 @@
         <v>9.000000000000021</v>
       </c>
       <c r="K143" t="n">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L143" t="n">
         <v>15.57999999999999</v>
@@ -7572,7 +7594,7 @@
         <v>9.200000000000021</v>
       </c>
       <c r="K144" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>15.57</v>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S144"/>
+  <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>15.59333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15.5</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +495,16 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -568,18 +536,16 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,20 +575,12 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.09999999999999964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +612,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.1999999999999993</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +645,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2999999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +680,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.09999999999999964</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.2999999999999989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +712,19 @@
         <v>15.59666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>15.4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +751,23 @@
         <v>15.59333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +794,23 @@
         <v>15.585</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +837,19 @@
         <v>15.58</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5999999999999979</v>
+        <v>15.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +876,23 @@
         <v>15.57833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6999999999999975</v>
+        <v>15.5</v>
       </c>
       <c r="K13" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L13" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +919,23 @@
         <v>15.575</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7999999999999972</v>
+        <v>15.6</v>
       </c>
       <c r="K14" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L14" t="n">
-        <v>15.46</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +962,23 @@
         <v>15.575</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7999999999999972</v>
+        <v>15.8</v>
       </c>
       <c r="K15" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1008,18 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L16" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1049,18 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L17" t="n">
-        <v>15.56</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1090,18 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L18" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1131,18 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8999999999999986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>66.66666666666676</v>
-      </c>
-      <c r="L19" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1172,18 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.9999999999999982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1213,18 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.199999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L21" t="n">
-        <v>15.73</v>
+        <v>15.5</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1254,18 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L22" t="n">
-        <v>15.76</v>
+        <v>15.5</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>15.595</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1295,18 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.300000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>20.00000000000014</v>
-      </c>
-      <c r="L23" t="n">
-        <v>15.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>15.61</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1336,18 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>15.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1377,18 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L25" t="n">
-        <v>15.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>15.635</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1418,18 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L26" t="n">
-        <v>15.77</v>
+        <v>15.5</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>15.645</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1459,18 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.400000000000002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L27" t="n">
-        <v>15.76</v>
+        <v>15.5</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1500,18 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.500000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>15.76</v>
+        <v>15.5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1541,18 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.600000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>15.695</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1582,18 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.800000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>33.33333333333314</v>
-      </c>
-      <c r="L30" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>15.72</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1623,18 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>15.76</v>
+        <v>15.5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>15.745</v>
-      </c>
-      <c r="N31" t="n">
-        <v>15.64</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1664,18 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.900000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>15.76</v>
+        <v>15.5</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>15.76000000000001</v>
-      </c>
-      <c r="N32" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1705,18 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.000000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L33" t="n">
-        <v>15.77</v>
+        <v>15.5</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>15.775</v>
-      </c>
-      <c r="N33" t="n">
-        <v>15.66333333333333</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1746,18 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.100000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L34" t="n">
-        <v>15.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15.67333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1787,18 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.200000000000005</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>25.00000000000006</v>
-      </c>
-      <c r="L35" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="N35" t="n">
-        <v>15.69</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1828,18 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>11.11111111111124</v>
-      </c>
-      <c r="L36" t="n">
-        <v>15.81000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="N36" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1869,18 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>15.82000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="N37" t="n">
-        <v>15.71333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1910,18 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.300000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>14.2857142857145</v>
-      </c>
-      <c r="L38" t="n">
-        <v>15.82000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="N38" t="n">
-        <v>15.72666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1951,18 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.400000000000006</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L39" t="n">
-        <v>15.82000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>15.785</v>
-      </c>
-      <c r="N39" t="n">
-        <v>15.73666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1992,18 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.500000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>15.81000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="N40" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +2033,18 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.500000000000007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>15.81000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>15.78500000000001</v>
-      </c>
-      <c r="N41" t="n">
-        <v>15.76666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +2074,18 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.600000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>15.80000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="N42" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +2115,18 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.600000000000009</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L43" t="n">
-        <v>15.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>15.775</v>
-      </c>
-      <c r="N43" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +2156,18 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J44" t="n">
-        <v>2.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>-19.99999999999972</v>
-      </c>
-      <c r="L44" t="n">
-        <v>15.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="N44" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2197,18 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>15.77</v>
+        <v>15.5</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>15.78500000000001</v>
-      </c>
-      <c r="N45" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2238,18 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.70000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>15.77</v>
+        <v>15.5</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>15.79000000000001</v>
-      </c>
-      <c r="N46" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2279,18 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.900000000000011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L47" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>15.78500000000001</v>
-      </c>
-      <c r="N47" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2320,18 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>14.28571428571436</v>
-      </c>
-      <c r="L48" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>15.78500000000001</v>
-      </c>
-      <c r="N48" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2361,18 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.100000000000012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>15.76000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>15.79000000000001</v>
-      </c>
-      <c r="N49" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2402,18 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.200000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>-14.28571428571436</v>
-      </c>
-      <c r="L50" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="N50" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2443,18 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.200000000000014</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>15.74</v>
+        <v>15.5</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>15.77500000000001</v>
-      </c>
-      <c r="N51" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2484,18 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>14.28571428571436</v>
-      </c>
-      <c r="L52" t="n">
-        <v>15.75</v>
+        <v>15.5</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>15.77500000000001</v>
-      </c>
-      <c r="N52" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2525,18 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>15.76000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N53" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2566,18 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>15.76000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N54" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2607,18 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>15.76000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N55" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2648,18 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>49.99999999999978</v>
-      </c>
-      <c r="L56" t="n">
-        <v>15.76000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N56" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2689,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3.300000000000015</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>15.78000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N57" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2730,18 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.400000000000016</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>15.77</v>
+        <v>15.5</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>15.76000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2771,18 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.500000000000018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L59" t="n">
-        <v>15.77</v>
+        <v>15.5</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2812,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.500000000000018</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L60" t="n">
-        <v>15.78000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N60" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,29 +2853,19 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3.500000000000018</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>15.79000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
-        <v>1</v>
+        <v>1.014354838709677</v>
       </c>
     </row>
     <row r="62">
@@ -3406,28 +2894,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.600000000000019</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L62" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2929,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3.700000000000021</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2964,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3.700000000000021</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2999,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3.700000000000021</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +3034,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J66" t="n">
-        <v>3.700000000000021</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3069,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J67" t="n">
-        <v>3.80000000000002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>49.99999999999978</v>
-      </c>
-      <c r="L67" t="n">
-        <v>15.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>15.78500000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +3104,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3.80000000000002</v>
-      </c>
-      <c r="K68" t="n">
-        <v>33.33333333333294</v>
-      </c>
-      <c r="L68" t="n">
-        <v>15.81000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>15.79000000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +3139,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.000000000000021</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L69" t="n">
-        <v>15.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>15.78500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>15.77666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +3174,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.200000000000022</v>
-      </c>
-      <c r="K70" t="n">
-        <v>14.28571428571414</v>
-      </c>
-      <c r="L70" t="n">
-        <v>15.81000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>15.79500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +3209,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J71" t="n">
-        <v>4.200000000000022</v>
-      </c>
-      <c r="K71" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +3244,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J72" t="n">
-        <v>4.400000000000023</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-14.28571428571443</v>
-      </c>
-      <c r="L72" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>15.80000000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +3279,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J73" t="n">
-        <v>4.500000000000025</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>15.80000000000001</v>
-      </c>
-      <c r="N73" t="n">
-        <v>15.78666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3314,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J74" t="n">
-        <v>4.600000000000025</v>
-      </c>
-      <c r="K74" t="n">
-        <v>11.11111111111102</v>
-      </c>
-      <c r="L74" t="n">
-        <v>15.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>15.805</v>
-      </c>
-      <c r="N74" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3349,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.800000000000026</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-9.090909090909179</v>
-      </c>
-      <c r="L75" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="N75" t="n">
-        <v>15.78666666666667</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3384,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J76" t="n">
-        <v>4.900000000000027</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-9.090909090909003</v>
-      </c>
-      <c r="L76" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="N76" t="n">
-        <v>15.78666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3419,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.000000000000028</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-16.66666666666664</v>
-      </c>
-      <c r="L77" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>15.795</v>
-      </c>
-      <c r="N77" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3454,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.200000000000029</v>
-      </c>
-      <c r="K78" t="n">
-        <v>16.66666666666664</v>
-      </c>
-      <c r="L78" t="n">
-        <v>15.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>15.805</v>
-      </c>
-      <c r="N78" t="n">
-        <v>15.79333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3489,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.200000000000029</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>15.81</v>
-      </c>
-      <c r="N79" t="n">
-        <v>15.79666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3524,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.200000000000029</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>15.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>15.815</v>
-      </c>
-      <c r="N80" t="n">
-        <v>15.80333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3559,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.300000000000029</v>
-      </c>
-      <c r="K81" t="n">
-        <v>33.3333333333332</v>
-      </c>
-      <c r="L81" t="n">
-        <v>15.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>15.825</v>
-      </c>
-      <c r="N81" t="n">
-        <v>15.81333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3594,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.500000000000028</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>15.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="N82" t="n">
-        <v>15.81333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3629,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5.600000000000028</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>15.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>15.835</v>
-      </c>
-      <c r="N83" t="n">
-        <v>15.81666666666667</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3664,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5.700000000000028</v>
-      </c>
-      <c r="K84" t="n">
-        <v>11.11111111111124</v>
-      </c>
-      <c r="L84" t="n">
-        <v>15.84</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>15.835</v>
-      </c>
-      <c r="N84" t="n">
-        <v>15.81666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3699,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.800000000000027</v>
-      </c>
-      <c r="K85" t="n">
-        <v>11.11111111111107</v>
-      </c>
-      <c r="L85" t="n">
-        <v>15.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>15.83999999999999</v>
-      </c>
-      <c r="N85" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3734,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5.900000000000027</v>
-      </c>
-      <c r="K86" t="n">
-        <v>11.11111111111129</v>
-      </c>
-      <c r="L86" t="n">
-        <v>15.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>15.83999999999999</v>
-      </c>
-      <c r="N86" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3769,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5.900000000000027</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L87" t="n">
-        <v>15.87000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>15.835</v>
-      </c>
-      <c r="N87" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3804,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5.900000000000027</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L88" t="n">
-        <v>15.86000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="N88" t="n">
-        <v>15.82333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3839,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.900000000000027</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L89" t="n">
-        <v>15.85000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>15.835</v>
-      </c>
-      <c r="N89" t="n">
-        <v>15.82333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3874,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5.900000000000027</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>15.84000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>15.83</v>
-      </c>
-      <c r="N90" t="n">
-        <v>15.82333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3909,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.100000000000028</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-33.33333333333353</v>
-      </c>
-      <c r="L91" t="n">
-        <v>15.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>15.815</v>
-      </c>
-      <c r="N91" t="n">
-        <v>15.81666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3944,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L92" t="n">
-        <v>15.80000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="N92" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3979,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>15.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="N93" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4014,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-19.99999999999986</v>
-      </c>
-      <c r="L94" t="n">
-        <v>15.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>15.81500000000001</v>
-      </c>
-      <c r="N94" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4049,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0</v>
-      </c>
-      <c r="L95" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>15.82000000000001</v>
-      </c>
-      <c r="N95" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4084,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>15.82000000000001</v>
-      </c>
-      <c r="N96" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4119,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>15.82500000000001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>15.81666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4154,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.300000000000029</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>15.78000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>15.82000000000001</v>
-      </c>
-      <c r="N98" t="n">
-        <v>15.81333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4189,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.400000000000029</v>
-      </c>
-      <c r="K99" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L99" t="n">
-        <v>15.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>15.82000000000001</v>
-      </c>
-      <c r="N99" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4224,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.500000000000028</v>
-      </c>
-      <c r="K100" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L100" t="n">
-        <v>15.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>15.81500000000001</v>
-      </c>
-      <c r="N100" t="n">
-        <v>15.81666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4259,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J101" t="n">
-        <v>6.500000000000028</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>15.81000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N101" t="n">
-        <v>15.81333333333334</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4294,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J102" t="n">
-        <v>6.600000000000028</v>
-      </c>
-      <c r="K102" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L102" t="n">
-        <v>15.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>15.81000000000001</v>
-      </c>
-      <c r="N102" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4329,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.700000000000028</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>15.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N103" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4364,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6.800000000000027</v>
-      </c>
-      <c r="K104" t="n">
-        <v>20</v>
-      </c>
-      <c r="L104" t="n">
-        <v>15.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>15.81000000000001</v>
-      </c>
-      <c r="N104" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4399,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.900000000000027</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>15.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N105" t="n">
-        <v>15.82333333333334</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4434,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.900000000000027</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>15.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N106" t="n">
-        <v>15.82333333333334</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4469,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.900000000000027</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>15.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N107" t="n">
-        <v>15.82666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4504,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.900000000000027</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L108" t="n">
-        <v>15.83000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N108" t="n">
-        <v>15.82333333333334</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4539,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6.900000000000027</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>15.82000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>15.80500000000001</v>
-      </c>
-      <c r="N109" t="n">
-        <v>15.82000000000001</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4574,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J110" t="n">
-        <v>7.000000000000028</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-20.00000000000028</v>
-      </c>
-      <c r="L110" t="n">
-        <v>15.81000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>15.80000000000001</v>
-      </c>
-      <c r="N110" t="n">
-        <v>15.81333333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4609,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7.100000000000028</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-60.00000000000014</v>
-      </c>
-      <c r="L111" t="n">
-        <v>15.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>15.80000000000001</v>
-      </c>
-      <c r="N111" t="n">
-        <v>15.80000000000001</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4644,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J112" t="n">
-        <v>7.100000000000028</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-50.00000000000022</v>
-      </c>
-      <c r="L112" t="n">
-        <v>15.76000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>15.79000000000001</v>
-      </c>
-      <c r="N112" t="n">
-        <v>15.79333333333334</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4679,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J113" t="n">
-        <v>7.100000000000028</v>
-      </c>
-      <c r="K113" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L113" t="n">
-        <v>15.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="N113" t="n">
-        <v>15.78333333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4714,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J114" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L114" t="n">
-        <v>15.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>15.77500000000001</v>
-      </c>
-      <c r="N114" t="n">
-        <v>15.78000000000001</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4749,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J115" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L115" t="n">
-        <v>15.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="N115" t="n">
-        <v>15.77333333333334</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +4784,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L116" t="n">
-        <v>15.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>15.76500000000001</v>
-      </c>
-      <c r="N116" t="n">
-        <v>15.77000000000001</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +4819,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L117" t="n">
-        <v>15.68999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>15.76000000000001</v>
-      </c>
-      <c r="N117" t="n">
-        <v>15.76666666666668</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,28 +4854,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J118" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33.33333333333373</v>
-      </c>
-      <c r="L118" t="n">
-        <v>15.67999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>15.75500000000001</v>
-      </c>
-      <c r="N118" t="n">
-        <v>15.76333333333334</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,28 +4889,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>15.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>15.74500000000001</v>
-      </c>
-      <c r="N119" t="n">
-        <v>15.76000000000001</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6364,28 +4924,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J120" t="n">
-        <v>7.200000000000028</v>
-      </c>
-      <c r="K120" t="n">
-        <v>100</v>
-      </c>
-      <c r="L120" t="n">
-        <v>15.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>15.74000000000001</v>
-      </c>
-      <c r="N120" t="n">
-        <v>15.75666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6415,28 +4959,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J121" t="n">
-        <v>7.300000000000027</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>15.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>15.73000000000001</v>
-      </c>
-      <c r="N121" t="n">
-        <v>15.75666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6466,28 +4994,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J122" t="n">
-        <v>7.300000000000027</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>15.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>15.71500000000001</v>
-      </c>
-      <c r="N122" t="n">
-        <v>15.75000000000001</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6517,1099 +5029,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7.300000000000027</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L123" t="n">
-        <v>15.66999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>15.70500000000001</v>
-      </c>
-      <c r="N123" t="n">
-        <v>15.74333333333334</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C124" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E124" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>51400</v>
-      </c>
-      <c r="G124" t="n">
-        <v>15.77999999999998</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J124" t="n">
-        <v>7.400000000000027</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>15.66999999999999</v>
-      </c>
-      <c r="M124" t="n">
-        <v>15.69500000000001</v>
-      </c>
-      <c r="N124" t="n">
-        <v>15.74000000000001</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>25863.523</v>
-      </c>
-      <c r="G125" t="n">
-        <v>15.77499999999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>7.600000000000026</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L125" t="n">
-        <v>15.64999999999999</v>
-      </c>
-      <c r="M125" t="n">
-        <v>15.68000000000001</v>
-      </c>
-      <c r="N125" t="n">
-        <v>15.73000000000001</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>64516</v>
-      </c>
-      <c r="G126" t="n">
-        <v>15.77166666666665</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J126" t="n">
-        <v>7.700000000000026</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L126" t="n">
-        <v>15.63999999999999</v>
-      </c>
-      <c r="M126" t="n">
-        <v>15.67000000000001</v>
-      </c>
-      <c r="N126" t="n">
-        <v>15.72333333333334</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>41718</v>
-      </c>
-      <c r="G127" t="n">
-        <v>15.76666666666665</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J127" t="n">
-        <v>7.700000000000026</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L127" t="n">
-        <v>15.62999999999999</v>
-      </c>
-      <c r="M127" t="n">
-        <v>15.66000000000001</v>
-      </c>
-      <c r="N127" t="n">
-        <v>15.71666666666667</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>140</v>
-      </c>
-      <c r="G128" t="n">
-        <v>15.76333333333331</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J128" t="n">
-        <v>7.800000000000026</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0</v>
-      </c>
-      <c r="L128" t="n">
-        <v>15.62999999999999</v>
-      </c>
-      <c r="M128" t="n">
-        <v>15.65500000000001</v>
-      </c>
-      <c r="N128" t="n">
-        <v>15.71333333333334</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>63689.205</v>
-      </c>
-      <c r="G129" t="n">
-        <v>15.76166666666665</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J129" t="n">
-        <v>7.900000000000025</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L129" t="n">
-        <v>15.61999999999999</v>
-      </c>
-      <c r="M129" t="n">
-        <v>15.64500000000001</v>
-      </c>
-      <c r="N129" t="n">
-        <v>15.70333333333334</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>123942.3763</v>
-      </c>
-      <c r="G130" t="n">
-        <v>15.75666666666665</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J130" t="n">
-        <v>7.900000000000025</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>15.60999999999999</v>
-      </c>
-      <c r="M130" t="n">
-        <v>15.64000000000001</v>
-      </c>
-      <c r="N130" t="n">
-        <v>15.69666666666668</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>93852.272</v>
-      </c>
-      <c r="G131" t="n">
-        <v>15.75166666666665</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J131" t="n">
-        <v>7.900000000000025</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>15.60999999999999</v>
-      </c>
-      <c r="M131" t="n">
-        <v>15.64000000000001</v>
-      </c>
-      <c r="N131" t="n">
-        <v>15.69000000000001</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2977.8265</v>
-      </c>
-      <c r="G132" t="n">
-        <v>15.74999999999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J132" t="n">
-        <v>7.900000000000025</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="n">
-        <v>15.60999999999999</v>
-      </c>
-      <c r="M132" t="n">
-        <v>15.64000000000001</v>
-      </c>
-      <c r="N132" t="n">
-        <v>15.68000000000001</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>36692.3119</v>
-      </c>
-      <c r="G133" t="n">
-        <v>15.74666666666665</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J133" t="n">
-        <v>7.900000000000025</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L133" t="n">
-        <v>15.60999999999999</v>
-      </c>
-      <c r="M133" t="n">
-        <v>15.64000000000001</v>
-      </c>
-      <c r="N133" t="n">
-        <v>15.67333333333334</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>8645.484200000001</v>
-      </c>
-      <c r="G134" t="n">
-        <v>15.74166666666665</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J134" t="n">
-        <v>7.900000000000025</v>
-      </c>
-      <c r="K134" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L134" t="n">
-        <v>15.59999999999999</v>
-      </c>
-      <c r="M134" t="n">
-        <v>15.63500000000001</v>
-      </c>
-      <c r="N134" t="n">
-        <v>15.66333333333335</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>296611.1879</v>
-      </c>
-      <c r="G135" t="n">
-        <v>15.73833333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>8.000000000000025</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L135" t="n">
-        <v>15.59999999999999</v>
-      </c>
-      <c r="M135" t="n">
-        <v>15.62500000000001</v>
-      </c>
-      <c r="N135" t="n">
-        <v>15.65333333333334</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4974.5008</v>
-      </c>
-      <c r="G136" t="n">
-        <v>15.73333333333332</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>8.000000000000025</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L136" t="n">
-        <v>15.58999999999999</v>
-      </c>
-      <c r="M136" t="n">
-        <v>15.61500000000001</v>
-      </c>
-      <c r="N136" t="n">
-        <v>15.64333333333335</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>18030.6926</v>
-      </c>
-      <c r="G137" t="n">
-        <v>15.72999999999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>8.000000000000025</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L137" t="n">
-        <v>15.57999999999999</v>
-      </c>
-      <c r="M137" t="n">
-        <v>15.60500000000001</v>
-      </c>
-      <c r="N137" t="n">
-        <v>15.63333333333335</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>12731.5923566879</v>
-      </c>
-      <c r="G138" t="n">
-        <v>15.72666666666665</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J138" t="n">
-        <v>8.200000000000024</v>
-      </c>
-      <c r="K138" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L138" t="n">
-        <v>15.57999999999999</v>
-      </c>
-      <c r="M138" t="n">
-        <v>15.60500000000001</v>
-      </c>
-      <c r="N138" t="n">
-        <v>15.63000000000001</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>12699.7633</v>
-      </c>
-      <c r="G139" t="n">
-        <v>15.71999999999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>8.400000000000023</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L139" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="M139" t="n">
-        <v>15.59500000000002</v>
-      </c>
-      <c r="N139" t="n">
-        <v>15.62000000000001</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2480</v>
-      </c>
-      <c r="G140" t="n">
-        <v>15.71499999999998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J140" t="n">
-        <v>8.500000000000023</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0</v>
-      </c>
-      <c r="L140" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="M140" t="n">
-        <v>15.59000000000002</v>
-      </c>
-      <c r="N140" t="n">
-        <v>15.61666666666668</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>57982.8662</v>
-      </c>
-      <c r="G141" t="n">
-        <v>15.70999999999998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J141" t="n">
-        <v>8.600000000000023</v>
-      </c>
-      <c r="K141" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L141" t="n">
-        <v>15.57999999999999</v>
-      </c>
-      <c r="M141" t="n">
-        <v>15.59500000000002</v>
-      </c>
-      <c r="N141" t="n">
-        <v>15.62000000000001</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>149580.1125</v>
-      </c>
-      <c r="G142" t="n">
-        <v>15.70499999999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>8.800000000000022</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L142" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="M142" t="n">
-        <v>15.59000000000001</v>
-      </c>
-      <c r="N142" t="n">
-        <v>15.61666666666668</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>63.3121</v>
-      </c>
-      <c r="G143" t="n">
-        <v>15.70166666666665</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J143" t="n">
-        <v>9.000000000000021</v>
-      </c>
-      <c r="K143" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L143" t="n">
-        <v>15.57999999999999</v>
-      </c>
-      <c r="M143" t="n">
-        <v>15.59500000000001</v>
-      </c>
-      <c r="N143" t="n">
-        <v>15.62000000000001</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>53865.0318</v>
-      </c>
-      <c r="G144" t="n">
-        <v>15.69666666666665</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>9.200000000000021</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" t="n">
-        <v>15.57</v>
-      </c>
-      <c r="M144" t="n">
-        <v>15.58500000000001</v>
-      </c>
-      <c r="N144" t="n">
-        <v>15.61333333333334</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -496,14 +492,8 @@
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -537,14 +527,8 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -712,17 +696,13 @@
         <v>15.59666666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -751,22 +731,14 @@
         <v>15.59333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -794,22 +766,14 @@
         <v>15.585</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -837,17 +801,13 @@
         <v>15.58</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -876,22 +836,14 @@
         <v>15.57833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -919,22 +871,14 @@
         <v>15.575</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -962,22 +906,14 @@
         <v>15.575</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1011,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1052,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1090,17 +1014,11 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1131,17 +1049,11 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1172,17 +1084,11 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1216,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1254,17 +1154,11 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1298,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1339,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1380,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1421,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1462,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1503,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1544,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1585,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1667,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1708,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1749,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1790,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1831,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1872,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1913,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1954,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1995,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2036,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2077,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2118,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2159,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2200,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2241,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2282,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2364,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2405,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2446,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2487,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2528,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2569,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2610,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2651,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2692,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2733,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2774,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2815,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2853,19 +2519,13 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>1.014354838709677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2894,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2929,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2964,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>15.5</v>
       </c>
       <c r="F2" t="n">
-        <v>662.064</v>
+        <v>61302.3769</v>
       </c>
       <c r="G2" t="n">
-        <v>15.59333333333333</v>
+        <v>15.58666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -480,10 +480,10 @@
         <v>15.5</v>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>662.064</v>
       </c>
       <c r="G3" t="n">
-        <v>15.595</v>
+        <v>15.59333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>15.59833333333333</v>
+        <v>15.595</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F5" t="n">
-        <v>45191.6779</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="n">
-        <v>15.6</v>
+        <v>15.59833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F6" t="n">
-        <v>87</v>
+        <v>45191.6779</v>
       </c>
       <c r="G6" t="n">
-        <v>15.60333333333334</v>
+        <v>15.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F7" t="n">
-        <v>61000</v>
+        <v>87</v>
       </c>
       <c r="G7" t="n">
-        <v>15.60166666666667</v>
+        <v>15.60333333333334</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>15.4</v>
       </c>
       <c r="F8" t="n">
-        <v>101114.922</v>
+        <v>61000</v>
       </c>
       <c r="G8" t="n">
-        <v>15.6</v>
+        <v>15.60166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>15.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3243.5805</v>
+        <v>101114.922</v>
       </c>
       <c r="G9" t="n">
-        <v>15.59666666666667</v>
+        <v>15.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>5248.6922</v>
+        <v>3243.5805</v>
       </c>
       <c r="G10" t="n">
-        <v>15.59333333333333</v>
+        <v>15.59666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F11" t="n">
-        <v>26128.2136</v>
+        <v>5248.6922</v>
       </c>
       <c r="G11" t="n">
-        <v>15.585</v>
+        <v>15.59333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F12" t="n">
-        <v>10879.489</v>
+        <v>26128.2136</v>
       </c>
       <c r="G12" t="n">
-        <v>15.58</v>
+        <v>15.585</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,28 +821,32 @@
         <v>15.5</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E13" t="n">
         <v>15.5</v>
       </c>
       <c r="F13" t="n">
-        <v>21000</v>
+        <v>10879.489</v>
       </c>
       <c r="G13" t="n">
-        <v>15.57833333333333</v>
+        <v>15.58</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.3</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -853,22 +857,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C14" t="n">
         <v>15.6</v>
       </c>
-      <c r="C14" t="n">
-        <v>15.7</v>
-      </c>
       <c r="D14" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E14" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F14" t="n">
-        <v>9523</v>
+        <v>21000</v>
       </c>
       <c r="G14" t="n">
-        <v>15.575</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,8 +881,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,19 +898,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C15" t="n">
         <v>15.7</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E15" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F15" t="n">
-        <v>232799.4393</v>
+        <v>9523</v>
       </c>
       <c r="G15" t="n">
         <v>15.575</v>
@@ -912,8 +922,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,19 +942,19 @@
         <v>15.8</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F16" t="n">
-        <v>230746.6097</v>
+        <v>232799.4393</v>
       </c>
       <c r="G16" t="n">
-        <v>15.57666666666667</v>
+        <v>15.575</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -964,16 +980,16 @@
         <v>15.8</v>
       </c>
       <c r="D17" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F17" t="n">
-        <v>65687.48209999999</v>
+        <v>230746.6097</v>
       </c>
       <c r="G17" t="n">
-        <v>15.57833333333333</v>
+        <v>15.57666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,19 +1018,19 @@
         <v>15.8</v>
       </c>
       <c r="E18" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F18" t="n">
-        <v>14685.712</v>
+        <v>65687.48209999999</v>
       </c>
       <c r="G18" t="n">
-        <v>15.58166666666667</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1034,22 +1050,22 @@
         <v>15.8</v>
       </c>
       <c r="D19" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E19" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F19" t="n">
-        <v>568375.7010999999</v>
+        <v>14685.712</v>
       </c>
       <c r="G19" t="n">
-        <v>15.585</v>
+        <v>15.58166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1066,25 +1082,25 @@
         <v>15.8</v>
       </c>
       <c r="C20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D20" t="n">
         <v>15.9</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F20" t="n">
-        <v>120604.6335</v>
+        <v>568375.7010999999</v>
       </c>
       <c r="G20" t="n">
-        <v>15.58833333333333</v>
+        <v>15.585</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1101,16 +1117,16 @@
         <v>15.8</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D21" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E21" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F21" t="n">
-        <v>4404.6248</v>
+        <v>120604.6335</v>
       </c>
       <c r="G21" t="n">
         <v>15.58833333333333</v>
@@ -1119,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1136,19 +1152,19 @@
         <v>15.8</v>
       </c>
       <c r="C22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D22" t="n">
         <v>15.8</v>
       </c>
       <c r="E22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F22" t="n">
-        <v>8260.712</v>
+        <v>4404.6248</v>
       </c>
       <c r="G22" t="n">
-        <v>15.59166666666666</v>
+        <v>15.58833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,16 +1196,16 @@
         <v>15.8</v>
       </c>
       <c r="F23" t="n">
-        <v>6195.5379</v>
+        <v>8260.712</v>
       </c>
       <c r="G23" t="n">
-        <v>15.59499999999999</v>
+        <v>15.59166666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,22 +1219,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F24" t="n">
-        <v>202298</v>
+        <v>6195.5379</v>
       </c>
       <c r="G24" t="n">
-        <v>15.59666666666666</v>
+        <v>15.59499999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1247,13 +1263,13 @@
         <v>15.7</v>
       </c>
       <c r="E25" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F25" t="n">
-        <v>64297.3342</v>
+        <v>202298</v>
       </c>
       <c r="G25" t="n">
-        <v>15.59833333333333</v>
+        <v>15.59666666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1282,13 +1298,13 @@
         <v>15.7</v>
       </c>
       <c r="E26" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F26" t="n">
-        <v>50313.04</v>
+        <v>64297.3342</v>
       </c>
       <c r="G26" t="n">
-        <v>15.60166666666666</v>
+        <v>15.59833333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1336,10 @@
         <v>15.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3256.3381</v>
+        <v>50313.04</v>
       </c>
       <c r="G27" t="n">
-        <v>15.60333333333333</v>
+        <v>15.60166666666666</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1346,16 +1362,16 @@
         <v>15.7</v>
       </c>
       <c r="C28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E28" t="n">
         <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>7894.8585</v>
+        <v>3256.3381</v>
       </c>
       <c r="G28" t="n">
         <v>15.60333333333333</v>
@@ -1381,19 +1397,19 @@
         <v>15.7</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E29" t="n">
         <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>253914.5641</v>
+        <v>7894.8585</v>
       </c>
       <c r="G29" t="n">
-        <v>15.60166666666666</v>
+        <v>15.60333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1416,19 +1432,19 @@
         <v>15.7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D30" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E30" t="n">
         <v>15.7</v>
       </c>
       <c r="F30" t="n">
-        <v>288534.0354</v>
+        <v>253914.5641</v>
       </c>
       <c r="G30" t="n">
-        <v>15.605</v>
+        <v>15.60166666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F31" t="n">
-        <v>47800</v>
+        <v>288534.0354</v>
       </c>
       <c r="G31" t="n">
-        <v>15.60666666666666</v>
+        <v>15.605</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1489,16 +1505,16 @@
         <v>15.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E32" t="n">
         <v>15.8</v>
       </c>
       <c r="F32" t="n">
-        <v>122512.9366</v>
+        <v>47800</v>
       </c>
       <c r="G32" t="n">
-        <v>15.60999999999999</v>
+        <v>15.60666666666666</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,10 +1534,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C33" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D33" t="n">
         <v>15.9</v>
@@ -1530,10 +1546,10 @@
         <v>15.8</v>
       </c>
       <c r="F33" t="n">
-        <v>513648.0517</v>
+        <v>122512.9366</v>
       </c>
       <c r="G33" t="n">
-        <v>15.61333333333332</v>
+        <v>15.60999999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1572,19 @@
         <v>15.9</v>
       </c>
       <c r="C34" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D34" t="n">
         <v>15.9</v>
       </c>
       <c r="E34" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F34" t="n">
-        <v>212469.5294</v>
+        <v>513648.0517</v>
       </c>
       <c r="G34" t="n">
-        <v>15.61666666666666</v>
+        <v>15.61333333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1604,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C35" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E35" t="n">
         <v>15.7</v>
       </c>
       <c r="F35" t="n">
-        <v>1001309.8232</v>
+        <v>212469.5294</v>
       </c>
       <c r="G35" t="n">
-        <v>15.62333333333332</v>
+        <v>15.61666666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1639,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C36" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D36" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F36" t="n">
-        <v>140683.5268</v>
+        <v>1001309.8232</v>
       </c>
       <c r="G36" t="n">
-        <v>15.62666666666666</v>
+        <v>15.62333333333332</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C37" t="n">
         <v>15.8</v>
@@ -1670,10 +1686,10 @@
         <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>99233.59729999999</v>
+        <v>140683.5268</v>
       </c>
       <c r="G37" t="n">
-        <v>15.62999999999999</v>
+        <v>15.62666666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1721,10 @@
         <v>15.8</v>
       </c>
       <c r="F38" t="n">
-        <v>403904.4489</v>
+        <v>99233.59729999999</v>
       </c>
       <c r="G38" t="n">
-        <v>15.63333333333332</v>
+        <v>15.62999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1747,19 @@
         <v>15.8</v>
       </c>
       <c r="C39" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D39" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E39" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F39" t="n">
-        <v>84888.22779999999</v>
+        <v>403904.4489</v>
       </c>
       <c r="G39" t="n">
-        <v>15.63499999999999</v>
+        <v>15.63333333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,10 +1779,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D40" t="n">
         <v>15.8</v>
@@ -1775,10 +1791,10 @@
         <v>15.7</v>
       </c>
       <c r="F40" t="n">
-        <v>30120</v>
+        <v>84888.22779999999</v>
       </c>
       <c r="G40" t="n">
-        <v>15.63833333333332</v>
+        <v>15.63499999999999</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,7 +1814,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C41" t="n">
         <v>15.8</v>
@@ -1807,13 +1823,13 @@
         <v>15.8</v>
       </c>
       <c r="E41" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F41" t="n">
-        <v>78367</v>
+        <v>30120</v>
       </c>
       <c r="G41" t="n">
-        <v>15.64166666666665</v>
+        <v>15.63833333333332</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F42" t="n">
-        <v>68081</v>
+        <v>78367</v>
       </c>
       <c r="G42" t="n">
-        <v>15.64333333333332</v>
+        <v>15.64166666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1874,16 +1890,16 @@
         <v>15.7</v>
       </c>
       <c r="D43" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E43" t="n">
         <v>15.7</v>
       </c>
       <c r="F43" t="n">
-        <v>159458.5294</v>
+        <v>68081</v>
       </c>
       <c r="G43" t="n">
-        <v>15.64499999999999</v>
+        <v>15.64333333333332</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1906,19 +1922,19 @@
         <v>15.7</v>
       </c>
       <c r="C44" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E44" t="n">
         <v>15.7</v>
       </c>
       <c r="F44" t="n">
-        <v>206526.9533</v>
+        <v>159458.5294</v>
       </c>
       <c r="G44" t="n">
-        <v>15.64833333333332</v>
+        <v>15.64499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C45" t="n">
         <v>15.8</v>
       </c>
       <c r="D45" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E45" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F45" t="n">
-        <v>62614.127</v>
+        <v>206526.9533</v>
       </c>
       <c r="G45" t="n">
-        <v>15.65166666666665</v>
+        <v>15.64833333333332</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2001,10 @@
         <v>15.8</v>
       </c>
       <c r="F46" t="n">
-        <v>3701.5102</v>
+        <v>62614.127</v>
       </c>
       <c r="G46" t="n">
-        <v>15.65499999999998</v>
+        <v>15.65166666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,19 +2024,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F47" t="n">
-        <v>15260.0246</v>
+        <v>3701.5102</v>
       </c>
       <c r="G47" t="n">
         <v>15.65499999999998</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F48" t="n">
-        <v>2613.7341</v>
+        <v>15260.0246</v>
       </c>
       <c r="G48" t="n">
-        <v>15.65833333333331</v>
+        <v>15.65499999999998</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2106,10 @@
         <v>15.8</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>2613.7341</v>
       </c>
       <c r="G49" t="n">
-        <v>15.66166666666665</v>
+        <v>15.65833333333331</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F50" t="n">
-        <v>19200</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>15.66333333333331</v>
+        <v>15.66166666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2176,10 @@
         <v>15.7</v>
       </c>
       <c r="F51" t="n">
-        <v>24000</v>
+        <v>19200</v>
       </c>
       <c r="G51" t="n">
-        <v>15.66499999999998</v>
+        <v>15.66333333333331</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>24000</v>
       </c>
       <c r="G52" t="n">
-        <v>15.66833333333331</v>
+        <v>15.66499999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2246,10 @@
         <v>15.8</v>
       </c>
       <c r="F53" t="n">
-        <v>47261.3734</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>15.67166666666665</v>
+        <v>15.66833333333331</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2281,10 @@
         <v>15.8</v>
       </c>
       <c r="F54" t="n">
-        <v>283399.0189</v>
+        <v>47261.3734</v>
       </c>
       <c r="G54" t="n">
-        <v>15.67666666666664</v>
+        <v>15.67166666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2316,10 @@
         <v>15.8</v>
       </c>
       <c r="F55" t="n">
-        <v>1176.1708</v>
+        <v>283399.0189</v>
       </c>
       <c r="G55" t="n">
-        <v>15.67999999999998</v>
+        <v>15.67666666666664</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2351,10 @@
         <v>15.8</v>
       </c>
       <c r="F56" t="n">
-        <v>2975.443</v>
+        <v>1176.1708</v>
       </c>
       <c r="G56" t="n">
-        <v>15.68499999999998</v>
+        <v>15.67999999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,7 +2374,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C57" t="n">
         <v>15.8</v>
@@ -2367,13 +2383,13 @@
         <v>15.8</v>
       </c>
       <c r="E57" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F57" t="n">
-        <v>53110.72223924051</v>
+        <v>2975.443</v>
       </c>
       <c r="G57" t="n">
-        <v>15.68999999999997</v>
+        <v>15.68499999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2412,19 @@
         <v>15.7</v>
       </c>
       <c r="C58" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D58" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E58" t="n">
         <v>15.7</v>
       </c>
       <c r="F58" t="n">
-        <v>6990.6531</v>
+        <v>53110.72223924051</v>
       </c>
       <c r="G58" t="n">
-        <v>15.69333333333331</v>
+        <v>15.68999999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2444,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F59" t="n">
-        <v>113494.0506</v>
+        <v>6990.6531</v>
       </c>
       <c r="G59" t="n">
-        <v>15.69833333333331</v>
+        <v>15.69333333333331</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2491,10 @@
         <v>15.8</v>
       </c>
       <c r="F60" t="n">
-        <v>66800</v>
+        <v>113494.0506</v>
       </c>
       <c r="G60" t="n">
-        <v>15.70499999999998</v>
+        <v>15.69833333333331</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2526,10 @@
         <v>15.8</v>
       </c>
       <c r="F61" t="n">
-        <v>21000</v>
+        <v>66800</v>
       </c>
       <c r="G61" t="n">
-        <v>15.70999999999997</v>
+        <v>15.70499999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F62" t="n">
-        <v>91.5759</v>
+        <v>21000</v>
       </c>
       <c r="G62" t="n">
-        <v>15.71333333333331</v>
+        <v>15.70999999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F63" t="n">
-        <v>149955</v>
+        <v>91.5759</v>
       </c>
       <c r="G63" t="n">
-        <v>15.71833333333331</v>
+        <v>15.71333333333331</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2631,10 @@
         <v>15.8</v>
       </c>
       <c r="F64" t="n">
-        <v>15067.9746</v>
+        <v>149955</v>
       </c>
       <c r="G64" t="n">
-        <v>15.72333333333331</v>
+        <v>15.71833333333331</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2666,10 @@
         <v>15.8</v>
       </c>
       <c r="F65" t="n">
-        <v>51.4873</v>
+        <v>15067.9746</v>
       </c>
       <c r="G65" t="n">
-        <v>15.72999999999997</v>
+        <v>15.72333333333331</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2701,10 @@
         <v>15.8</v>
       </c>
       <c r="F66" t="n">
-        <v>6200</v>
+        <v>51.4873</v>
       </c>
       <c r="G66" t="n">
-        <v>15.73499999999997</v>
+        <v>15.72999999999997</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2727,19 @@
         <v>15.8</v>
       </c>
       <c r="C67" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D67" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E67" t="n">
         <v>15.8</v>
       </c>
       <c r="F67" t="n">
-        <v>4400</v>
+        <v>6200</v>
       </c>
       <c r="G67" t="n">
-        <v>15.74333333333331</v>
+        <v>15.73499999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,7 +2759,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C68" t="n">
         <v>15.9</v>
@@ -2752,13 +2768,13 @@
         <v>15.9</v>
       </c>
       <c r="E68" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F68" t="n">
-        <v>299.371</v>
+        <v>4400</v>
       </c>
       <c r="G68" t="n">
-        <v>15.75166666666664</v>
+        <v>15.74333333333331</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2797,19 @@
         <v>15.9</v>
       </c>
       <c r="C69" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D69" t="n">
         <v>15.9</v>
       </c>
       <c r="E69" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F69" t="n">
-        <v>85.9748</v>
+        <v>299.371</v>
       </c>
       <c r="G69" t="n">
-        <v>15.75666666666664</v>
+        <v>15.75166666666664</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2816,19 +2832,19 @@
         <v>15.9</v>
       </c>
       <c r="C70" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D70" t="n">
         <v>15.9</v>
       </c>
       <c r="E70" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F70" t="n">
-        <v>600</v>
+        <v>85.9748</v>
       </c>
       <c r="G70" t="n">
-        <v>15.76499999999997</v>
+        <v>15.75666666666664</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2876,10 @@
         <v>15.9</v>
       </c>
       <c r="F71" t="n">
-        <v>24401.1320754717</v>
+        <v>600</v>
       </c>
       <c r="G71" t="n">
-        <v>15.77499999999997</v>
+        <v>15.76499999999997</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2899,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F72" t="n">
-        <v>24340.1292</v>
+        <v>24401.1320754717</v>
       </c>
       <c r="G72" t="n">
-        <v>15.77833333333331</v>
+        <v>15.77499999999997</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2934,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F73" t="n">
-        <v>9134.284900000001</v>
+        <v>24340.1292</v>
       </c>
       <c r="G73" t="n">
-        <v>15.78166666666664</v>
+        <v>15.77833333333331</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C74" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D74" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E74" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F74" t="n">
-        <v>220898.6008</v>
+        <v>9134.284900000001</v>
       </c>
       <c r="G74" t="n">
-        <v>15.78499999999997</v>
+        <v>15.78166666666664</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,16 +3007,16 @@
         <v>15.7</v>
       </c>
       <c r="C75" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D75" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E75" t="n">
         <v>15.7</v>
       </c>
       <c r="F75" t="n">
-        <v>15030.3047</v>
+        <v>220898.6008</v>
       </c>
       <c r="G75" t="n">
         <v>15.78499999999997</v>
@@ -3023,19 +3039,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F76" t="n">
-        <v>18400</v>
+        <v>15030.3047</v>
       </c>
       <c r="G76" t="n">
         <v>15.78499999999997</v>
@@ -3058,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F77" t="n">
-        <v>100000</v>
+        <v>18400</v>
       </c>
       <c r="G77" t="n">
-        <v>15.78333333333331</v>
+        <v>15.78499999999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C78" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D78" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E78" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F78" t="n">
-        <v>430800</v>
+        <v>100000</v>
       </c>
       <c r="G78" t="n">
-        <v>15.78499999999997</v>
+        <v>15.78333333333331</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,7 +3144,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C79" t="n">
         <v>15.9</v>
@@ -3137,13 +3153,13 @@
         <v>15.9</v>
       </c>
       <c r="E79" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F79" t="n">
-        <v>248281</v>
+        <v>430800</v>
       </c>
       <c r="G79" t="n">
-        <v>15.78666666666664</v>
+        <v>15.78499999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,7 +3191,7 @@
         <v>15.9</v>
       </c>
       <c r="F80" t="n">
-        <v>326566.4654852878</v>
+        <v>248281</v>
       </c>
       <c r="G80" t="n">
         <v>15.78666666666664</v>
@@ -3198,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F81" t="n">
-        <v>8002.6875</v>
+        <v>326566.4654852878</v>
       </c>
       <c r="G81" t="n">
-        <v>15.79166666666664</v>
+        <v>15.78666666666664</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,19 +3249,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F82" t="n">
-        <v>21000</v>
+        <v>8002.6875</v>
       </c>
       <c r="G82" t="n">
         <v>15.79166666666664</v>
@@ -3268,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F83" t="n">
-        <v>3170</v>
+        <v>21000</v>
       </c>
       <c r="G83" t="n">
-        <v>15.79333333333331</v>
+        <v>15.79166666666664</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F84" t="n">
-        <v>65844.689</v>
+        <v>3170</v>
       </c>
       <c r="G84" t="n">
-        <v>15.79499999999997</v>
+        <v>15.79333333333331</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3144.654088050314</v>
+        <v>65844.689</v>
       </c>
       <c r="G85" t="n">
-        <v>15.79833333333331</v>
+        <v>15.79499999999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3389,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F86" t="n">
-        <v>310479.1675</v>
+        <v>3144.654088050314</v>
       </c>
       <c r="G86" t="n">
-        <v>15.79999999999997</v>
+        <v>15.79833333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3436,10 @@
         <v>15.8</v>
       </c>
       <c r="F87" t="n">
-        <v>33364</v>
+        <v>310479.1675</v>
       </c>
       <c r="G87" t="n">
-        <v>15.80166666666664</v>
+        <v>15.79999999999997</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,7 +3471,7 @@
         <v>15.8</v>
       </c>
       <c r="F88" t="n">
-        <v>316.4556962025317</v>
+        <v>33364</v>
       </c>
       <c r="G88" t="n">
         <v>15.80166666666664</v>
@@ -3490,10 +3506,10 @@
         <v>15.8</v>
       </c>
       <c r="F89" t="n">
-        <v>49347.184</v>
+        <v>316.4556962025317</v>
       </c>
       <c r="G89" t="n">
-        <v>15.8033333333333</v>
+        <v>15.80166666666664</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3525,10 +3541,10 @@
         <v>15.8</v>
       </c>
       <c r="F90" t="n">
-        <v>148771.4868</v>
+        <v>49347.184</v>
       </c>
       <c r="G90" t="n">
-        <v>15.80166666666663</v>
+        <v>15.8033333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C91" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D91" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E91" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>153417.2923</v>
+        <v>148771.4868</v>
       </c>
       <c r="G91" t="n">
-        <v>15.7983333333333</v>
+        <v>15.80166666666663</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,19 +3599,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C92" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D92" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E92" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F92" t="n">
-        <v>25569.4629</v>
+        <v>153417.2923</v>
       </c>
       <c r="G92" t="n">
         <v>15.7983333333333</v>
@@ -3630,10 +3646,10 @@
         <v>15.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1258.846</v>
+        <v>25569.4629</v>
       </c>
       <c r="G93" t="n">
-        <v>15.79666666666663</v>
+        <v>15.7983333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,7 +3681,7 @@
         <v>15.8</v>
       </c>
       <c r="F94" t="n">
-        <v>6444.6475</v>
+        <v>1258.846</v>
       </c>
       <c r="G94" t="n">
         <v>15.79666666666663</v>
@@ -3700,10 +3716,10 @@
         <v>15.8</v>
       </c>
       <c r="F95" t="n">
-        <v>33999.6077</v>
+        <v>6444.6475</v>
       </c>
       <c r="G95" t="n">
-        <v>15.79499999999997</v>
+        <v>15.79666666666663</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,7 +3751,7 @@
         <v>15.8</v>
       </c>
       <c r="F96" t="n">
-        <v>11253.5568</v>
+        <v>33999.6077</v>
       </c>
       <c r="G96" t="n">
         <v>15.79499999999997</v>
@@ -3770,7 +3786,7 @@
         <v>15.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2732.3626</v>
+        <v>11253.5568</v>
       </c>
       <c r="G97" t="n">
         <v>15.79499999999997</v>
@@ -3805,7 +3821,7 @@
         <v>15.8</v>
       </c>
       <c r="F98" t="n">
-        <v>45.5505</v>
+        <v>2732.3626</v>
       </c>
       <c r="G98" t="n">
         <v>15.79499999999997</v>
@@ -3828,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>45.5505</v>
       </c>
       <c r="G99" t="n">
-        <v>15.7983333333333</v>
+        <v>15.79499999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,19 +3879,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F100" t="n">
-        <v>45788.4711</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
         <v>15.7983333333333</v>
@@ -3910,7 +3926,7 @@
         <v>15.8</v>
       </c>
       <c r="F101" t="n">
-        <v>15361.0995</v>
+        <v>45788.4711</v>
       </c>
       <c r="G101" t="n">
         <v>15.7983333333333</v>
@@ -3933,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F102" t="n">
-        <v>185233.9067</v>
+        <v>15361.0995</v>
       </c>
       <c r="G102" t="n">
-        <v>15.80166666666663</v>
+        <v>15.7983333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F103" t="n">
-        <v>17553.2911</v>
+        <v>185233.9067</v>
       </c>
       <c r="G103" t="n">
-        <v>15.8033333333333</v>
+        <v>15.80166666666663</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4006,19 +4022,19 @@
         <v>15.8</v>
       </c>
       <c r="C104" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D104" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E104" t="n">
         <v>15.8</v>
       </c>
       <c r="F104" t="n">
-        <v>17800.1257</v>
+        <v>17553.2911</v>
       </c>
       <c r="G104" t="n">
-        <v>15.80499999999996</v>
+        <v>15.8033333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,16 +4057,16 @@
         <v>15.8</v>
       </c>
       <c r="C105" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D105" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E105" t="n">
         <v>15.8</v>
       </c>
       <c r="F105" t="n">
-        <v>50000</v>
+        <v>17800.1257</v>
       </c>
       <c r="G105" t="n">
         <v>15.80499999999996</v>
@@ -4085,7 +4101,7 @@
         <v>15.8</v>
       </c>
       <c r="F106" t="n">
-        <v>27753.8607</v>
+        <v>50000</v>
       </c>
       <c r="G106" t="n">
         <v>15.80499999999996</v>
@@ -4120,10 +4136,10 @@
         <v>15.8</v>
       </c>
       <c r="F107" t="n">
-        <v>15252.5683</v>
+        <v>27753.8607</v>
       </c>
       <c r="G107" t="n">
-        <v>15.8083333333333</v>
+        <v>15.80499999999996</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4159,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C108" t="n">
         <v>15.8</v>
@@ -4152,10 +4168,10 @@
         <v>15.8</v>
       </c>
       <c r="E108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F108" t="n">
-        <v>120755.7459</v>
+        <v>15252.5683</v>
       </c>
       <c r="G108" t="n">
         <v>15.8083333333333</v>
@@ -4178,7 +4194,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C109" t="n">
         <v>15.8</v>
@@ -4187,10 +4203,10 @@
         <v>15.8</v>
       </c>
       <c r="E109" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F109" t="n">
-        <v>2263.8405</v>
+        <v>120755.7459</v>
       </c>
       <c r="G109" t="n">
         <v>15.8083333333333</v>
@@ -4213,19 +4229,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C110" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D110" t="n">
         <v>15.8</v>
       </c>
       <c r="E110" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F110" t="n">
-        <v>49180.8624</v>
+        <v>2263.8405</v>
       </c>
       <c r="G110" t="n">
         <v>15.8083333333333</v>
@@ -4248,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C111" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D111" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E111" t="n">
         <v>15.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1104.5343</v>
+        <v>49180.8624</v>
       </c>
       <c r="G111" t="n">
-        <v>15.80666666666663</v>
+        <v>15.8083333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4295,10 +4311,10 @@
         <v>15.6</v>
       </c>
       <c r="F112" t="n">
-        <v>2975.443</v>
+        <v>1104.5343</v>
       </c>
       <c r="G112" t="n">
-        <v>15.8033333333333</v>
+        <v>15.80666666666663</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4330,10 +4346,10 @@
         <v>15.6</v>
       </c>
       <c r="F113" t="n">
-        <v>84967.664</v>
+        <v>2975.443</v>
       </c>
       <c r="G113" t="n">
-        <v>15.79999999999996</v>
+        <v>15.8033333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F114" t="n">
-        <v>21000</v>
+        <v>84967.664</v>
       </c>
       <c r="G114" t="n">
-        <v>15.7983333333333</v>
+        <v>15.79999999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4400,10 +4416,10 @@
         <v>15.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2420</v>
+        <v>21000</v>
       </c>
       <c r="G115" t="n">
-        <v>15.79666666666663</v>
+        <v>15.7983333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4451,10 @@
         <v>15.7</v>
       </c>
       <c r="F116" t="n">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="G116" t="n">
-        <v>15.79499999999997</v>
+        <v>15.79666666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4470,10 +4486,10 @@
         <v>15.7</v>
       </c>
       <c r="F117" t="n">
-        <v>2878</v>
+        <v>2410</v>
       </c>
       <c r="G117" t="n">
-        <v>15.7933333333333</v>
+        <v>15.79499999999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,7 +4521,7 @@
         <v>15.7</v>
       </c>
       <c r="F118" t="n">
-        <v>19800</v>
+        <v>2878</v>
       </c>
       <c r="G118" t="n">
         <v>15.7933333333333</v>
@@ -4540,10 +4556,10 @@
         <v>15.7</v>
       </c>
       <c r="F119" t="n">
-        <v>3461.538</v>
+        <v>19800</v>
       </c>
       <c r="G119" t="n">
-        <v>15.79166666666664</v>
+        <v>15.7933333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4591,10 @@
         <v>15.7</v>
       </c>
       <c r="F120" t="n">
-        <v>3149.846</v>
+        <v>3461.538</v>
       </c>
       <c r="G120" t="n">
-        <v>15.78999999999997</v>
+        <v>15.79166666666664</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F121" t="n">
-        <v>33950.705</v>
+        <v>3149.846</v>
       </c>
       <c r="G121" t="n">
-        <v>15.78666666666664</v>
+        <v>15.78999999999997</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4661,10 @@
         <v>15.6</v>
       </c>
       <c r="F122" t="n">
-        <v>128.8652</v>
+        <v>33950.705</v>
       </c>
       <c r="G122" t="n">
-        <v>15.78499999999997</v>
+        <v>15.78666666666664</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4696,10 @@
         <v>15.6</v>
       </c>
       <c r="F123" t="n">
-        <v>18939.8733</v>
+        <v>128.8652</v>
       </c>
       <c r="G123" t="n">
-        <v>15.78166666666664</v>
+        <v>15.78499999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4698,6 +4714,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18939.8733</v>
+      </c>
+      <c r="G124" t="n">
+        <v>15.78166666666664</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>61302.3769</v>
       </c>
       <c r="G2" t="n">
+        <v>15.54666666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>15.58666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>662.064</v>
       </c>
       <c r="G3" t="n">
+        <v>15.54</v>
+      </c>
+      <c r="H3" t="n">
         <v>15.59333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>50000</v>
       </c>
       <c r="G4" t="n">
+        <v>15.53333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>15.595</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>50000</v>
       </c>
       <c r="G5" t="n">
+        <v>15.52666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>15.59833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>45191.6779</v>
       </c>
       <c r="G6" t="n">
-        <v>15.6</v>
+        <v>15.51333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>87</v>
       </c>
       <c r="G7" t="n">
+        <v>15.50666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>15.60333333333334</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>61000</v>
       </c>
       <c r="G8" t="n">
+        <v>15.49333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>15.60166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>101114.922</v>
       </c>
       <c r="G9" t="n">
-        <v>15.6</v>
+        <v>15.48</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,25 @@
         <v>3243.5805</v>
       </c>
       <c r="G10" t="n">
+        <v>15.47333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>15.59666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +799,29 @@
         <v>5248.6922</v>
       </c>
       <c r="G11" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="H11" t="n">
         <v>15.59333333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +845,29 @@
         <v>26128.2136</v>
       </c>
       <c r="G12" t="n">
+        <v>15.44666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>15.585</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,22 +891,25 @@
         <v>10879.489</v>
       </c>
       <c r="G13" t="n">
+        <v>15.44666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>15.58</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>15.3</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>15.3</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -872,24 +933,27 @@
         <v>21000</v>
       </c>
       <c r="G14" t="n">
+        <v>15.45333333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>15.57833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
         <v>15.3</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -913,24 +977,27 @@
         <v>9523</v>
       </c>
       <c r="G15" t="n">
+        <v>15.46666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>15.575</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
         <v>15.3</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -954,18 +1021,21 @@
         <v>232799.4393</v>
       </c>
       <c r="G16" t="n">
+        <v>15.48666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>15.575</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,18 +1059,21 @@
         <v>230746.6097</v>
       </c>
       <c r="G17" t="n">
+        <v>15.50666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>15.57666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,18 +1097,21 @@
         <v>65687.48209999999</v>
       </c>
       <c r="G18" t="n">
+        <v>15.52666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>15.57833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,18 +1135,21 @@
         <v>14685.712</v>
       </c>
       <c r="G19" t="n">
+        <v>15.54666666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>15.58166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,18 +1173,21 @@
         <v>568375.7010999999</v>
       </c>
       <c r="G20" t="n">
+        <v>15.56666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>15.585</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,18 +1211,21 @@
         <v>120604.6335</v>
       </c>
       <c r="G21" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>15.58833333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,18 +1249,21 @@
         <v>4404.6248</v>
       </c>
       <c r="G22" t="n">
+        <v>15.61333333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>15.58833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1287,21 @@
         <v>8260.712</v>
       </c>
       <c r="G23" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="H23" t="n">
         <v>15.59166666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1325,21 @@
         <v>6195.5379</v>
       </c>
       <c r="G24" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>15.59499999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1363,21 @@
         <v>202298</v>
       </c>
       <c r="G25" t="n">
+        <v>15.68666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>15.59666666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1401,21 @@
         <v>64297.3342</v>
       </c>
       <c r="G26" t="n">
+        <v>15.70666666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>15.59833333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1439,21 @@
         <v>50313.04</v>
       </c>
       <c r="G27" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>15.60166666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1477,21 @@
         <v>3256.3381</v>
       </c>
       <c r="G28" t="n">
+        <v>15.74666666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>15.60333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1515,21 @@
         <v>7894.8585</v>
       </c>
       <c r="G29" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H29" t="n">
         <v>15.60333333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1553,21 @@
         <v>253914.5641</v>
       </c>
       <c r="G30" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H30" t="n">
         <v>15.60166666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1591,21 @@
         <v>288534.0354</v>
       </c>
       <c r="G31" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>15.605</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1629,21 @@
         <v>47800</v>
       </c>
       <c r="G32" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>15.60666666666666</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1667,21 @@
         <v>122512.9366</v>
       </c>
       <c r="G33" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>15.60999999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1705,21 @@
         <v>513648.0517</v>
       </c>
       <c r="G34" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H34" t="n">
         <v>15.61333333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1743,21 @@
         <v>212469.5294</v>
       </c>
       <c r="G35" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H35" t="n">
         <v>15.61666666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1781,21 @@
         <v>1001309.8232</v>
       </c>
       <c r="G36" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H36" t="n">
         <v>15.62333333333332</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1819,21 @@
         <v>140683.5268</v>
       </c>
       <c r="G37" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>15.62666666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1857,21 @@
         <v>99233.59729999999</v>
       </c>
       <c r="G38" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>15.62999999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1895,21 @@
         <v>403904.4489</v>
       </c>
       <c r="G39" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>15.63333333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1933,21 @@
         <v>84888.22779999999</v>
       </c>
       <c r="G40" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>15.63499999999999</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1971,21 @@
         <v>30120</v>
       </c>
       <c r="G41" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H41" t="n">
         <v>15.63833333333332</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2009,21 @@
         <v>78367</v>
       </c>
       <c r="G42" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H42" t="n">
         <v>15.64166666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2047,21 @@
         <v>68081</v>
       </c>
       <c r="G43" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H43" t="n">
         <v>15.64333333333332</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2085,21 @@
         <v>159458.5294</v>
       </c>
       <c r="G44" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>15.64499999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2123,21 @@
         <v>206526.9533</v>
       </c>
       <c r="G45" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H45" t="n">
         <v>15.64833333333332</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2161,21 @@
         <v>62614.127</v>
       </c>
       <c r="G46" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>15.65166666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2199,21 @@
         <v>3701.5102</v>
       </c>
       <c r="G47" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>15.65499999999998</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2237,21 @@
         <v>15260.0246</v>
       </c>
       <c r="G48" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="H48" t="n">
         <v>15.65499999999998</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2275,21 @@
         <v>2613.7341</v>
       </c>
       <c r="G49" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>15.65833333333331</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2313,21 @@
         <v>10</v>
       </c>
       <c r="G50" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>15.66166666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2351,21 @@
         <v>19200</v>
       </c>
       <c r="G51" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H51" t="n">
         <v>15.66333333333331</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2389,21 @@
         <v>24000</v>
       </c>
       <c r="G52" t="n">
+        <v>15.75333333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>15.66499999999998</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2427,21 @@
         <v>20</v>
       </c>
       <c r="G53" t="n">
+        <v>15.75333333333334</v>
+      </c>
+      <c r="H53" t="n">
         <v>15.66833333333331</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2465,21 @@
         <v>47261.3734</v>
       </c>
       <c r="G54" t="n">
+        <v>15.75333333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>15.67166666666665</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2503,21 @@
         <v>283399.0189</v>
       </c>
       <c r="G55" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H55" t="n">
         <v>15.67666666666664</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2541,21 @@
         <v>1176.1708</v>
       </c>
       <c r="G56" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H56" t="n">
         <v>15.67999999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2579,21 @@
         <v>2975.443</v>
       </c>
       <c r="G57" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H57" t="n">
         <v>15.68499999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2617,21 @@
         <v>53110.72223924051</v>
       </c>
       <c r="G58" t="n">
+        <v>15.76666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>15.68999999999997</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2655,21 @@
         <v>6990.6531</v>
       </c>
       <c r="G59" t="n">
+        <v>15.76666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>15.69333333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2693,21 @@
         <v>113494.0506</v>
       </c>
       <c r="G60" t="n">
+        <v>15.76666666666667</v>
+      </c>
+      <c r="H60" t="n">
         <v>15.69833333333331</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2731,21 @@
         <v>66800</v>
       </c>
       <c r="G61" t="n">
+        <v>15.76666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>15.70499999999998</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2769,21 @@
         <v>21000</v>
       </c>
       <c r="G62" t="n">
+        <v>15.76666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>15.70999999999997</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2807,21 @@
         <v>91.5759</v>
       </c>
       <c r="G63" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>15.71333333333331</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2845,21 @@
         <v>149955</v>
       </c>
       <c r="G64" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>15.71833333333331</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +2883,21 @@
         <v>15067.9746</v>
       </c>
       <c r="G65" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H65" t="n">
         <v>15.72333333333331</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +2921,21 @@
         <v>51.4873</v>
       </c>
       <c r="G66" t="n">
+        <v>15.78000000000001</v>
+      </c>
+      <c r="H66" t="n">
         <v>15.72999999999997</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +2959,21 @@
         <v>6200</v>
       </c>
       <c r="G67" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H67" t="n">
         <v>15.73499999999997</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +2997,21 @@
         <v>4400</v>
       </c>
       <c r="G68" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H68" t="n">
         <v>15.74333333333331</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3035,21 @@
         <v>299.371</v>
       </c>
       <c r="G69" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>15.75166666666664</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3073,21 @@
         <v>85.9748</v>
       </c>
       <c r="G70" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H70" t="n">
         <v>15.75666666666664</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3111,21 @@
         <v>600</v>
       </c>
       <c r="G71" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H71" t="n">
         <v>15.76499999999997</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3149,21 @@
         <v>24401.1320754717</v>
       </c>
       <c r="G72" t="n">
+        <v>15.80666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>15.77499999999997</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3187,21 @@
         <v>24340.1292</v>
       </c>
       <c r="G73" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="H73" t="n">
         <v>15.77833333333331</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3225,21 @@
         <v>9134.284900000001</v>
       </c>
       <c r="G74" t="n">
+        <v>15.80666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>15.78166666666664</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3263,21 @@
         <v>220898.6008</v>
       </c>
       <c r="G75" t="n">
+        <v>15.81333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>15.78499999999997</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3301,21 @@
         <v>15030.3047</v>
       </c>
       <c r="G76" t="n">
+        <v>15.80666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>15.78499999999997</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3339,21 @@
         <v>18400</v>
       </c>
       <c r="G77" t="n">
+        <v>15.80666666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>15.78499999999997</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3377,21 @@
         <v>100000</v>
       </c>
       <c r="G78" t="n">
+        <v>15.80666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>15.78333333333331</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3415,21 @@
         <v>430800</v>
       </c>
       <c r="G79" t="n">
+        <v>15.81333333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>15.78499999999997</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3453,21 @@
         <v>248281</v>
       </c>
       <c r="G80" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="H80" t="n">
         <v>15.78666666666664</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3491,21 @@
         <v>326566.4654852878</v>
       </c>
       <c r="G81" t="n">
+        <v>15.82666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>15.78666666666664</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3529,21 @@
         <v>8002.6875</v>
       </c>
       <c r="G82" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H82" t="n">
         <v>15.79166666666664</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3567,21 @@
         <v>21000</v>
       </c>
       <c r="G83" t="n">
+        <v>15.83333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>15.79166666666664</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3605,21 @@
         <v>3170</v>
       </c>
       <c r="G84" t="n">
+        <v>15.83333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>15.79333333333331</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3643,21 @@
         <v>65844.689</v>
       </c>
       <c r="G85" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H85" t="n">
         <v>15.79499999999997</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3681,21 @@
         <v>3144.654088050314</v>
       </c>
       <c r="G86" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="H86" t="n">
         <v>15.79833333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3719,21 @@
         <v>310479.1675</v>
       </c>
       <c r="G87" t="n">
+        <v>15.83333333333334</v>
+      </c>
+      <c r="H87" t="n">
         <v>15.79999999999997</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3757,21 @@
         <v>33364</v>
       </c>
       <c r="G88" t="n">
+        <v>15.84000000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>15.80166666666664</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3795,21 @@
         <v>316.4556962025317</v>
       </c>
       <c r="G89" t="n">
+        <v>15.84000000000001</v>
+      </c>
+      <c r="H89" t="n">
         <v>15.80166666666664</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3833,21 @@
         <v>49347.184</v>
       </c>
       <c r="G90" t="n">
+        <v>15.83333333333334</v>
+      </c>
+      <c r="H90" t="n">
         <v>15.8033333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +3871,21 @@
         <v>148771.4868</v>
       </c>
       <c r="G91" t="n">
+        <v>15.84000000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>15.80166666666663</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +3909,21 @@
         <v>153417.2923</v>
       </c>
       <c r="G92" t="n">
+        <v>15.82666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>15.7983333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +3947,21 @@
         <v>25569.4629</v>
       </c>
       <c r="G93" t="n">
+        <v>15.83333333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>15.7983333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +3985,21 @@
         <v>1258.846</v>
       </c>
       <c r="G94" t="n">
+        <v>15.82666666666668</v>
+      </c>
+      <c r="H94" t="n">
         <v>15.79666666666663</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4023,21 @@
         <v>6444.6475</v>
       </c>
       <c r="G95" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H95" t="n">
         <v>15.79666666666663</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4061,21 @@
         <v>33999.6077</v>
       </c>
       <c r="G96" t="n">
+        <v>15.81333333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>15.79499999999997</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4099,21 @@
         <v>11253.5568</v>
       </c>
       <c r="G97" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>15.79499999999997</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4137,21 @@
         <v>2732.3626</v>
       </c>
       <c r="G98" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H98" t="n">
         <v>15.79499999999997</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4175,21 @@
         <v>45.5505</v>
       </c>
       <c r="G99" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>15.79499999999997</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4213,21 @@
         <v>1000</v>
       </c>
       <c r="G100" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>15.7983333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4251,21 @@
         <v>45788.4711</v>
       </c>
       <c r="G101" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>15.7983333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4289,21 @@
         <v>15361.0995</v>
       </c>
       <c r="G102" t="n">
+        <v>15.79333333333334</v>
+      </c>
+      <c r="H102" t="n">
         <v>15.7983333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4327,21 @@
         <v>185233.9067</v>
       </c>
       <c r="G103" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>15.80166666666663</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4365,21 @@
         <v>17553.2911</v>
       </c>
       <c r="G104" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H104" t="n">
         <v>15.8033333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4403,21 @@
         <v>17800.1257</v>
       </c>
       <c r="G105" t="n">
+        <v>15.80666666666668</v>
+      </c>
+      <c r="H105" t="n">
         <v>15.80499999999996</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4441,21 @@
         <v>50000</v>
       </c>
       <c r="G106" t="n">
+        <v>15.80666666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>15.80499999999996</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4479,21 @@
         <v>27753.8607</v>
       </c>
       <c r="G107" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H107" t="n">
         <v>15.80499999999996</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4517,21 @@
         <v>15252.5683</v>
       </c>
       <c r="G108" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>15.8083333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4555,21 @@
         <v>120755.7459</v>
       </c>
       <c r="G109" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>15.8083333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4593,21 @@
         <v>2263.8405</v>
       </c>
       <c r="G110" t="n">
+        <v>15.82000000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>15.8083333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4631,21 @@
         <v>49180.8624</v>
       </c>
       <c r="G111" t="n">
+        <v>15.81333333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>15.8083333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4669,21 @@
         <v>1104.5343</v>
       </c>
       <c r="G112" t="n">
+        <v>15.80000000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>15.80666666666663</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4707,21 @@
         <v>2975.443</v>
       </c>
       <c r="G113" t="n">
+        <v>15.78666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>15.8033333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +4745,21 @@
         <v>84967.664</v>
       </c>
       <c r="G114" t="n">
+        <v>15.77333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>15.79999999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +4783,21 @@
         <v>21000</v>
       </c>
       <c r="G115" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="H115" t="n">
         <v>15.7983333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +4821,21 @@
         <v>2420</v>
       </c>
       <c r="G116" t="n">
+        <v>15.75333333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>15.79666666666663</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +4859,21 @@
         <v>2410</v>
       </c>
       <c r="G117" t="n">
+        <v>15.74666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>15.79499999999997</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +4897,21 @@
         <v>2878</v>
       </c>
       <c r="G118" t="n">
+        <v>15.73333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>15.7933333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +4935,21 @@
         <v>19800</v>
       </c>
       <c r="G119" t="n">
+        <v>15.72666666666666</v>
+      </c>
+      <c r="H119" t="n">
         <v>15.7933333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +4973,21 @@
         <v>3461.538</v>
       </c>
       <c r="G120" t="n">
+        <v>15.71333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>15.79166666666664</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5011,21 @@
         <v>3149.846</v>
       </c>
       <c r="G121" t="n">
+        <v>15.70666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>15.78999999999997</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5049,21 @@
         <v>33950.705</v>
       </c>
       <c r="G122" t="n">
+        <v>15.69333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>15.78666666666664</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5087,21 @@
         <v>128.8652</v>
       </c>
       <c r="G123" t="n">
+        <v>15.67999999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>15.78499999999997</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5125,401 @@
         <v>18939.8733</v>
       </c>
       <c r="G124" t="n">
+        <v>15.66666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>15.78166666666664</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>51400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>15.65999999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>15.77999999999998</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F126" t="n">
+        <v>25863.523</v>
+      </c>
+      <c r="G126" t="n">
+        <v>15.64666666666666</v>
+      </c>
+      <c r="H126" t="n">
+        <v>15.77499999999998</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>64516</v>
+      </c>
+      <c r="G127" t="n">
+        <v>15.64666666666666</v>
+      </c>
+      <c r="H127" t="n">
+        <v>15.77166666666665</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F128" t="n">
+        <v>41718</v>
+      </c>
+      <c r="G128" t="n">
+        <v>15.64666666666666</v>
+      </c>
+      <c r="H128" t="n">
+        <v>15.76666666666665</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F129" t="n">
+        <v>140</v>
+      </c>
+      <c r="G129" t="n">
+        <v>15.65333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>15.76333333333331</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>63689.205</v>
+      </c>
+      <c r="G130" t="n">
+        <v>15.64666666666666</v>
+      </c>
+      <c r="H130" t="n">
+        <v>15.76166666666665</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E131" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>123942.3763</v>
+      </c>
+      <c r="G131" t="n">
+        <v>15.63999999999999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>15.75666666666665</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E132" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F132" t="n">
+        <v>93852.272</v>
+      </c>
+      <c r="G132" t="n">
+        <v>15.63333333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>15.75166666666665</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E133" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2977.8265</v>
+      </c>
+      <c r="G133" t="n">
+        <v>15.62666666666666</v>
+      </c>
+      <c r="H133" t="n">
+        <v>15.74999999999998</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F134" t="n">
+        <v>36692.3119</v>
+      </c>
+      <c r="G134" t="n">
+        <v>15.61999999999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>15.74666666666665</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C2" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D2" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E2" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F2" t="n">
-        <v>61302.3769</v>
+        <v>27631.3367</v>
       </c>
       <c r="G2" t="n">
-        <v>15.54666666666666</v>
+        <v>275778.299736842</v>
       </c>
       <c r="H2" t="n">
-        <v>15.58666666666667</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C3" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F3" t="n">
-        <v>662.064</v>
+        <v>2907.52</v>
       </c>
       <c r="G3" t="n">
-        <v>15.54</v>
+        <v>278685.819736842</v>
       </c>
       <c r="H3" t="n">
-        <v>15.59333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E4" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F4" t="n">
-        <v>50000</v>
+        <v>34605.9533</v>
       </c>
       <c r="G4" t="n">
-        <v>15.53333333333333</v>
+        <v>244079.866436842</v>
       </c>
       <c r="H4" t="n">
-        <v>15.595</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,24 +550,21 @@
         <v>15.5</v>
       </c>
       <c r="F5" t="n">
-        <v>50000</v>
+        <v>40311.7568</v>
       </c>
       <c r="G5" t="n">
-        <v>15.52666666666667</v>
+        <v>203768.109636842</v>
       </c>
       <c r="H5" t="n">
-        <v>15.59833333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -593,33 +576,30 @@
         <v>15.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D6" t="n">
         <v>15.6</v>
       </c>
       <c r="E6" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F6" t="n">
-        <v>45191.6779</v>
+        <v>2505.0115</v>
       </c>
       <c r="G6" t="n">
-        <v>15.51333333333333</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H6" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E7" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F7" t="n">
-        <v>87</v>
+        <v>72372.17329999999</v>
       </c>
       <c r="G7" t="n">
-        <v>15.50666666666667</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H7" t="n">
-        <v>15.60333333333334</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C8" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D8" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E8" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F8" t="n">
-        <v>61000</v>
+        <v>2545584.8143</v>
       </c>
       <c r="G8" t="n">
-        <v>15.49333333333333</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H8" t="n">
-        <v>15.60166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F9" t="n">
-        <v>101114.922</v>
+        <v>18363139.9773</v>
       </c>
       <c r="G9" t="n">
-        <v>15.48</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H9" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,40 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C10" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D10" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E10" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F10" t="n">
-        <v>3243.5805</v>
+        <v>17512367.8574</v>
       </c>
       <c r="G10" t="n">
-        <v>15.47333333333333</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H10" t="n">
-        <v>15.59666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -784,132 +748,123 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D11" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E11" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F11" t="n">
-        <v>5248.6922</v>
+        <v>18424422.0285</v>
       </c>
       <c r="G11" t="n">
-        <v>15.46</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H11" t="n">
-        <v>15.59333333333333</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="K11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="M11" t="inlineStr">
+        <v>15.6</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18464296.2324</v>
+      </c>
+      <c r="G12" t="n">
+        <v>206273.121136842</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>26128.2136</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15.44666666666667</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15.585</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="M12" t="inlineStr">
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>19313978.2302</v>
+      </c>
+      <c r="G13" t="n">
+        <v>206273.121136842</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10879.489</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15.44666666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="L13" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,7 +873,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C14" t="n">
         <v>15.6</v>
@@ -927,115 +882,112 @@
         <v>15.6</v>
       </c>
       <c r="E14" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F14" t="n">
-        <v>21000</v>
+        <v>13098953.6593</v>
       </c>
       <c r="G14" t="n">
-        <v>15.45333333333334</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H14" t="n">
-        <v>15.57833333333333</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M14" t="inlineStr">
+        <v>15.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30112137.2313</v>
+      </c>
+      <c r="G15" t="n">
+        <v>206273.121136842</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9523</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15.46666666666667</v>
-      </c>
-      <c r="H15" t="n">
-        <v>15.575</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="M15" t="inlineStr">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D16" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29766020.7114</v>
+      </c>
+      <c r="G16" t="n">
+        <v>206273.121136842</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>232799.4393</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15.48666666666667</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15.575</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1044,36 +996,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C17" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D17" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E17" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F17" t="n">
-        <v>230746.6097</v>
+        <v>6230097.3582</v>
       </c>
       <c r="G17" t="n">
-        <v>15.50666666666667</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H17" t="n">
-        <v>15.57666666666667</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1082,36 +1031,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C18" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D18" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F18" t="n">
-        <v>65687.48209999999</v>
+        <v>10117815.5688</v>
       </c>
       <c r="G18" t="n">
-        <v>15.52666666666667</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H18" t="n">
-        <v>15.57833333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1120,36 +1066,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C19" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D19" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E19" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F19" t="n">
-        <v>14685.712</v>
+        <v>19113648.5381</v>
       </c>
       <c r="G19" t="n">
-        <v>15.54666666666667</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H19" t="n">
-        <v>15.58166666666667</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,36 +1101,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C20" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D20" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E20" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F20" t="n">
-        <v>568375.7010999999</v>
+        <v>18964904.1915</v>
       </c>
       <c r="G20" t="n">
-        <v>15.56666666666667</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H20" t="n">
-        <v>15.585</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,36 +1136,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E21" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F21" t="n">
-        <v>120604.6335</v>
+        <v>19336765.058</v>
       </c>
       <c r="G21" t="n">
-        <v>15.6</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H21" t="n">
-        <v>15.58833333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,36 +1171,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D22" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F22" t="n">
-        <v>4404.6248</v>
+        <v>11453314.6882</v>
       </c>
       <c r="G22" t="n">
-        <v>15.61333333333334</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H22" t="n">
-        <v>15.58833333333333</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,36 +1206,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C23" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D23" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E23" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F23" t="n">
-        <v>8260.712</v>
+        <v>41495.7971</v>
       </c>
       <c r="G23" t="n">
-        <v>15.64</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H23" t="n">
-        <v>15.59166666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,36 +1241,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C24" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D24" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E24" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F24" t="n">
-        <v>6195.5379</v>
+        <v>1206419.3423</v>
       </c>
       <c r="G24" t="n">
-        <v>15.66666666666667</v>
+        <v>-1000146.221163158</v>
       </c>
       <c r="H24" t="n">
-        <v>15.59499999999999</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,36 +1276,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E25" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F25" t="n">
-        <v>202298</v>
+        <v>23997.9299</v>
       </c>
       <c r="G25" t="n">
-        <v>15.68666666666667</v>
+        <v>-976148.2912631579</v>
       </c>
       <c r="H25" t="n">
-        <v>15.59666666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,36 +1311,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C26" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D26" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E26" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F26" t="n">
-        <v>64297.3342</v>
+        <v>63239.5197</v>
       </c>
       <c r="G26" t="n">
-        <v>15.70666666666667</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H26" t="n">
-        <v>15.59833333333333</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,36 +1346,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D27" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E27" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F27" t="n">
-        <v>50313.04</v>
+        <v>23045.2666</v>
       </c>
       <c r="G27" t="n">
-        <v>15.73333333333333</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H27" t="n">
-        <v>15.60166666666666</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,36 +1381,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D28" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E28" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F28" t="n">
-        <v>3256.3381</v>
+        <v>25081.0544</v>
       </c>
       <c r="G28" t="n">
-        <v>15.74666666666667</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H28" t="n">
-        <v>15.60333333333333</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,36 +1416,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D29" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E29" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F29" t="n">
-        <v>7894.8585</v>
+        <v>13249.7831</v>
       </c>
       <c r="G29" t="n">
-        <v>15.76</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H29" t="n">
-        <v>15.60333333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,36 +1451,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="C30" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D30" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="E30" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F30" t="n">
-        <v>253914.5641</v>
+        <v>17224.718</v>
       </c>
       <c r="G30" t="n">
-        <v>15.76</v>
+        <v>-1056612.528963158</v>
       </c>
       <c r="H30" t="n">
-        <v>15.60166666666666</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,36 +1486,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C31" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D31" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E31" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F31" t="n">
-        <v>288534.0354</v>
+        <v>61302.3769</v>
       </c>
       <c r="G31" t="n">
-        <v>15.77333333333334</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H31" t="n">
-        <v>15.605</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1614,36 +1521,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C32" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D32" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E32" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F32" t="n">
-        <v>47800</v>
+        <v>662.064</v>
       </c>
       <c r="G32" t="n">
-        <v>15.77333333333334</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H32" t="n">
-        <v>15.60666666666666</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,36 +1556,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C33" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D33" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E33" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F33" t="n">
-        <v>122512.9366</v>
+        <v>50000</v>
       </c>
       <c r="G33" t="n">
-        <v>15.77333333333334</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H33" t="n">
-        <v>15.60999999999999</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,36 +1591,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C34" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D34" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E34" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F34" t="n">
-        <v>513648.0517</v>
+        <v>50000</v>
       </c>
       <c r="G34" t="n">
-        <v>15.78</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H34" t="n">
-        <v>15.61333333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,36 +1626,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D35" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E35" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F35" t="n">
-        <v>212469.5294</v>
+        <v>45191.6779</v>
       </c>
       <c r="G35" t="n">
-        <v>15.78</v>
+        <v>-1040501.829963158</v>
       </c>
       <c r="H35" t="n">
-        <v>15.61666666666666</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,36 +1661,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E36" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1001309.8232</v>
+        <v>87</v>
       </c>
       <c r="G36" t="n">
-        <v>15.78</v>
+        <v>-1040414.829963158</v>
       </c>
       <c r="H36" t="n">
-        <v>15.62333333333332</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,36 +1696,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C37" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D37" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E37" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F37" t="n">
-        <v>140683.5268</v>
+        <v>61000</v>
       </c>
       <c r="G37" t="n">
-        <v>15.78666666666667</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H37" t="n">
-        <v>15.62666666666666</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,36 +1731,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C38" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D38" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E38" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F38" t="n">
-        <v>99233.59729999999</v>
+        <v>101114.922</v>
       </c>
       <c r="G38" t="n">
-        <v>15.78666666666667</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H38" t="n">
-        <v>15.62999999999999</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1766,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C39" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D39" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E39" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F39" t="n">
-        <v>403904.4489</v>
+        <v>3243.5805</v>
       </c>
       <c r="G39" t="n">
-        <v>15.78666666666667</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H39" t="n">
-        <v>15.63333333333332</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1801,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C40" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D40" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="E40" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="F40" t="n">
-        <v>84888.22779999999</v>
+        <v>5248.6922</v>
       </c>
       <c r="G40" t="n">
-        <v>15.78666666666667</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H40" t="n">
-        <v>15.63499999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,36 +1836,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="C41" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="D41" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E41" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="F41" t="n">
-        <v>30120</v>
+        <v>26128.2136</v>
       </c>
       <c r="G41" t="n">
-        <v>15.79333333333334</v>
+        <v>-1127543.043563158</v>
       </c>
       <c r="H41" t="n">
-        <v>15.63833333333332</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,36 +1871,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C42" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D42" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E42" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F42" t="n">
-        <v>78367</v>
+        <v>10879.489</v>
       </c>
       <c r="G42" t="n">
-        <v>15.80000000000001</v>
+        <v>-1116663.554563158</v>
       </c>
       <c r="H42" t="n">
-        <v>15.64166666666665</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +1906,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C43" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D43" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E43" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F43" t="n">
-        <v>68081</v>
+        <v>21000</v>
       </c>
       <c r="G43" t="n">
-        <v>15.80000000000001</v>
+        <v>-1095663.554563158</v>
       </c>
       <c r="H43" t="n">
-        <v>15.64333333333332</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,36 +1941,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C44" t="n">
         <v>15.7</v>
       </c>
       <c r="D44" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E44" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F44" t="n">
-        <v>159458.5294</v>
+        <v>9523</v>
       </c>
       <c r="G44" t="n">
-        <v>15.79333333333334</v>
+        <v>-1086140.554563158</v>
       </c>
       <c r="H44" t="n">
-        <v>15.64499999999999</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,36 +1976,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C45" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D45" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E45" t="n">
         <v>15.7</v>
       </c>
       <c r="F45" t="n">
-        <v>206526.9533</v>
+        <v>232799.4393</v>
       </c>
       <c r="G45" t="n">
-        <v>15.80000000000001</v>
+        <v>-1086140.554563158</v>
       </c>
       <c r="H45" t="n">
-        <v>15.64833333333332</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2152,30 +2017,27 @@
         <v>15.8</v>
       </c>
       <c r="D46" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E46" t="n">
         <v>15.8</v>
       </c>
       <c r="F46" t="n">
-        <v>62614.127</v>
+        <v>230746.6097</v>
       </c>
       <c r="G46" t="n">
-        <v>15.79333333333334</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H46" t="n">
-        <v>15.65166666666665</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2193,27 +2055,24 @@
         <v>15.8</v>
       </c>
       <c r="E47" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F47" t="n">
-        <v>3701.5102</v>
+        <v>65687.48209999999</v>
       </c>
       <c r="G47" t="n">
-        <v>15.79333333333334</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H47" t="n">
-        <v>15.65499999999998</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,36 +2081,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C48" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D48" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E48" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F48" t="n">
-        <v>15260.0246</v>
+        <v>14685.712</v>
       </c>
       <c r="G48" t="n">
-        <v>15.78</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H48" t="n">
-        <v>15.65499999999998</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2266,30 +2122,27 @@
         <v>15.8</v>
       </c>
       <c r="D49" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E49" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2613.7341</v>
+        <v>568375.7010999999</v>
       </c>
       <c r="G49" t="n">
-        <v>15.77333333333334</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H49" t="n">
-        <v>15.65833333333331</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2301,33 +2154,30 @@
         <v>15.8</v>
       </c>
       <c r="C50" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D50" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E50" t="n">
         <v>15.8</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>120604.6335</v>
       </c>
       <c r="G50" t="n">
-        <v>15.77333333333334</v>
+        <v>-734789.3113631577</v>
       </c>
       <c r="H50" t="n">
-        <v>15.66166666666665</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,36 +2186,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C51" t="n">
         <v>15.7</v>
       </c>
       <c r="D51" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E51" t="n">
         <v>15.7</v>
       </c>
       <c r="F51" t="n">
-        <v>19200</v>
+        <v>4404.6248</v>
       </c>
       <c r="G51" t="n">
-        <v>15.76</v>
+        <v>-739193.9361631577</v>
       </c>
       <c r="H51" t="n">
-        <v>15.66333333333331</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,36 +2221,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C52" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D52" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E52" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F52" t="n">
-        <v>24000</v>
+        <v>8260.712</v>
       </c>
       <c r="G52" t="n">
-        <v>15.75333333333334</v>
+        <v>-730933.2241631576</v>
       </c>
       <c r="H52" t="n">
-        <v>15.66499999999998</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,24 +2268,21 @@
         <v>15.8</v>
       </c>
       <c r="F53" t="n">
-        <v>20</v>
+        <v>6195.5379</v>
       </c>
       <c r="G53" t="n">
-        <v>15.75333333333334</v>
+        <v>-730933.2241631576</v>
       </c>
       <c r="H53" t="n">
-        <v>15.66833333333331</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2450,36 +2291,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C54" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D54" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E54" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F54" t="n">
-        <v>47261.3734</v>
+        <v>202298</v>
       </c>
       <c r="G54" t="n">
-        <v>15.75333333333334</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H54" t="n">
-        <v>15.67166666666665</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>1</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,36 +2326,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C55" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D55" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E55" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F55" t="n">
-        <v>283399.0189</v>
+        <v>64297.3342</v>
       </c>
       <c r="G55" t="n">
-        <v>15.76</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H55" t="n">
-        <v>15.67666666666664</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2526,36 +2361,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C56" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D56" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E56" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1176.1708</v>
+        <v>50313.04</v>
       </c>
       <c r="G56" t="n">
-        <v>15.76</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H56" t="n">
-        <v>15.67999999999998</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,36 +2396,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C57" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D57" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E57" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F57" t="n">
-        <v>2975.443</v>
+        <v>3256.3381</v>
       </c>
       <c r="G57" t="n">
-        <v>15.76</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H57" t="n">
-        <v>15.68499999999998</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2614,24 +2443,21 @@
         <v>15.7</v>
       </c>
       <c r="F58" t="n">
-        <v>53110.72223924051</v>
+        <v>7894.8585</v>
       </c>
       <c r="G58" t="n">
-        <v>15.76666666666667</v>
+        <v>-925336.3656631577</v>
       </c>
       <c r="H58" t="n">
-        <v>15.68999999999997</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,24 +2478,21 @@
         <v>15.7</v>
       </c>
       <c r="F59" t="n">
-        <v>6990.6531</v>
+        <v>253914.5641</v>
       </c>
       <c r="G59" t="n">
-        <v>15.76666666666667</v>
+        <v>-1179250.929763158</v>
       </c>
       <c r="H59" t="n">
-        <v>15.69333333333331</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2678,36 +2501,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C60" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D60" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E60" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F60" t="n">
-        <v>113494.0506</v>
+        <v>288534.0354</v>
       </c>
       <c r="G60" t="n">
-        <v>15.76666666666667</v>
+        <v>-890716.8943631577</v>
       </c>
       <c r="H60" t="n">
-        <v>15.69833333333331</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2728,24 +2548,21 @@
         <v>15.8</v>
       </c>
       <c r="F61" t="n">
-        <v>66800</v>
+        <v>47800</v>
       </c>
       <c r="G61" t="n">
-        <v>15.76666666666667</v>
+        <v>-938516.8943631577</v>
       </c>
       <c r="H61" t="n">
-        <v>15.70499999999998</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,30 +2577,27 @@
         <v>15.8</v>
       </c>
       <c r="D62" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E62" t="n">
         <v>15.8</v>
       </c>
       <c r="F62" t="n">
-        <v>21000</v>
+        <v>122512.9366</v>
       </c>
       <c r="G62" t="n">
-        <v>15.76666666666667</v>
+        <v>-938516.8943631577</v>
       </c>
       <c r="H62" t="n">
-        <v>15.70999999999997</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,36 +2606,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C63" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D63" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E63" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F63" t="n">
-        <v>91.5759</v>
+        <v>513648.0517</v>
       </c>
       <c r="G63" t="n">
-        <v>15.77333333333334</v>
+        <v>-424868.8426631577</v>
       </c>
       <c r="H63" t="n">
-        <v>15.71333333333331</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,36 +2641,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C64" t="n">
         <v>15.8</v>
       </c>
       <c r="D64" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E64" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F64" t="n">
-        <v>149955</v>
+        <v>212469.5294</v>
       </c>
       <c r="G64" t="n">
-        <v>15.77333333333334</v>
+        <v>-637338.3720631576</v>
       </c>
       <c r="H64" t="n">
-        <v>15.71833333333331</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2871,33 +2679,30 @@
         <v>15.8</v>
       </c>
       <c r="C65" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D65" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E65" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F65" t="n">
-        <v>15067.9746</v>
+        <v>1001309.8232</v>
       </c>
       <c r="G65" t="n">
-        <v>15.77333333333334</v>
+        <v>363971.4511368424</v>
       </c>
       <c r="H65" t="n">
-        <v>15.72333333333331</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2906,36 +2711,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C66" t="n">
         <v>15.8</v>
       </c>
       <c r="D66" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E66" t="n">
         <v>15.8</v>
       </c>
       <c r="F66" t="n">
-        <v>51.4873</v>
+        <v>140683.5268</v>
       </c>
       <c r="G66" t="n">
-        <v>15.78000000000001</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H66" t="n">
-        <v>15.72999999999997</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,30 +2752,27 @@
         <v>15.8</v>
       </c>
       <c r="D67" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E67" t="n">
         <v>15.8</v>
       </c>
       <c r="F67" t="n">
-        <v>6200</v>
+        <v>99233.59729999999</v>
       </c>
       <c r="G67" t="n">
-        <v>15.78666666666667</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H67" t="n">
-        <v>15.73499999999997</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2985,7 +2784,7 @@
         <v>15.8</v>
       </c>
       <c r="C68" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D68" t="n">
         <v>15.9</v>
@@ -2994,24 +2793,21 @@
         <v>15.8</v>
       </c>
       <c r="F68" t="n">
-        <v>4400</v>
+        <v>403904.4489</v>
       </c>
       <c r="G68" t="n">
-        <v>15.79333333333334</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H68" t="n">
-        <v>15.74333333333331</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3020,36 +2816,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C69" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D69" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E69" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F69" t="n">
-        <v>299.371</v>
+        <v>84888.22779999999</v>
       </c>
       <c r="G69" t="n">
-        <v>15.80000000000001</v>
+        <v>138399.6965368424</v>
       </c>
       <c r="H69" t="n">
-        <v>15.75166666666664</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,36 +2851,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C70" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D70" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E70" t="n">
         <v>15.7</v>
       </c>
       <c r="F70" t="n">
-        <v>85.9748</v>
+        <v>30120</v>
       </c>
       <c r="G70" t="n">
-        <v>15.79333333333334</v>
+        <v>168519.6965368424</v>
       </c>
       <c r="H70" t="n">
-        <v>15.75666666666664</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3096,36 +2886,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C71" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D71" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E71" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F71" t="n">
-        <v>600</v>
+        <v>78367</v>
       </c>
       <c r="G71" t="n">
-        <v>15.80000000000001</v>
+        <v>168519.6965368424</v>
       </c>
       <c r="H71" t="n">
-        <v>15.76499999999997</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3134,36 +2921,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C72" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D72" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E72" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F72" t="n">
-        <v>24401.1320754717</v>
+        <v>68081</v>
       </c>
       <c r="G72" t="n">
-        <v>15.80666666666667</v>
+        <v>100438.6965368424</v>
       </c>
       <c r="H72" t="n">
-        <v>15.77499999999997</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,30 +2962,27 @@
         <v>15.7</v>
       </c>
       <c r="D73" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E73" t="n">
         <v>15.7</v>
       </c>
       <c r="F73" t="n">
-        <v>24340.1292</v>
+        <v>159458.5294</v>
       </c>
       <c r="G73" t="n">
-        <v>15.8</v>
+        <v>100438.6965368424</v>
       </c>
       <c r="H73" t="n">
-        <v>15.77833333333331</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3210,36 +2991,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C74" t="n">
         <v>15.8</v>
       </c>
       <c r="D74" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E74" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F74" t="n">
-        <v>9134.284900000001</v>
+        <v>206526.9533</v>
       </c>
       <c r="G74" t="n">
-        <v>15.80666666666667</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H74" t="n">
-        <v>15.78166666666664</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,36 +3026,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C75" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D75" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E75" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F75" t="n">
-        <v>220898.6008</v>
+        <v>62614.127</v>
       </c>
       <c r="G75" t="n">
-        <v>15.81333333333334</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H75" t="n">
-        <v>15.78499999999997</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3286,36 +3061,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C76" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D76" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E76" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F76" t="n">
-        <v>15030.3047</v>
+        <v>3701.5102</v>
       </c>
       <c r="G76" t="n">
-        <v>15.80666666666667</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H76" t="n">
-        <v>15.78499999999997</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3324,36 +3096,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C77" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D77" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E77" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F77" t="n">
-        <v>18400</v>
+        <v>15260.0246</v>
       </c>
       <c r="G77" t="n">
-        <v>15.80666666666667</v>
+        <v>291705.6252368424</v>
       </c>
       <c r="H77" t="n">
-        <v>15.78499999999997</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,36 +3131,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C78" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D78" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E78" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F78" t="n">
-        <v>100000</v>
+        <v>2613.7341</v>
       </c>
       <c r="G78" t="n">
-        <v>15.80666666666667</v>
+        <v>294319.3593368424</v>
       </c>
       <c r="H78" t="n">
-        <v>15.78333333333331</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,33 +3169,30 @@
         <v>15.8</v>
       </c>
       <c r="C79" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D79" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E79" t="n">
         <v>15.8</v>
       </c>
       <c r="F79" t="n">
-        <v>430800</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>15.81333333333334</v>
+        <v>294319.3593368424</v>
       </c>
       <c r="H79" t="n">
-        <v>15.78499999999997</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,36 +3201,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C80" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D80" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E80" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F80" t="n">
-        <v>248281</v>
+        <v>19200</v>
       </c>
       <c r="G80" t="n">
-        <v>15.82</v>
+        <v>275119.3593368424</v>
       </c>
       <c r="H80" t="n">
-        <v>15.78666666666664</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,36 +3236,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C81" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D81" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E81" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F81" t="n">
-        <v>326566.4654852878</v>
+        <v>24000</v>
       </c>
       <c r="G81" t="n">
-        <v>15.82666666666667</v>
+        <v>275119.3593368424</v>
       </c>
       <c r="H81" t="n">
-        <v>15.78666666666664</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3514,36 +3271,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="C82" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="E82" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="F82" t="n">
-        <v>8002.6875</v>
+        <v>20</v>
       </c>
       <c r="G82" t="n">
-        <v>15.84</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H82" t="n">
-        <v>15.79166666666664</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,24 +3318,21 @@
         <v>15.8</v>
       </c>
       <c r="F83" t="n">
-        <v>21000</v>
+        <v>47261.3734</v>
       </c>
       <c r="G83" t="n">
-        <v>15.83333333333334</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H83" t="n">
-        <v>15.79166666666664</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3590,36 +3341,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C84" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D84" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E84" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F84" t="n">
-        <v>3170</v>
+        <v>283399.0189</v>
       </c>
       <c r="G84" t="n">
-        <v>15.83333333333334</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H84" t="n">
-        <v>15.79333333333331</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,24 +3388,21 @@
         <v>15.8</v>
       </c>
       <c r="F85" t="n">
-        <v>65844.689</v>
+        <v>1176.1708</v>
       </c>
       <c r="G85" t="n">
-        <v>15.84</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H85" t="n">
-        <v>15.79499999999997</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,36 +3411,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C86" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D86" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E86" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F86" t="n">
-        <v>3144.654088050314</v>
+        <v>2975.443</v>
       </c>
       <c r="G86" t="n">
-        <v>15.84</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H86" t="n">
-        <v>15.79833333333331</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,7 +3446,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C87" t="n">
         <v>15.8</v>
@@ -3713,27 +3455,24 @@
         <v>15.8</v>
       </c>
       <c r="E87" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F87" t="n">
-        <v>310479.1675</v>
+        <v>53110.72223924051</v>
       </c>
       <c r="G87" t="n">
-        <v>15.83333333333334</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H87" t="n">
-        <v>15.79999999999997</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,36 +3481,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F88" t="n">
-        <v>33364</v>
+        <v>6990.6531</v>
       </c>
       <c r="G88" t="n">
-        <v>15.84000000000001</v>
+        <v>268148.7062368424</v>
       </c>
       <c r="H88" t="n">
-        <v>15.80166666666664</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,24 +3528,21 @@
         <v>15.8</v>
       </c>
       <c r="F89" t="n">
-        <v>316.4556962025317</v>
+        <v>113494.0506</v>
       </c>
       <c r="G89" t="n">
-        <v>15.84000000000001</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H89" t="n">
-        <v>15.80166666666664</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3830,24 +3563,21 @@
         <v>15.8</v>
       </c>
       <c r="F90" t="n">
-        <v>49347.184</v>
+        <v>66800</v>
       </c>
       <c r="G90" t="n">
-        <v>15.83333333333334</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H90" t="n">
-        <v>15.8033333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3868,24 +3598,21 @@
         <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>148771.4868</v>
+        <v>21000</v>
       </c>
       <c r="G91" t="n">
-        <v>15.84000000000001</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H91" t="n">
-        <v>15.80166666666663</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3897,33 +3624,30 @@
         <v>15.7</v>
       </c>
       <c r="C92" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D92" t="n">
         <v>15.7</v>
       </c>
       <c r="E92" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F92" t="n">
-        <v>153417.2923</v>
+        <v>91.5759</v>
       </c>
       <c r="G92" t="n">
-        <v>15.82666666666667</v>
+        <v>381551.1809368424</v>
       </c>
       <c r="H92" t="n">
-        <v>15.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3944,24 +3668,21 @@
         <v>15.8</v>
       </c>
       <c r="F93" t="n">
-        <v>25569.4629</v>
+        <v>149955</v>
       </c>
       <c r="G93" t="n">
-        <v>15.83333333333334</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H93" t="n">
-        <v>15.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,24 +3703,21 @@
         <v>15.8</v>
       </c>
       <c r="F94" t="n">
-        <v>1258.846</v>
+        <v>15067.9746</v>
       </c>
       <c r="G94" t="n">
-        <v>15.82666666666668</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H94" t="n">
-        <v>15.79666666666663</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4020,24 +3738,21 @@
         <v>15.8</v>
       </c>
       <c r="F95" t="n">
-        <v>6444.6475</v>
+        <v>51.4873</v>
       </c>
       <c r="G95" t="n">
-        <v>15.82000000000001</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H95" t="n">
-        <v>15.79666666666663</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4058,24 +3773,21 @@
         <v>15.8</v>
       </c>
       <c r="F96" t="n">
-        <v>33999.6077</v>
+        <v>6200</v>
       </c>
       <c r="G96" t="n">
-        <v>15.81333333333334</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H96" t="n">
-        <v>15.79499999999997</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,33 +3799,30 @@
         <v>15.8</v>
       </c>
       <c r="C97" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D97" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E97" t="n">
         <v>15.8</v>
       </c>
       <c r="F97" t="n">
-        <v>11253.5568</v>
+        <v>4400</v>
       </c>
       <c r="G97" t="n">
-        <v>15.80000000000001</v>
+        <v>535906.1809368425</v>
       </c>
       <c r="H97" t="n">
-        <v>15.79499999999997</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,36 +3831,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C98" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D98" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E98" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F98" t="n">
-        <v>2732.3626</v>
+        <v>299.371</v>
       </c>
       <c r="G98" t="n">
-        <v>15.80000000000001</v>
+        <v>535906.1809368425</v>
       </c>
       <c r="H98" t="n">
-        <v>15.79499999999997</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4160,36 +3866,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C99" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D99" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E99" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F99" t="n">
-        <v>45.5505</v>
+        <v>85.9748</v>
       </c>
       <c r="G99" t="n">
-        <v>15.79333333333334</v>
+        <v>535820.2061368425</v>
       </c>
       <c r="H99" t="n">
-        <v>15.79499999999997</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4210,24 +3913,21 @@
         <v>15.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="G100" t="n">
-        <v>15.80000000000001</v>
+        <v>536420.2061368425</v>
       </c>
       <c r="H100" t="n">
-        <v>15.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4236,36 +3936,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C101" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D101" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E101" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F101" t="n">
-        <v>45788.4711</v>
+        <v>24401.1320754717</v>
       </c>
       <c r="G101" t="n">
-        <v>15.79333333333334</v>
+        <v>536420.2061368425</v>
       </c>
       <c r="H101" t="n">
-        <v>15.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4274,36 +3971,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C102" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D102" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E102" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F102" t="n">
-        <v>15361.0995</v>
+        <v>24340.1292</v>
       </c>
       <c r="G102" t="n">
-        <v>15.79333333333334</v>
+        <v>512080.0769368425</v>
       </c>
       <c r="H102" t="n">
-        <v>15.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,36 +4006,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C103" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D103" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E103" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F103" t="n">
-        <v>185233.9067</v>
+        <v>9134.284900000001</v>
       </c>
       <c r="G103" t="n">
-        <v>15.80000000000001</v>
+        <v>521214.3618368425</v>
       </c>
       <c r="H103" t="n">
-        <v>15.80166666666663</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4350,36 +4041,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C104" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D104" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E104" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F104" t="n">
-        <v>17553.2911</v>
+        <v>220898.6008</v>
       </c>
       <c r="G104" t="n">
-        <v>15.80000000000001</v>
+        <v>742112.9626368425</v>
       </c>
       <c r="H104" t="n">
-        <v>15.8033333333333</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,36 +4076,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C105" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D105" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E105" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F105" t="n">
-        <v>17800.1257</v>
+        <v>15030.3047</v>
       </c>
       <c r="G105" t="n">
-        <v>15.80666666666668</v>
+        <v>727082.6579368425</v>
       </c>
       <c r="H105" t="n">
-        <v>15.80499999999996</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,24 +4123,21 @@
         <v>15.8</v>
       </c>
       <c r="F106" t="n">
-        <v>50000</v>
+        <v>18400</v>
       </c>
       <c r="G106" t="n">
-        <v>15.80666666666668</v>
+        <v>745482.6579368425</v>
       </c>
       <c r="H106" t="n">
-        <v>15.80499999999996</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4464,36 +4146,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C107" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D107" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E107" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F107" t="n">
-        <v>27753.8607</v>
+        <v>100000</v>
       </c>
       <c r="G107" t="n">
-        <v>15.82000000000001</v>
+        <v>645482.6579368425</v>
       </c>
       <c r="H107" t="n">
-        <v>15.80499999999996</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4505,33 +4184,30 @@
         <v>15.8</v>
       </c>
       <c r="C108" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D108" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E108" t="n">
         <v>15.8</v>
       </c>
       <c r="F108" t="n">
-        <v>15252.5683</v>
+        <v>430800</v>
       </c>
       <c r="G108" t="n">
-        <v>15.82000000000001</v>
+        <v>1076282.657936843</v>
       </c>
       <c r="H108" t="n">
-        <v>15.8083333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4540,36 +4216,33 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C109" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D109" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E109" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F109" t="n">
-        <v>120755.7459</v>
+        <v>248281</v>
       </c>
       <c r="G109" t="n">
-        <v>15.82000000000001</v>
+        <v>1076282.657936843</v>
       </c>
       <c r="H109" t="n">
-        <v>15.8083333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,36 +4251,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C110" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D110" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E110" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F110" t="n">
-        <v>2263.8405</v>
+        <v>326566.4654852878</v>
       </c>
       <c r="G110" t="n">
-        <v>15.82000000000001</v>
+        <v>1076282.657936843</v>
       </c>
       <c r="H110" t="n">
-        <v>15.8083333333333</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,36 +4286,33 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="C111" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D111" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E111" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="F111" t="n">
-        <v>49180.8624</v>
+        <v>8002.6875</v>
       </c>
       <c r="G111" t="n">
-        <v>15.81333333333334</v>
+        <v>1084285.345436843</v>
       </c>
       <c r="H111" t="n">
-        <v>15.8083333333333</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4654,36 +4321,33 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C112" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D112" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E112" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F112" t="n">
-        <v>1104.5343</v>
+        <v>21000</v>
       </c>
       <c r="G112" t="n">
-        <v>15.80000000000001</v>
+        <v>1063285.345436843</v>
       </c>
       <c r="H112" t="n">
-        <v>15.80666666666663</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4692,36 +4356,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C113" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D113" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E113" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F113" t="n">
-        <v>2975.443</v>
+        <v>3170</v>
       </c>
       <c r="G113" t="n">
-        <v>15.78666666666667</v>
+        <v>1066455.345436843</v>
       </c>
       <c r="H113" t="n">
-        <v>15.8033333333333</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4730,36 +4391,33 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F114" t="n">
-        <v>84967.664</v>
+        <v>65844.689</v>
       </c>
       <c r="G114" t="n">
-        <v>15.77333333333334</v>
+        <v>1000610.656436843</v>
       </c>
       <c r="H114" t="n">
-        <v>15.79999999999996</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,36 +4426,33 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C115" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D115" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E115" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F115" t="n">
-        <v>21000</v>
+        <v>3144.654088050314</v>
       </c>
       <c r="G115" t="n">
-        <v>15.76</v>
+        <v>1003755.310524893</v>
       </c>
       <c r="H115" t="n">
-        <v>15.7983333333333</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,36 +4461,33 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C116" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D116" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E116" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2420</v>
+        <v>310479.1675</v>
       </c>
       <c r="G116" t="n">
-        <v>15.75333333333334</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H116" t="n">
-        <v>15.79666666666663</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4844,36 +4496,33 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C117" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D117" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E117" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F117" t="n">
-        <v>2410</v>
+        <v>33364</v>
       </c>
       <c r="G117" t="n">
-        <v>15.74666666666667</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H117" t="n">
-        <v>15.79499999999997</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,36 +4531,33 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C118" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D118" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E118" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F118" t="n">
-        <v>2878</v>
+        <v>316.4556962025317</v>
       </c>
       <c r="G118" t="n">
-        <v>15.73333333333333</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H118" t="n">
-        <v>15.7933333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4920,36 +4566,33 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C119" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D119" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E119" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F119" t="n">
-        <v>19800</v>
+        <v>49347.184</v>
       </c>
       <c r="G119" t="n">
-        <v>15.72666666666666</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H119" t="n">
-        <v>15.7933333333333</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,36 +4601,33 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E120" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F120" t="n">
-        <v>3461.538</v>
+        <v>148771.4868</v>
       </c>
       <c r="G120" t="n">
-        <v>15.71333333333333</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H120" t="n">
-        <v>15.79166666666664</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4999,33 +4639,30 @@
         <v>15.7</v>
       </c>
       <c r="C121" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D121" t="n">
         <v>15.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F121" t="n">
-        <v>3149.846</v>
+        <v>153417.2923</v>
       </c>
       <c r="G121" t="n">
-        <v>15.70666666666666</v>
+        <v>539858.850724893</v>
       </c>
       <c r="H121" t="n">
-        <v>15.78999999999997</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,36 +4671,33 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C122" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D122" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E122" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F122" t="n">
-        <v>33950.705</v>
+        <v>25569.4629</v>
       </c>
       <c r="G122" t="n">
-        <v>15.69333333333333</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H122" t="n">
-        <v>15.78666666666664</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5072,36 +4706,33 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C123" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D123" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E123" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F123" t="n">
-        <v>128.8652</v>
+        <v>1258.846</v>
       </c>
       <c r="G123" t="n">
-        <v>15.67999999999999</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H123" t="n">
-        <v>15.78499999999997</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5110,36 +4741,33 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C124" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D124" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E124" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F124" t="n">
-        <v>18939.8733</v>
+        <v>6444.6475</v>
       </c>
       <c r="G124" t="n">
-        <v>15.66666666666666</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H124" t="n">
-        <v>15.78166666666664</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5148,36 +4776,33 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C125" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D125" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E125" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F125" t="n">
-        <v>51400</v>
+        <v>33999.6077</v>
       </c>
       <c r="G125" t="n">
-        <v>15.65999999999999</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H125" t="n">
-        <v>15.77999999999998</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5186,36 +4811,33 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C126" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D126" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E126" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F126" t="n">
-        <v>25863.523</v>
+        <v>11253.5568</v>
       </c>
       <c r="G126" t="n">
-        <v>15.64666666666666</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H126" t="n">
-        <v>15.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,36 +4846,33 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C127" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D127" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E127" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F127" t="n">
-        <v>64516</v>
+        <v>2732.3626</v>
       </c>
       <c r="G127" t="n">
-        <v>15.64666666666666</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H127" t="n">
-        <v>15.77166666666665</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5262,36 +4881,33 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C128" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D128" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E128" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F128" t="n">
-        <v>41718</v>
+        <v>45.5505</v>
       </c>
       <c r="G128" t="n">
-        <v>15.64666666666666</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H128" t="n">
-        <v>15.76666666666665</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,36 +4916,33 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C129" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D129" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E129" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F129" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="G129" t="n">
-        <v>15.65333333333333</v>
+        <v>566428.3136248931</v>
       </c>
       <c r="H129" t="n">
-        <v>15.76333333333331</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5338,36 +4951,33 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C130" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D130" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E130" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F130" t="n">
-        <v>63689.205</v>
+        <v>45788.4711</v>
       </c>
       <c r="G130" t="n">
-        <v>15.64666666666666</v>
+        <v>520639.8425248931</v>
       </c>
       <c r="H130" t="n">
-        <v>15.76166666666665</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5376,36 +4986,33 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E131" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F131" t="n">
-        <v>123942.3763</v>
+        <v>15361.0995</v>
       </c>
       <c r="G131" t="n">
-        <v>15.63999999999999</v>
+        <v>520639.8425248931</v>
       </c>
       <c r="H131" t="n">
-        <v>15.75666666666665</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,36 +5021,33 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C132" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D132" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E132" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="F132" t="n">
-        <v>93852.272</v>
+        <v>185233.9067</v>
       </c>
       <c r="G132" t="n">
-        <v>15.63333333333333</v>
+        <v>705873.7492248931</v>
       </c>
       <c r="H132" t="n">
-        <v>15.75166666666665</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,36 +5056,33 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C133" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D133" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E133" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F133" t="n">
-        <v>2977.8265</v>
+        <v>17553.2911</v>
       </c>
       <c r="G133" t="n">
-        <v>15.62666666666666</v>
+        <v>688320.458124893</v>
       </c>
       <c r="H133" t="n">
-        <v>15.74999999999998</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5490,36 +5091,1048 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C134" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D134" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E134" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F134" t="n">
-        <v>36692.3119</v>
+        <v>17800.1257</v>
       </c>
       <c r="G134" t="n">
-        <v>15.61999999999999</v>
+        <v>706120.583824893</v>
       </c>
       <c r="H134" t="n">
-        <v>15.74666666666665</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G135" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>27753.8607</v>
+      </c>
+      <c r="G136" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>15252.5683</v>
+      </c>
+      <c r="G137" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>120755.7459</v>
+      </c>
+      <c r="G138" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2263.8405</v>
+      </c>
+      <c r="G139" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F140" t="n">
+        <v>49180.8624</v>
+      </c>
+      <c r="G140" t="n">
+        <v>606939.721424893</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1104.5343</v>
+      </c>
+      <c r="G141" t="n">
+        <v>605835.187124893</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2975.443</v>
+      </c>
+      <c r="G142" t="n">
+        <v>605835.187124893</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F143" t="n">
+        <v>84967.664</v>
+      </c>
+      <c r="G143" t="n">
+        <v>605835.187124893</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2420</v>
+      </c>
+      <c r="G145" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2410</v>
+      </c>
+      <c r="G146" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G147" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>19800</v>
+      </c>
+      <c r="G148" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>3461.538</v>
+      </c>
+      <c r="G149" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3149.846</v>
+      </c>
+      <c r="G150" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>33950.705</v>
+      </c>
+      <c r="G151" t="n">
+        <v>592884.482124893</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>128.8652</v>
+      </c>
+      <c r="G152" t="n">
+        <v>592884.482124893</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F153" t="n">
+        <v>18939.8733</v>
+      </c>
+      <c r="G153" t="n">
+        <v>592884.482124893</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>51400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>644284.482124893</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>25863.523</v>
+      </c>
+      <c r="G155" t="n">
+        <v>618420.959124893</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>64516</v>
+      </c>
+      <c r="G156" t="n">
+        <v>682936.959124893</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F157" t="n">
+        <v>41718</v>
+      </c>
+      <c r="G157" t="n">
+        <v>682936.959124893</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F158" t="n">
+        <v>140</v>
+      </c>
+      <c r="G158" t="n">
+        <v>683076.959124893</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>63689.205</v>
+      </c>
+      <c r="G159" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F160" t="n">
+        <v>123942.3763</v>
+      </c>
+      <c r="G160" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F161" t="n">
+        <v>93852.272</v>
+      </c>
+      <c r="G161" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2977.8265</v>
+      </c>
+      <c r="G162" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F163" t="n">
+        <v>36692.3119</v>
+      </c>
+      <c r="G163" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,16 +427,21 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D2" t="n">
         <v>15.7</v>
@@ -445,13 +450,13 @@
         <v>15.6</v>
       </c>
       <c r="F2" t="n">
-        <v>27631.3367</v>
+        <v>9523</v>
       </c>
       <c r="G2" t="n">
-        <v>275778.299736842</v>
+        <v>-1086140.554563158</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,98 +467,113 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C3" t="n">
         <v>15.7</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E3" t="n">
         <v>15.7</v>
       </c>
       <c r="F3" t="n">
-        <v>2907.52</v>
+        <v>232799.4393</v>
       </c>
       <c r="G3" t="n">
-        <v>278685.819736842</v>
+        <v>-1086140.554563158</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C4" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E4" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F4" t="n">
-        <v>34605.9533</v>
+        <v>230746.6097</v>
       </c>
       <c r="G4" t="n">
-        <v>244079.866436842</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>15.7</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D5" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E5" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F5" t="n">
-        <v>40311.7568</v>
+        <v>65687.48209999999</v>
       </c>
       <c r="G5" t="n">
-        <v>203768.109636842</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -563,32 +583,37 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F6" t="n">
-        <v>2505.0115</v>
+        <v>14685.712</v>
       </c>
       <c r="G6" t="n">
-        <v>206273.121136842</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,32 +623,37 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D7" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F7" t="n">
-        <v>72372.17329999999</v>
+        <v>568375.7010999999</v>
       </c>
       <c r="G7" t="n">
-        <v>206273.121136842</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,32 +663,37 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D8" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E8" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F8" t="n">
-        <v>2545584.8143</v>
+        <v>120604.6335</v>
       </c>
       <c r="G8" t="n">
-        <v>206273.121136842</v>
+        <v>-734789.3113631577</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,32 +703,37 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C9" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D9" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E9" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F9" t="n">
-        <v>18363139.9773</v>
+        <v>4404.6248</v>
       </c>
       <c r="G9" t="n">
-        <v>206273.121136842</v>
+        <v>-739193.9361631577</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,32 +743,37 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C10" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D10" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E10" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F10" t="n">
-        <v>17512367.8574</v>
+        <v>8260.712</v>
       </c>
       <c r="G10" t="n">
-        <v>206273.121136842</v>
+        <v>-730933.2241631576</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,239 +783,237 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C11" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D11" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E11" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F11" t="n">
-        <v>18424422.0285</v>
+        <v>6195.5379</v>
       </c>
       <c r="G11" t="n">
-        <v>206273.121136842</v>
+        <v>-730933.2241631576</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E12" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F12" t="n">
-        <v>18464296.2324</v>
+        <v>202298</v>
       </c>
       <c r="G12" t="n">
-        <v>206273.121136842</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E13" t="n">
         <v>15.6</v>
       </c>
       <c r="F13" t="n">
-        <v>19313978.2302</v>
+        <v>64297.3342</v>
       </c>
       <c r="G13" t="n">
-        <v>206273.121136842</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D14" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E14" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F14" t="n">
-        <v>13098953.6593</v>
+        <v>50313.04</v>
       </c>
       <c r="G14" t="n">
-        <v>206273.121136842</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K14" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D15" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E15" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F15" t="n">
-        <v>30112137.2313</v>
+        <v>3256.3381</v>
       </c>
       <c r="G15" t="n">
-        <v>206273.121136842</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C16" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D16" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F16" t="n">
-        <v>29766020.7114</v>
+        <v>7894.8585</v>
       </c>
       <c r="G16" t="n">
-        <v>206273.121136842</v>
+        <v>-925336.3656631577</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -979,39 +1022,38 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>15.6</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C17" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E17" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F17" t="n">
-        <v>6230097.3582</v>
+        <v>253914.5641</v>
       </c>
       <c r="G17" t="n">
-        <v>206273.121136842</v>
+        <v>-1179250.929763158</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1021,32 +1063,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C18" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D18" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E18" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F18" t="n">
-        <v>10117815.5688</v>
+        <v>288534.0354</v>
       </c>
       <c r="G18" t="n">
-        <v>206273.121136842</v>
+        <v>-890716.8943631577</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1056,32 +1103,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C19" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D19" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E19" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F19" t="n">
-        <v>19113648.5381</v>
+        <v>47800</v>
       </c>
       <c r="G19" t="n">
-        <v>206273.121136842</v>
+        <v>-938516.8943631577</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1091,32 +1143,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C20" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D20" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E20" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F20" t="n">
-        <v>18964904.1915</v>
+        <v>122512.9366</v>
       </c>
       <c r="G20" t="n">
-        <v>206273.121136842</v>
+        <v>-938516.8943631577</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1126,32 +1183,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C21" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D21" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E21" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F21" t="n">
-        <v>19336765.058</v>
+        <v>513648.0517</v>
       </c>
       <c r="G21" t="n">
-        <v>206273.121136842</v>
+        <v>-424868.8426631577</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1161,32 +1223,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C22" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D22" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F22" t="n">
-        <v>11453314.6882</v>
+        <v>212469.5294</v>
       </c>
       <c r="G22" t="n">
-        <v>206273.121136842</v>
+        <v>-637338.3720631576</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1196,32 +1263,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C23" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D23" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F23" t="n">
-        <v>41495.7971</v>
+        <v>1001309.8232</v>
       </c>
       <c r="G23" t="n">
-        <v>206273.121136842</v>
+        <v>363971.4511368424</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1231,32 +1303,37 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="C24" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D24" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E24" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1206419.3423</v>
+        <v>140683.5268</v>
       </c>
       <c r="G24" t="n">
-        <v>-1000146.221163158</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,32 +1343,37 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C25" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D25" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="E25" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F25" t="n">
-        <v>23997.9299</v>
+        <v>99233.59729999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-976148.2912631579</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1301,32 +1383,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C26" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D26" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E26" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F26" t="n">
-        <v>63239.5197</v>
+        <v>403904.4489</v>
       </c>
       <c r="G26" t="n">
-        <v>-1039387.810963158</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1336,32 +1423,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C27" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D27" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E27" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F27" t="n">
-        <v>23045.2666</v>
+        <v>84888.22779999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-1039387.810963158</v>
+        <v>138399.6965368424</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1371,32 +1463,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C28" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D28" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E28" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>25081.0544</v>
+        <v>30120</v>
       </c>
       <c r="G28" t="n">
-        <v>-1039387.810963158</v>
+        <v>168519.6965368424</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1406,32 +1503,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C29" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D29" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E29" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F29" t="n">
-        <v>13249.7831</v>
+        <v>78367</v>
       </c>
       <c r="G29" t="n">
-        <v>-1039387.810963158</v>
+        <v>168519.6965368424</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1441,32 +1543,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D30" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E30" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F30" t="n">
-        <v>17224.718</v>
+        <v>68081</v>
       </c>
       <c r="G30" t="n">
-        <v>-1056612.528963158</v>
+        <v>100438.6965368424</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1476,32 +1583,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C31" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D31" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E31" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F31" t="n">
-        <v>61302.3769</v>
+        <v>159458.5294</v>
       </c>
       <c r="G31" t="n">
-        <v>-995310.1520631579</v>
+        <v>100438.6965368424</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1511,32 +1623,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="C32" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="E32" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F32" t="n">
-        <v>662.064</v>
+        <v>206526.9533</v>
       </c>
       <c r="G32" t="n">
-        <v>-995310.1520631579</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1546,32 +1663,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C33" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D33" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E33" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F33" t="n">
-        <v>50000</v>
+        <v>62614.127</v>
       </c>
       <c r="G33" t="n">
-        <v>-995310.1520631579</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1581,32 +1703,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C34" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E34" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F34" t="n">
-        <v>50000</v>
+        <v>3701.5102</v>
       </c>
       <c r="G34" t="n">
-        <v>-995310.1520631579</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1616,10 +1743,15 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1629,19 +1761,19 @@
         <v>15.6</v>
       </c>
       <c r="C35" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D35" t="n">
         <v>15.6</v>
       </c>
       <c r="E35" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F35" t="n">
-        <v>45191.6779</v>
+        <v>15260.0246</v>
       </c>
       <c r="G35" t="n">
-        <v>-1040501.829963158</v>
+        <v>291705.6252368424</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,32 +1783,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C36" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D36" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E36" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F36" t="n">
-        <v>87</v>
+        <v>2613.7341</v>
       </c>
       <c r="G36" t="n">
-        <v>-1040414.829963158</v>
+        <v>294319.3593368424</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1686,32 +1823,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C37" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="D37" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E37" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>61000</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-1101414.829963158</v>
+        <v>294319.3593368424</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1721,32 +1863,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C38" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D38" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E38" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F38" t="n">
-        <v>101114.922</v>
+        <v>19200</v>
       </c>
       <c r="G38" t="n">
-        <v>-1101414.829963158</v>
+        <v>275119.3593368424</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1756,32 +1903,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="C39" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="D39" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="E39" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="F39" t="n">
-        <v>3243.5805</v>
+        <v>24000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1101414.829963158</v>
+        <v>275119.3593368424</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1791,32 +1943,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="D40" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="E40" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="F40" t="n">
-        <v>5248.6922</v>
+        <v>20</v>
       </c>
       <c r="G40" t="n">
-        <v>-1101414.829963158</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1826,32 +1983,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="C41" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="D41" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="E41" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="F41" t="n">
-        <v>26128.2136</v>
+        <v>47261.3734</v>
       </c>
       <c r="G41" t="n">
-        <v>-1127543.043563158</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1861,32 +2023,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C42" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D42" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="E42" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F42" t="n">
-        <v>10879.489</v>
+        <v>283399.0189</v>
       </c>
       <c r="G42" t="n">
-        <v>-1116663.554563158</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1896,32 +2063,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="C43" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D43" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E43" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F43" t="n">
-        <v>21000</v>
+        <v>1176.1708</v>
       </c>
       <c r="G43" t="n">
-        <v>-1095663.554563158</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1931,32 +2103,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C44" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D44" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E44" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F44" t="n">
-        <v>9523</v>
+        <v>2975.443</v>
       </c>
       <c r="G44" t="n">
-        <v>-1086140.554563158</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1966,20 +2143,25 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C45" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D45" t="n">
         <v>15.8</v>
@@ -1988,10 +2170,10 @@
         <v>15.7</v>
       </c>
       <c r="F45" t="n">
-        <v>232799.4393</v>
+        <v>53110.72223924051</v>
       </c>
       <c r="G45" t="n">
-        <v>-1086140.554563158</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2001,32 +2183,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C46" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D46" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E46" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F46" t="n">
-        <v>230746.6097</v>
+        <v>6990.6531</v>
       </c>
       <c r="G46" t="n">
-        <v>-855393.9448631577</v>
+        <v>268148.7062368424</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2036,10 +2223,15 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,13 +2247,13 @@
         <v>15.8</v>
       </c>
       <c r="E47" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F47" t="n">
-        <v>65687.48209999999</v>
+        <v>113494.0506</v>
       </c>
       <c r="G47" t="n">
-        <v>-855393.9448631577</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2071,10 +2263,15 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2093,10 +2290,10 @@
         <v>15.8</v>
       </c>
       <c r="F48" t="n">
-        <v>14685.712</v>
+        <v>66800</v>
       </c>
       <c r="G48" t="n">
-        <v>-855393.9448631577</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2106,10 +2303,15 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2122,16 +2324,16 @@
         <v>15.8</v>
       </c>
       <c r="D49" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E49" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F49" t="n">
-        <v>568375.7010999999</v>
+        <v>21000</v>
       </c>
       <c r="G49" t="n">
-        <v>-855393.9448631577</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2141,32 +2343,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C50" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D50" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E50" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F50" t="n">
-        <v>120604.6335</v>
+        <v>91.5759</v>
       </c>
       <c r="G50" t="n">
-        <v>-734789.3113631577</v>
+        <v>381551.1809368424</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2176,10 +2383,15 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2189,19 +2401,19 @@
         <v>15.8</v>
       </c>
       <c r="C51" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D51" t="n">
         <v>15.8</v>
       </c>
       <c r="E51" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F51" t="n">
-        <v>4404.6248</v>
+        <v>149955</v>
       </c>
       <c r="G51" t="n">
-        <v>-739193.9361631577</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2211,10 +2423,15 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2233,10 +2450,10 @@
         <v>15.8</v>
       </c>
       <c r="F52" t="n">
-        <v>8260.712</v>
+        <v>15067.9746</v>
       </c>
       <c r="G52" t="n">
-        <v>-730933.2241631576</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2246,10 +2463,15 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2268,10 +2490,10 @@
         <v>15.8</v>
       </c>
       <c r="F53" t="n">
-        <v>6195.5379</v>
+        <v>51.4873</v>
       </c>
       <c r="G53" t="n">
-        <v>-730933.2241631576</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2281,32 +2503,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C54" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D54" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E54" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F54" t="n">
-        <v>202298</v>
+        <v>6200</v>
       </c>
       <c r="G54" t="n">
-        <v>-933231.2241631576</v>
+        <v>531506.1809368425</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2316,32 +2543,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C55" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D55" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E55" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F55" t="n">
-        <v>64297.3342</v>
+        <v>4400</v>
       </c>
       <c r="G55" t="n">
-        <v>-933231.2241631576</v>
+        <v>535906.1809368425</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2351,32 +2583,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C56" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D56" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E56" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F56" t="n">
-        <v>50313.04</v>
+        <v>299.371</v>
       </c>
       <c r="G56" t="n">
-        <v>-933231.2241631576</v>
+        <v>535906.1809368425</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2386,32 +2623,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C57" t="n">
         <v>15.7</v>
       </c>
       <c r="D57" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E57" t="n">
         <v>15.7</v>
       </c>
       <c r="F57" t="n">
-        <v>3256.3381</v>
+        <v>85.9748</v>
       </c>
       <c r="G57" t="n">
-        <v>-933231.2241631576</v>
+        <v>535820.2061368425</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2421,32 +2663,37 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C58" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D58" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E58" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F58" t="n">
-        <v>7894.8585</v>
+        <v>600</v>
       </c>
       <c r="G58" t="n">
-        <v>-925336.3656631577</v>
+        <v>536420.2061368425</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2456,32 +2703,37 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C59" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D59" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E59" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F59" t="n">
-        <v>253914.5641</v>
+        <v>24401.1320754717</v>
       </c>
       <c r="G59" t="n">
-        <v>-1179250.929763158</v>
+        <v>536420.2061368425</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2491,10 +2743,15 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2504,19 +2761,19 @@
         <v>15.7</v>
       </c>
       <c r="C60" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D60" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E60" t="n">
         <v>15.7</v>
       </c>
       <c r="F60" t="n">
-        <v>288534.0354</v>
+        <v>24340.1292</v>
       </c>
       <c r="G60" t="n">
-        <v>-890716.8943631577</v>
+        <v>512080.0769368425</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2526,10 +2783,15 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2548,10 +2810,10 @@
         <v>15.8</v>
       </c>
       <c r="F61" t="n">
-        <v>47800</v>
+        <v>9134.284900000001</v>
       </c>
       <c r="G61" t="n">
-        <v>-938516.8943631577</v>
+        <v>521214.3618368425</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2561,32 +2823,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C62" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D62" t="n">
         <v>15.9</v>
       </c>
       <c r="E62" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F62" t="n">
-        <v>122512.9366</v>
+        <v>220898.6008</v>
       </c>
       <c r="G62" t="n">
-        <v>-938516.8943631577</v>
+        <v>742112.9626368425</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2596,32 +2863,37 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C63" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D63" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F63" t="n">
-        <v>513648.0517</v>
+        <v>15030.3047</v>
       </c>
       <c r="G63" t="n">
-        <v>-424868.8426631577</v>
+        <v>727082.6579368425</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2631,32 +2903,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C64" t="n">
         <v>15.8</v>
       </c>
       <c r="D64" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E64" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F64" t="n">
-        <v>212469.5294</v>
+        <v>18400</v>
       </c>
       <c r="G64" t="n">
-        <v>-637338.3720631576</v>
+        <v>745482.6579368425</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2666,32 +2943,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C65" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="E65" t="n">
         <v>15.7</v>
       </c>
       <c r="F65" t="n">
-        <v>1001309.8232</v>
+        <v>100000</v>
       </c>
       <c r="G65" t="n">
-        <v>363971.4511368424</v>
+        <v>645482.6579368425</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2701,20 +2983,25 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C66" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D66" t="n">
         <v>15.9</v>
@@ -2723,10 +3010,10 @@
         <v>15.8</v>
       </c>
       <c r="F66" t="n">
-        <v>140683.5268</v>
+        <v>430800</v>
       </c>
       <c r="G66" t="n">
-        <v>223287.9243368424</v>
+        <v>1076282.657936843</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2736,32 +3023,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C67" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D67" t="n">
         <v>15.9</v>
       </c>
       <c r="E67" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F67" t="n">
-        <v>99233.59729999999</v>
+        <v>248281</v>
       </c>
       <c r="G67" t="n">
-        <v>223287.9243368424</v>
+        <v>1076282.657936843</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2771,73 +3063,81 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C68" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D68" t="n">
         <v>15.9</v>
       </c>
       <c r="E68" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F68" t="n">
-        <v>403904.4489</v>
+        <v>326566.4654852878</v>
       </c>
       <c r="G68" t="n">
-        <v>223287.9243368424</v>
+        <v>1076282.657936843</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C69" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E69" t="n">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="F69" t="n">
-        <v>84888.22779999999</v>
+        <v>8002.6875</v>
       </c>
       <c r="G69" t="n">
-        <v>138399.6965368424</v>
+        <v>1084285.345436843</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2845,13 +3145,14 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C70" t="n">
         <v>15.8</v>
@@ -2860,19 +3161,19 @@
         <v>15.8</v>
       </c>
       <c r="E70" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F70" t="n">
-        <v>30120</v>
+        <v>21000</v>
       </c>
       <c r="G70" t="n">
-        <v>168519.6965368424</v>
+        <v>1063285.345436843</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2880,34 +3181,35 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C71" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D71" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E71" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F71" t="n">
-        <v>78367</v>
+        <v>3170</v>
       </c>
       <c r="G71" t="n">
-        <v>168519.6965368424</v>
+        <v>1066455.345436843</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2915,34 +3217,35 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C72" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D72" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E72" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F72" t="n">
-        <v>68081</v>
+        <v>65844.689</v>
       </c>
       <c r="G72" t="n">
-        <v>100438.6965368424</v>
+        <v>1000610.656436843</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2950,34 +3253,35 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C73" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D73" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E73" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F73" t="n">
-        <v>159458.5294</v>
+        <v>3144.654088050314</v>
       </c>
       <c r="G73" t="n">
-        <v>100438.6965368424</v>
+        <v>1003755.310524893</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -2985,34 +3289,35 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C74" t="n">
         <v>15.8</v>
       </c>
       <c r="D74" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E74" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F74" t="n">
-        <v>206526.9533</v>
+        <v>310479.1675</v>
       </c>
       <c r="G74" t="n">
-        <v>306965.6498368424</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -3020,6 +3325,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3038,16 +3344,16 @@
         <v>15.8</v>
       </c>
       <c r="F75" t="n">
-        <v>62614.127</v>
+        <v>33364</v>
       </c>
       <c r="G75" t="n">
-        <v>306965.6498368424</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
@@ -3055,6 +3361,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3073,16 +3380,16 @@
         <v>15.8</v>
       </c>
       <c r="F76" t="n">
-        <v>3701.5102</v>
+        <v>316.4556962025317</v>
       </c>
       <c r="G76" t="n">
-        <v>306965.6498368424</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3090,34 +3397,35 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C77" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D77" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E77" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F77" t="n">
-        <v>15260.0246</v>
+        <v>49347.184</v>
       </c>
       <c r="G77" t="n">
-        <v>291705.6252368424</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3125,6 +3433,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3143,16 +3452,16 @@
         <v>15.8</v>
       </c>
       <c r="F78" t="n">
-        <v>2613.7341</v>
+        <v>148771.4868</v>
       </c>
       <c r="G78" t="n">
-        <v>294319.3593368424</v>
+        <v>693276.143024893</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3160,34 +3469,35 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C79" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D79" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E79" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>153417.2923</v>
       </c>
       <c r="G79" t="n">
-        <v>294319.3593368424</v>
+        <v>539858.850724893</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3195,28 +3505,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C80" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D80" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E80" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F80" t="n">
-        <v>19200</v>
+        <v>25569.4629</v>
       </c>
       <c r="G80" t="n">
-        <v>275119.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3230,28 +3541,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C81" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D81" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E81" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F81" t="n">
-        <v>24000</v>
+        <v>1258.846</v>
       </c>
       <c r="G81" t="n">
-        <v>275119.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3265,6 +3577,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3283,10 +3596,10 @@
         <v>15.8</v>
       </c>
       <c r="F82" t="n">
-        <v>20</v>
+        <v>6444.6475</v>
       </c>
       <c r="G82" t="n">
-        <v>275139.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3300,6 +3613,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3318,10 +3632,10 @@
         <v>15.8</v>
       </c>
       <c r="F83" t="n">
-        <v>47261.3734</v>
+        <v>33999.6077</v>
       </c>
       <c r="G83" t="n">
-        <v>275139.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3335,6 +3649,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3353,10 +3668,10 @@
         <v>15.8</v>
       </c>
       <c r="F84" t="n">
-        <v>283399.0189</v>
+        <v>11253.5568</v>
       </c>
       <c r="G84" t="n">
-        <v>275139.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3370,6 +3685,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3388,10 +3704,10 @@
         <v>15.8</v>
       </c>
       <c r="F85" t="n">
-        <v>1176.1708</v>
+        <v>2732.3626</v>
       </c>
       <c r="G85" t="n">
-        <v>275139.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3405,6 +3721,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3423,16 +3740,16 @@
         <v>15.8</v>
       </c>
       <c r="F86" t="n">
-        <v>2975.443</v>
+        <v>45.5505</v>
       </c>
       <c r="G86" t="n">
-        <v>275139.3593368424</v>
+        <v>565428.3136248931</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3440,34 +3757,35 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C87" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D87" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E87" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F87" t="n">
-        <v>53110.72223924051</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="n">
-        <v>275139.3593368424</v>
+        <v>566428.3136248931</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3475,34 +3793,35 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C88" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D88" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E88" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F88" t="n">
-        <v>6990.6531</v>
+        <v>45788.4711</v>
       </c>
       <c r="G88" t="n">
-        <v>268148.7062368424</v>
+        <v>520639.8425248931</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3510,6 +3829,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3528,16 +3848,16 @@
         <v>15.8</v>
       </c>
       <c r="F89" t="n">
-        <v>113494.0506</v>
+        <v>15361.0995</v>
       </c>
       <c r="G89" t="n">
-        <v>381642.7568368424</v>
+        <v>520639.8425248931</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3545,28 +3865,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C90" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D90" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E90" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F90" t="n">
-        <v>66800</v>
+        <v>185233.9067</v>
       </c>
       <c r="G90" t="n">
-        <v>381642.7568368424</v>
+        <v>705873.7492248931</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3580,6 +3901,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3598,16 +3920,16 @@
         <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>21000</v>
+        <v>17553.2911</v>
       </c>
       <c r="G91" t="n">
-        <v>381642.7568368424</v>
+        <v>688320.458124893</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3615,28 +3937,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C92" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D92" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E92" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F92" t="n">
-        <v>91.5759</v>
+        <v>17800.1257</v>
       </c>
       <c r="G92" t="n">
-        <v>381551.1809368424</v>
+        <v>706120.583824893</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3650,6 +3973,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3668,16 +3992,16 @@
         <v>15.8</v>
       </c>
       <c r="F93" t="n">
-        <v>149955</v>
+        <v>50000</v>
       </c>
       <c r="G93" t="n">
-        <v>531506.1809368425</v>
+        <v>656120.583824893</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3685,6 +4009,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3703,16 +4028,16 @@
         <v>15.8</v>
       </c>
       <c r="F94" t="n">
-        <v>15067.9746</v>
+        <v>27753.8607</v>
       </c>
       <c r="G94" t="n">
-        <v>531506.1809368425</v>
+        <v>656120.583824893</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3720,6 +4045,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3738,16 +4064,16 @@
         <v>15.8</v>
       </c>
       <c r="F95" t="n">
-        <v>51.4873</v>
+        <v>15252.5683</v>
       </c>
       <c r="G95" t="n">
-        <v>531506.1809368425</v>
+        <v>656120.583824893</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3755,13 +4081,14 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C96" t="n">
         <v>15.8</v>
@@ -3770,19 +4097,19 @@
         <v>15.8</v>
       </c>
       <c r="E96" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F96" t="n">
-        <v>6200</v>
+        <v>120755.7459</v>
       </c>
       <c r="G96" t="n">
-        <v>531506.1809368425</v>
+        <v>656120.583824893</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3790,6 +4117,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3799,25 +4127,25 @@
         <v>15.8</v>
       </c>
       <c r="C97" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D97" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E97" t="n">
         <v>15.8</v>
       </c>
       <c r="F97" t="n">
-        <v>4400</v>
+        <v>2263.8405</v>
       </c>
       <c r="G97" t="n">
-        <v>535906.1809368425</v>
+        <v>656120.583824893</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3825,34 +4153,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C98" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D98" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E98" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F98" t="n">
-        <v>299.371</v>
+        <v>49180.8624</v>
       </c>
       <c r="G98" t="n">
-        <v>535906.1809368425</v>
+        <v>606939.721424893</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3860,28 +4189,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C99" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D99" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E99" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F99" t="n">
-        <v>85.9748</v>
+        <v>1104.5343</v>
       </c>
       <c r="G99" t="n">
-        <v>535820.2061368425</v>
+        <v>605835.187124893</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3895,28 +4225,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C100" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D100" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E100" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F100" t="n">
-        <v>600</v>
+        <v>2975.443</v>
       </c>
       <c r="G100" t="n">
-        <v>536420.2061368425</v>
+        <v>605835.187124893</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3930,28 +4261,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C101" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D101" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E101" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F101" t="n">
-        <v>24401.1320754717</v>
+        <v>84967.664</v>
       </c>
       <c r="G101" t="n">
-        <v>536420.2061368425</v>
+        <v>605835.187124893</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3965,6 +4297,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3983,10 +4316,10 @@
         <v>15.7</v>
       </c>
       <c r="F102" t="n">
-        <v>24340.1292</v>
+        <v>21000</v>
       </c>
       <c r="G102" t="n">
-        <v>512080.0769368425</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4000,28 +4333,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C103" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D103" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E103" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F103" t="n">
-        <v>9134.284900000001</v>
+        <v>2420</v>
       </c>
       <c r="G103" t="n">
-        <v>521214.3618368425</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4035,6 +4369,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4044,19 +4379,19 @@
         <v>15.7</v>
       </c>
       <c r="C104" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D104" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E104" t="n">
         <v>15.7</v>
       </c>
       <c r="F104" t="n">
-        <v>220898.6008</v>
+        <v>2410</v>
       </c>
       <c r="G104" t="n">
-        <v>742112.9626368425</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4070,6 +4405,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4088,10 +4424,10 @@
         <v>15.7</v>
       </c>
       <c r="F105" t="n">
-        <v>15030.3047</v>
+        <v>2878</v>
       </c>
       <c r="G105" t="n">
-        <v>727082.6579368425</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4105,28 +4441,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C106" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D106" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E106" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F106" t="n">
-        <v>18400</v>
+        <v>19800</v>
       </c>
       <c r="G106" t="n">
-        <v>745482.6579368425</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4140,6 +4477,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4158,10 +4496,10 @@
         <v>15.7</v>
       </c>
       <c r="F107" t="n">
-        <v>100000</v>
+        <v>3461.538</v>
       </c>
       <c r="G107" t="n">
-        <v>645482.6579368425</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4175,28 +4513,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C108" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D108" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E108" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F108" t="n">
-        <v>430800</v>
+        <v>3149.846</v>
       </c>
       <c r="G108" t="n">
-        <v>1076282.657936843</v>
+        <v>626835.187124893</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4210,28 +4549,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C109" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D109" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E109" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F109" t="n">
-        <v>248281</v>
+        <v>33950.705</v>
       </c>
       <c r="G109" t="n">
-        <v>1076282.657936843</v>
+        <v>592884.482124893</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4245,34 +4585,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C110" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D110" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E110" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F110" t="n">
-        <v>326566.4654852878</v>
+        <v>128.8652</v>
       </c>
       <c r="G110" t="n">
-        <v>1076282.657936843</v>
+        <v>592884.482124893</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4280,34 +4621,35 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C111" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="D111" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E111" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F111" t="n">
-        <v>8002.6875</v>
+        <v>18939.8733</v>
       </c>
       <c r="G111" t="n">
-        <v>1084285.345436843</v>
+        <v>592884.482124893</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4315,34 +4657,35 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C112" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D112" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E112" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F112" t="n">
-        <v>21000</v>
+        <v>51400</v>
       </c>
       <c r="G112" t="n">
-        <v>1063285.345436843</v>
+        <v>644284.482124893</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4350,28 +4693,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C113" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D113" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E113" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F113" t="n">
-        <v>3170</v>
+        <v>25863.523</v>
       </c>
       <c r="G113" t="n">
-        <v>1066455.345436843</v>
+        <v>618420.959124893</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4385,34 +4729,35 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C114" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D114" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F114" t="n">
-        <v>65844.689</v>
+        <v>64516</v>
       </c>
       <c r="G114" t="n">
-        <v>1000610.656436843</v>
+        <v>682936.959124893</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4420,28 +4765,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C115" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D115" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E115" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F115" t="n">
-        <v>3144.654088050314</v>
+        <v>41718</v>
       </c>
       <c r="G115" t="n">
-        <v>1003755.310524893</v>
+        <v>682936.959124893</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4455,34 +4801,35 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C116" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D116" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E116" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F116" t="n">
-        <v>310479.1675</v>
+        <v>140</v>
       </c>
       <c r="G116" t="n">
-        <v>693276.143024893</v>
+        <v>683076.959124893</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4490,28 +4837,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C117" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D117" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E117" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F117" t="n">
-        <v>33364</v>
+        <v>63689.205</v>
       </c>
       <c r="G117" t="n">
-        <v>693276.143024893</v>
+        <v>619387.754124893</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4525,28 +4873,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C118" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D118" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E118" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F118" t="n">
-        <v>316.4556962025317</v>
+        <v>123942.3763</v>
       </c>
       <c r="G118" t="n">
-        <v>693276.143024893</v>
+        <v>619387.754124893</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4560,28 +4909,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C119" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D119" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E119" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F119" t="n">
-        <v>49347.184</v>
+        <v>93852.272</v>
       </c>
       <c r="G119" t="n">
-        <v>693276.143024893</v>
+        <v>619387.754124893</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4595,28 +4945,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C120" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D120" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E120" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F120" t="n">
-        <v>148771.4868</v>
+        <v>2977.8265</v>
       </c>
       <c r="G120" t="n">
-        <v>693276.143024893</v>
+        <v>619387.754124893</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4630,28 +4981,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C121" t="n">
         <v>15.6</v>
       </c>
       <c r="D121" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E121" t="n">
         <v>15.6</v>
       </c>
       <c r="F121" t="n">
-        <v>153417.2923</v>
+        <v>36692.3119</v>
       </c>
       <c r="G121" t="n">
-        <v>539858.850724893</v>
+        <v>619387.754124893</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4665,1476 +5017,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C122" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D122" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E122" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F122" t="n">
-        <v>25569.4629</v>
-      </c>
-      <c r="G122" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E123" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F123" t="n">
-        <v>1258.846</v>
-      </c>
-      <c r="G123" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E124" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6444.6475</v>
-      </c>
-      <c r="G124" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C125" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D125" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E125" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>33999.6077</v>
-      </c>
-      <c r="G125" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C126" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D126" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F126" t="n">
-        <v>11253.5568</v>
-      </c>
-      <c r="G126" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C127" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D127" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F127" t="n">
-        <v>2732.3626</v>
-      </c>
-      <c r="G127" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F128" t="n">
-        <v>45.5505</v>
-      </c>
-      <c r="G128" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C129" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E129" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>566428.3136248931</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E130" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F130" t="n">
-        <v>45788.4711</v>
-      </c>
-      <c r="G130" t="n">
-        <v>520639.8425248931</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E131" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F131" t="n">
-        <v>15361.0995</v>
-      </c>
-      <c r="G131" t="n">
-        <v>520639.8425248931</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="C132" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D132" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E132" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F132" t="n">
-        <v>185233.9067</v>
-      </c>
-      <c r="G132" t="n">
-        <v>705873.7492248931</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>17553.2911</v>
-      </c>
-      <c r="G133" t="n">
-        <v>688320.458124893</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="D134" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E134" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F134" t="n">
-        <v>17800.1257</v>
-      </c>
-      <c r="G134" t="n">
-        <v>706120.583824893</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D135" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E135" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F135" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G135" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C136" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D136" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E136" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F136" t="n">
-        <v>27753.8607</v>
-      </c>
-      <c r="G136" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C137" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F137" t="n">
-        <v>15252.5683</v>
-      </c>
-      <c r="G137" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>120755.7459</v>
-      </c>
-      <c r="G138" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D139" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>2263.8405</v>
-      </c>
-      <c r="G139" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C140" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D140" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>49180.8624</v>
-      </c>
-      <c r="G140" t="n">
-        <v>606939.721424893</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C141" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1104.5343</v>
-      </c>
-      <c r="G141" t="n">
-        <v>605835.187124893</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F142" t="n">
-        <v>2975.443</v>
-      </c>
-      <c r="G142" t="n">
-        <v>605835.187124893</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F143" t="n">
-        <v>84967.664</v>
-      </c>
-      <c r="G143" t="n">
-        <v>605835.187124893</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F144" t="n">
-        <v>21000</v>
-      </c>
-      <c r="G144" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C145" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D145" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E145" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2420</v>
-      </c>
-      <c r="G145" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C146" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E146" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F146" t="n">
-        <v>2410</v>
-      </c>
-      <c r="G146" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C147" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D147" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E147" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2878</v>
-      </c>
-      <c r="G147" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C148" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E148" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>19800</v>
-      </c>
-      <c r="G148" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C149" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D149" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E149" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F149" t="n">
-        <v>3461.538</v>
-      </c>
-      <c r="G149" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C150" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D150" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E150" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3149.846</v>
-      </c>
-      <c r="G150" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C151" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D151" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E151" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F151" t="n">
-        <v>33950.705</v>
-      </c>
-      <c r="G151" t="n">
-        <v>592884.482124893</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C152" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D152" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E152" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F152" t="n">
-        <v>128.8652</v>
-      </c>
-      <c r="G152" t="n">
-        <v>592884.482124893</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C153" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D153" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E153" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F153" t="n">
-        <v>18939.8733</v>
-      </c>
-      <c r="G153" t="n">
-        <v>592884.482124893</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C154" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D154" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E154" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F154" t="n">
-        <v>51400</v>
-      </c>
-      <c r="G154" t="n">
-        <v>644284.482124893</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D155" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F155" t="n">
-        <v>25863.523</v>
-      </c>
-      <c r="G155" t="n">
-        <v>618420.959124893</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C156" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D156" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E156" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F156" t="n">
-        <v>64516</v>
-      </c>
-      <c r="G156" t="n">
-        <v>682936.959124893</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C157" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D157" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E157" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F157" t="n">
-        <v>41718</v>
-      </c>
-      <c r="G157" t="n">
-        <v>682936.959124893</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C158" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D158" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E158" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F158" t="n">
-        <v>140</v>
-      </c>
-      <c r="G158" t="n">
-        <v>683076.959124893</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C159" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D159" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E159" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F159" t="n">
-        <v>63689.205</v>
-      </c>
-      <c r="G159" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C160" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D160" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E160" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F160" t="n">
-        <v>123942.3763</v>
-      </c>
-      <c r="G160" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C161" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D161" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E161" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F161" t="n">
-        <v>93852.272</v>
-      </c>
-      <c r="G161" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C162" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D162" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E162" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2977.8265</v>
-      </c>
-      <c r="G162" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C163" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D163" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E163" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F163" t="n">
-        <v>36692.3119</v>
-      </c>
-      <c r="G163" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="D2" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="E2" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F2" t="n">
-        <v>9523</v>
+        <v>2674.339</v>
       </c>
       <c r="G2" t="n">
-        <v>-1086140.554563158</v>
+        <v>-275385.9520631579</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="F3" t="n">
-        <v>232799.4393</v>
+        <v>16094.4979</v>
       </c>
       <c r="G3" t="n">
-        <v>-1086140.554563158</v>
+        <v>-291480.4499631579</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -498,14 +498,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>15.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -516,22 +514,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="E4" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="F4" t="n">
-        <v>230746.6097</v>
+        <v>14681.541</v>
       </c>
       <c r="G4" t="n">
-        <v>-855393.9448631577</v>
+        <v>-291480.4499631579</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -540,12 +538,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>15.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -558,22 +558,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="C5" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="D5" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E5" t="n">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="F5" t="n">
-        <v>65687.48209999999</v>
+        <v>360.7094</v>
       </c>
       <c r="G5" t="n">
-        <v>-855393.9448631577</v>
+        <v>-291480.4499631579</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,10 +582,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -598,34 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D6" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E6" t="n">
-        <v>15.8</v>
+        <v>15.2</v>
       </c>
       <c r="F6" t="n">
-        <v>14685.712</v>
+        <v>416452.8276</v>
       </c>
       <c r="G6" t="n">
-        <v>-855393.9448631577</v>
+        <v>124972.3776368421</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -638,22 +644,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E7" t="n">
         <v>15.5</v>
       </c>
       <c r="F7" t="n">
-        <v>568375.7010999999</v>
+        <v>159668.0737</v>
       </c>
       <c r="G7" t="n">
-        <v>-855393.9448631577</v>
+        <v>124972.3776368421</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -662,7 +668,9 @@
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -678,22 +686,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C8" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E8" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F8" t="n">
-        <v>120604.6335</v>
+        <v>103336.1537</v>
       </c>
       <c r="G8" t="n">
-        <v>-734789.3113631577</v>
+        <v>228308.5313368421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -702,7 +710,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -718,22 +728,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D9" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E9" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F9" t="n">
-        <v>4404.6248</v>
+        <v>2599.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>-739193.9361631577</v>
+        <v>228308.5313368421</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -742,7 +752,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -758,7 +770,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C10" t="n">
         <v>15.8</v>
@@ -767,13 +779,13 @@
         <v>15.8</v>
       </c>
       <c r="E10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F10" t="n">
-        <v>8260.712</v>
+        <v>39142.3626</v>
       </c>
       <c r="G10" t="n">
-        <v>-730933.2241631576</v>
+        <v>267450.8939368421</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -782,7 +794,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -804,16 +818,16 @@
         <v>15.8</v>
       </c>
       <c r="D11" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F11" t="n">
-        <v>6195.5379</v>
+        <v>1035839.2229</v>
       </c>
       <c r="G11" t="n">
-        <v>-730933.2241631576</v>
+        <v>267450.8939368421</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -822,7 +836,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -838,22 +854,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C12" t="n">
         <v>15.7</v>
       </c>
       <c r="D12" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E12" t="n">
         <v>15.7</v>
       </c>
       <c r="F12" t="n">
-        <v>202298</v>
+        <v>80717.4143</v>
       </c>
       <c r="G12" t="n">
-        <v>-933231.2241631576</v>
+        <v>186733.4796368421</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -862,7 +878,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -878,22 +896,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C13" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D13" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E13" t="n">
         <v>15.6</v>
       </c>
       <c r="F13" t="n">
-        <v>64297.3342</v>
+        <v>659063.2668</v>
       </c>
       <c r="G13" t="n">
-        <v>-933231.2241631576</v>
+        <v>845796.746436842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -902,7 +920,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -930,10 +950,10 @@
         <v>15.7</v>
       </c>
       <c r="F14" t="n">
-        <v>50313.04</v>
+        <v>40130.8294</v>
       </c>
       <c r="G14" t="n">
-        <v>-933231.2241631576</v>
+        <v>805665.917036842</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -942,7 +962,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -970,10 +992,10 @@
         <v>15.7</v>
       </c>
       <c r="F15" t="n">
-        <v>3256.3381</v>
+        <v>23982.58976751592</v>
       </c>
       <c r="G15" t="n">
-        <v>-933231.2241631576</v>
+        <v>805665.917036842</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -982,7 +1004,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1001,19 +1025,19 @@
         <v>15.7</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E16" t="n">
         <v>15.7</v>
       </c>
       <c r="F16" t="n">
-        <v>7894.8585</v>
+        <v>105</v>
       </c>
       <c r="G16" t="n">
-        <v>-925336.3656631577</v>
+        <v>805665.917036842</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1022,7 +1046,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1038,22 +1064,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F17" t="n">
-        <v>253914.5641</v>
+        <v>47950.1305</v>
       </c>
       <c r="G17" t="n">
-        <v>-1179250.929763158</v>
+        <v>757715.786536842</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1062,7 +1088,9 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1078,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C18" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D18" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E18" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F18" t="n">
-        <v>288534.0354</v>
+        <v>82650.092</v>
       </c>
       <c r="G18" t="n">
-        <v>-890716.8943631577</v>
+        <v>757715.786536842</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1102,7 +1130,9 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1118,22 +1148,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C19" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D19" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E19" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F19" t="n">
-        <v>47800</v>
+        <v>11527.2292</v>
       </c>
       <c r="G19" t="n">
-        <v>-938516.8943631577</v>
+        <v>769243.0157368419</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1142,7 +1172,9 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1158,22 +1190,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D20" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F20" t="n">
-        <v>122512.9366</v>
+        <v>47358.535</v>
       </c>
       <c r="G20" t="n">
-        <v>-938516.8943631577</v>
+        <v>769243.0157368419</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1182,7 +1214,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1198,22 +1232,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D21" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E21" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F21" t="n">
-        <v>513648.0517</v>
+        <v>524742.1784</v>
       </c>
       <c r="G21" t="n">
-        <v>-424868.8426631577</v>
+        <v>244500.837336842</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1222,7 +1256,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1238,22 +1274,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C22" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D22" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E22" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F22" t="n">
-        <v>212469.5294</v>
+        <v>64.1025641025641</v>
       </c>
       <c r="G22" t="n">
-        <v>-637338.3720631576</v>
+        <v>244500.837336842</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1262,7 +1298,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1278,22 +1316,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C23" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="E23" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F23" t="n">
-        <v>1001309.8232</v>
+        <v>38553.846</v>
       </c>
       <c r="G23" t="n">
-        <v>363971.4511368424</v>
+        <v>244500.837336842</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1302,7 +1340,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1318,22 +1358,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C24" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D24" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E24" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F24" t="n">
-        <v>140683.5268</v>
+        <v>1153.846</v>
       </c>
       <c r="G24" t="n">
-        <v>223287.9243368424</v>
+        <v>244500.837336842</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1342,7 +1382,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1358,22 +1400,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C25" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D25" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E25" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F25" t="n">
-        <v>99233.59729999999</v>
+        <v>17800</v>
       </c>
       <c r="G25" t="n">
-        <v>223287.9243368424</v>
+        <v>226700.837336842</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1382,7 +1424,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1398,22 +1442,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C26" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D26" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E26" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F26" t="n">
-        <v>403904.4489</v>
+        <v>59000</v>
       </c>
       <c r="G26" t="n">
-        <v>223287.9243368424</v>
+        <v>285700.837336842</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1422,7 +1466,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1438,22 +1484,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D27" t="n">
         <v>15.8</v>
       </c>
       <c r="E27" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F27" t="n">
-        <v>84888.22779999999</v>
+        <v>17778.7991</v>
       </c>
       <c r="G27" t="n">
-        <v>138399.6965368424</v>
+        <v>303479.636436842</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1462,7 +1508,9 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1490,10 +1538,10 @@
         <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>30120</v>
+        <v>3520.0143</v>
       </c>
       <c r="G28" t="n">
-        <v>168519.6965368424</v>
+        <v>303479.636436842</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1502,7 +1550,9 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1518,22 +1568,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>78367</v>
+        <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>168519.6965368424</v>
+        <v>303409.636436842</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1542,7 +1592,9 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1570,10 +1622,10 @@
         <v>15.7</v>
       </c>
       <c r="F30" t="n">
-        <v>68081</v>
+        <v>3730</v>
       </c>
       <c r="G30" t="n">
-        <v>100438.6965368424</v>
+        <v>303409.636436842</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1582,7 +1634,9 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1601,19 +1655,19 @@
         <v>15.7</v>
       </c>
       <c r="C31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F31" t="n">
-        <v>159458.5294</v>
+        <v>27631.3367</v>
       </c>
       <c r="G31" t="n">
-        <v>100438.6965368424</v>
+        <v>275778.299736842</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1622,7 +1676,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1641,19 +1697,19 @@
         <v>15.7</v>
       </c>
       <c r="C32" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D32" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E32" t="n">
         <v>15.7</v>
       </c>
       <c r="F32" t="n">
-        <v>206526.9533</v>
+        <v>2907.52</v>
       </c>
       <c r="G32" t="n">
-        <v>306965.6498368424</v>
+        <v>278685.819736842</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1662,7 +1718,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,22 +1736,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C33" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D33" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E33" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F33" t="n">
-        <v>62614.127</v>
+        <v>34605.9533</v>
       </c>
       <c r="G33" t="n">
-        <v>306965.6498368424</v>
+        <v>244079.866436842</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1702,7 +1760,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1718,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C34" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D34" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E34" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F34" t="n">
-        <v>3701.5102</v>
+        <v>40311.7568</v>
       </c>
       <c r="G34" t="n">
-        <v>306965.6498368424</v>
+        <v>203768.109636842</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1742,7 +1802,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1770,10 +1832,10 @@
         <v>15.6</v>
       </c>
       <c r="F35" t="n">
-        <v>15260.0246</v>
+        <v>2505.0115</v>
       </c>
       <c r="G35" t="n">
-        <v>291705.6252368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1782,7 +1844,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1798,22 +1862,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C36" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D36" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F36" t="n">
-        <v>2613.7341</v>
+        <v>72372.17329999999</v>
       </c>
       <c r="G36" t="n">
-        <v>294319.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1822,7 +1886,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1838,22 +1904,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C37" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D37" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E37" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>2545584.8143</v>
       </c>
       <c r="G37" t="n">
-        <v>294319.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1862,7 +1928,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1878,22 +1946,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C38" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D38" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E38" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F38" t="n">
-        <v>19200</v>
+        <v>18363139.9773</v>
       </c>
       <c r="G38" t="n">
-        <v>275119.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1902,7 +1970,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1918,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C39" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D39" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E39" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F39" t="n">
-        <v>24000</v>
+        <v>17512367.8574</v>
       </c>
       <c r="G39" t="n">
-        <v>275119.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1942,7 +2012,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,22 +2030,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C40" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D40" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E40" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F40" t="n">
-        <v>20</v>
+        <v>18424422.0285</v>
       </c>
       <c r="G40" t="n">
-        <v>275139.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1982,7 +2054,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1998,22 +2072,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C41" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D41" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E41" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F41" t="n">
-        <v>47261.3734</v>
+        <v>18464296.2324</v>
       </c>
       <c r="G41" t="n">
-        <v>275139.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2022,7 +2096,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2038,22 +2114,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C42" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D42" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E42" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F42" t="n">
-        <v>283399.0189</v>
+        <v>19313978.2302</v>
       </c>
       <c r="G42" t="n">
-        <v>275139.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2062,7 +2138,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2078,22 +2156,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C43" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D43" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E43" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F43" t="n">
-        <v>1176.1708</v>
+        <v>13098953.6593</v>
       </c>
       <c r="G43" t="n">
-        <v>275139.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2102,7 +2180,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,22 +2198,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C44" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D44" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E44" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F44" t="n">
-        <v>2975.443</v>
+        <v>30112137.2313</v>
       </c>
       <c r="G44" t="n">
-        <v>275139.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2142,7 +2222,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,22 +2240,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C45" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D45" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E45" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F45" t="n">
-        <v>53110.72223924051</v>
+        <v>29766020.7114</v>
       </c>
       <c r="G45" t="n">
-        <v>275139.3593368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2182,7 +2264,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,22 +2282,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C46" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D46" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E46" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F46" t="n">
-        <v>6990.6531</v>
+        <v>6230097.3582</v>
       </c>
       <c r="G46" t="n">
-        <v>268148.7062368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2222,7 +2306,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2238,22 +2324,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C47" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D47" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E47" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F47" t="n">
-        <v>113494.0506</v>
+        <v>10117815.5688</v>
       </c>
       <c r="G47" t="n">
-        <v>381642.7568368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2262,7 +2348,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2278,22 +2366,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F48" t="n">
-        <v>66800</v>
+        <v>19113648.5381</v>
       </c>
       <c r="G48" t="n">
-        <v>381642.7568368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2302,7 +2390,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,22 +2408,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C49" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D49" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E49" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F49" t="n">
-        <v>21000</v>
+        <v>18964904.1915</v>
       </c>
       <c r="G49" t="n">
-        <v>381642.7568368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2342,7 +2432,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2358,22 +2450,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C50" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D50" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E50" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F50" t="n">
-        <v>91.5759</v>
+        <v>19336765.058</v>
       </c>
       <c r="G50" t="n">
-        <v>381551.1809368424</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2382,7 +2474,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,22 +2492,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C51" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D51" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E51" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F51" t="n">
-        <v>149955</v>
+        <v>11453314.6882</v>
       </c>
       <c r="G51" t="n">
-        <v>531506.1809368425</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2422,7 +2516,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2438,22 +2534,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C52" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E52" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F52" t="n">
-        <v>15067.9746</v>
+        <v>41495.7971</v>
       </c>
       <c r="G52" t="n">
-        <v>531506.1809368425</v>
+        <v>206273.121136842</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2462,7 +2558,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C53" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D53" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E53" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F53" t="n">
-        <v>51.4873</v>
+        <v>1206419.3423</v>
       </c>
       <c r="G53" t="n">
-        <v>531506.1809368425</v>
+        <v>-1000146.221163158</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2502,7 +2600,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2518,22 +2618,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C54" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D54" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E54" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F54" t="n">
-        <v>6200</v>
+        <v>23997.9299</v>
       </c>
       <c r="G54" t="n">
-        <v>531506.1809368425</v>
+        <v>-976148.2912631579</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2542,7 +2642,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2558,22 +2660,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C55" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D55" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E55" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F55" t="n">
-        <v>4400</v>
+        <v>63239.5197</v>
       </c>
       <c r="G55" t="n">
-        <v>535906.1809368425</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2582,7 +2684,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2598,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C56" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D56" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E56" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F56" t="n">
-        <v>299.371</v>
+        <v>23045.2666</v>
       </c>
       <c r="G56" t="n">
-        <v>535906.1809368425</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2622,7 +2726,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2638,22 +2744,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C57" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D57" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E57" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F57" t="n">
-        <v>85.9748</v>
+        <v>25081.0544</v>
       </c>
       <c r="G57" t="n">
-        <v>535820.2061368425</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2662,7 +2768,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2678,22 +2786,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C58" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D58" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E58" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F58" t="n">
-        <v>600</v>
+        <v>13249.7831</v>
       </c>
       <c r="G58" t="n">
-        <v>536420.2061368425</v>
+        <v>-1039387.810963158</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2702,7 +2810,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2718,22 +2828,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C59" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D59" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E59" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F59" t="n">
-        <v>24401.1320754717</v>
+        <v>17224.718</v>
       </c>
       <c r="G59" t="n">
-        <v>536420.2061368425</v>
+        <v>-1056612.528963158</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2742,7 +2852,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,22 +2870,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C60" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D60" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E60" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F60" t="n">
-        <v>24340.1292</v>
+        <v>61302.3769</v>
       </c>
       <c r="G60" t="n">
-        <v>512080.0769368425</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2782,7 +2894,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2798,22 +2912,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C61" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="D61" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="E61" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F61" t="n">
-        <v>9134.284900000001</v>
+        <v>662.064</v>
       </c>
       <c r="G61" t="n">
-        <v>521214.3618368425</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2822,7 +2936,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2838,22 +2954,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C62" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D62" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E62" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F62" t="n">
-        <v>220898.6008</v>
+        <v>50000</v>
       </c>
       <c r="G62" t="n">
-        <v>742112.9626368425</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2862,7 +2978,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2878,22 +2996,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C63" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D63" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E63" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F63" t="n">
-        <v>15030.3047</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="n">
-        <v>727082.6579368425</v>
+        <v>-995310.1520631579</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2902,7 +3020,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,22 +3038,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C64" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="D64" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E64" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F64" t="n">
-        <v>18400</v>
+        <v>45191.6779</v>
       </c>
       <c r="G64" t="n">
-        <v>745482.6579368425</v>
+        <v>-1040501.829963158</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2942,7 +3062,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2958,22 +3080,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="C65" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D65" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E65" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F65" t="n">
-        <v>100000</v>
+        <v>87</v>
       </c>
       <c r="G65" t="n">
-        <v>645482.6579368425</v>
+        <v>-1040414.829963158</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2982,7 +3104,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2998,22 +3122,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="C66" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D66" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E66" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F66" t="n">
-        <v>430800</v>
+        <v>61000</v>
       </c>
       <c r="G66" t="n">
-        <v>1076282.657936843</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3022,7 +3146,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,22 +3164,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C67" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D67" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E67" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F67" t="n">
-        <v>248281</v>
+        <v>101114.922</v>
       </c>
       <c r="G67" t="n">
-        <v>1076282.657936843</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3062,7 +3188,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3078,37 +3206,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="C68" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="D68" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="E68" t="n">
-        <v>15.9</v>
+        <v>15.4</v>
       </c>
       <c r="F68" t="n">
-        <v>326566.4654852878</v>
+        <v>3243.5805</v>
       </c>
       <c r="G68" t="n">
-        <v>1076282.657936843</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>15.4</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
       <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -3116,32 +3248,38 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="C69" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="D69" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="E69" t="n">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="F69" t="n">
-        <v>8002.6875</v>
+        <v>5248.6922</v>
       </c>
       <c r="G69" t="n">
-        <v>1084285.345436843</v>
+        <v>-1101414.829963158</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3152,32 +3290,38 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="C70" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="D70" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E70" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="F70" t="n">
-        <v>21000</v>
+        <v>26128.2136</v>
       </c>
       <c r="G70" t="n">
-        <v>1063285.345436843</v>
+        <v>-1127543.043563158</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3188,32 +3332,38 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="C71" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="D71" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="E71" t="n">
-        <v>15.9</v>
+        <v>15.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3170</v>
+        <v>10879.489</v>
       </c>
       <c r="G71" t="n">
-        <v>1066455.345436843</v>
+        <v>-1116663.554563158</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3224,32 +3374,38 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="C72" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D72" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E72" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F72" t="n">
-        <v>65844.689</v>
+        <v>21000</v>
       </c>
       <c r="G72" t="n">
-        <v>1000610.656436843</v>
+        <v>-1095663.554563158</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3260,32 +3416,38 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="C73" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D73" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E73" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="F73" t="n">
-        <v>3144.654088050314</v>
+        <v>9523</v>
       </c>
       <c r="G73" t="n">
-        <v>1003755.310524893</v>
+        <v>-1086140.554563158</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3299,29 +3461,35 @@
         <v>15.8</v>
       </c>
       <c r="C74" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D74" t="n">
         <v>15.8</v>
       </c>
       <c r="E74" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F74" t="n">
-        <v>310479.1675</v>
+        <v>232799.4393</v>
       </c>
       <c r="G74" t="n">
-        <v>693276.143024893</v>
+        <v>-1086140.554563158</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3338,26 +3506,32 @@
         <v>15.8</v>
       </c>
       <c r="D75" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E75" t="n">
         <v>15.8</v>
       </c>
       <c r="F75" t="n">
-        <v>33364</v>
+        <v>230746.6097</v>
       </c>
       <c r="G75" t="n">
-        <v>693276.143024893</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3377,23 +3551,29 @@
         <v>15.8</v>
       </c>
       <c r="E76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F76" t="n">
-        <v>316.4556962025317</v>
+        <v>65687.48209999999</v>
       </c>
       <c r="G76" t="n">
-        <v>693276.143024893</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3416,20 +3596,26 @@
         <v>15.8</v>
       </c>
       <c r="F77" t="n">
-        <v>49347.184</v>
+        <v>14685.712</v>
       </c>
       <c r="G77" t="n">
-        <v>693276.143024893</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3446,26 +3632,32 @@
         <v>15.8</v>
       </c>
       <c r="D78" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E78" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F78" t="n">
-        <v>148771.4868</v>
+        <v>568375.7010999999</v>
       </c>
       <c r="G78" t="n">
-        <v>693276.143024893</v>
+        <v>-855393.9448631577</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3476,32 +3668,38 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C79" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="D79" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E79" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F79" t="n">
-        <v>153417.2923</v>
+        <v>120604.6335</v>
       </c>
       <c r="G79" t="n">
-        <v>539858.850724893</v>
+        <v>-734789.3113631577</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3515,19 +3713,19 @@
         <v>15.8</v>
       </c>
       <c r="C80" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D80" t="n">
         <v>15.8</v>
       </c>
       <c r="E80" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F80" t="n">
-        <v>25569.4629</v>
+        <v>4404.6248</v>
       </c>
       <c r="G80" t="n">
-        <v>565428.3136248931</v>
+        <v>-739193.9361631577</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3536,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3560,10 +3764,10 @@
         <v>15.8</v>
       </c>
       <c r="F81" t="n">
-        <v>1258.846</v>
+        <v>8260.712</v>
       </c>
       <c r="G81" t="n">
-        <v>565428.3136248931</v>
+        <v>-730933.2241631576</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3572,8 +3776,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3596,10 +3806,10 @@
         <v>15.8</v>
       </c>
       <c r="F82" t="n">
-        <v>6444.6475</v>
+        <v>6195.5379</v>
       </c>
       <c r="G82" t="n">
-        <v>565428.3136248931</v>
+        <v>-730933.2241631576</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3608,8 +3818,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3620,22 +3836,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C83" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D83" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E83" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F83" t="n">
-        <v>33999.6077</v>
+        <v>202298</v>
       </c>
       <c r="G83" t="n">
-        <v>565428.3136248931</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3644,8 +3860,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3656,22 +3878,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C84" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D84" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E84" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F84" t="n">
-        <v>11253.5568</v>
+        <v>64297.3342</v>
       </c>
       <c r="G84" t="n">
-        <v>565428.3136248931</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3680,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +3920,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C85" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D85" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E85" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F85" t="n">
-        <v>2732.3626</v>
+        <v>50313.04</v>
       </c>
       <c r="G85" t="n">
-        <v>565428.3136248931</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3716,8 +3944,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3728,32 +3962,38 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C86" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D86" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E86" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F86" t="n">
-        <v>45.5505</v>
+        <v>3256.3381</v>
       </c>
       <c r="G86" t="n">
-        <v>565428.3136248931</v>
+        <v>-933231.2241631576</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3764,32 +4004,38 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="C87" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D87" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E87" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>7894.8585</v>
       </c>
       <c r="G87" t="n">
-        <v>566428.3136248931</v>
+        <v>-925336.3656631577</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3800,32 +4046,38 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E88" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F88" t="n">
-        <v>45788.4711</v>
+        <v>253914.5641</v>
       </c>
       <c r="G88" t="n">
-        <v>520639.8425248931</v>
+        <v>-1179250.929763158</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3836,32 +4088,38 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C89" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D89" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E89" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F89" t="n">
-        <v>15361.0995</v>
+        <v>288534.0354</v>
       </c>
       <c r="G89" t="n">
-        <v>520639.8425248931</v>
+        <v>-890716.8943631577</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +4130,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C90" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D90" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E90" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F90" t="n">
-        <v>185233.9067</v>
+        <v>47800</v>
       </c>
       <c r="G90" t="n">
-        <v>705873.7492248931</v>
+        <v>-938516.8943631577</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3896,8 +4154,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3914,26 +4178,32 @@
         <v>15.8</v>
       </c>
       <c r="D91" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E91" t="n">
         <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>17553.2911</v>
+        <v>122512.9366</v>
       </c>
       <c r="G91" t="n">
-        <v>688320.458124893</v>
+        <v>-938516.8943631577</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3944,7 +4214,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C92" t="n">
         <v>15.9</v>
@@ -3956,10 +4226,10 @@
         <v>15.8</v>
       </c>
       <c r="F92" t="n">
-        <v>17800.1257</v>
+        <v>513648.0517</v>
       </c>
       <c r="G92" t="n">
-        <v>706120.583824893</v>
+        <v>-424868.8426631577</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3968,8 +4238,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3980,32 +4256,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C93" t="n">
         <v>15.8</v>
       </c>
       <c r="D93" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E93" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F93" t="n">
-        <v>50000</v>
+        <v>212469.5294</v>
       </c>
       <c r="G93" t="n">
-        <v>656120.583824893</v>
+        <v>-637338.3720631576</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4019,29 +4301,35 @@
         <v>15.8</v>
       </c>
       <c r="C94" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D94" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E94" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F94" t="n">
-        <v>27753.8607</v>
+        <v>1001309.8232</v>
       </c>
       <c r="G94" t="n">
-        <v>656120.583824893</v>
+        <v>363971.4511368424</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4052,32 +4340,38 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C95" t="n">
         <v>15.8</v>
       </c>
       <c r="D95" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E95" t="n">
         <v>15.8</v>
       </c>
       <c r="F95" t="n">
-        <v>15252.5683</v>
+        <v>140683.5268</v>
       </c>
       <c r="G95" t="n">
-        <v>656120.583824893</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4088,32 +4382,38 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C96" t="n">
         <v>15.8</v>
       </c>
       <c r="D96" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E96" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F96" t="n">
-        <v>120755.7459</v>
+        <v>99233.59729999999</v>
       </c>
       <c r="G96" t="n">
-        <v>656120.583824893</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4130,26 +4430,32 @@
         <v>15.8</v>
       </c>
       <c r="D97" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E97" t="n">
         <v>15.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2263.8405</v>
+        <v>403904.4489</v>
       </c>
       <c r="G97" t="n">
-        <v>656120.583824893</v>
+        <v>223287.9243368424</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4160,7 +4466,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C98" t="n">
         <v>15.7</v>
@@ -4169,23 +4475,29 @@
         <v>15.8</v>
       </c>
       <c r="E98" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F98" t="n">
-        <v>49180.8624</v>
+        <v>84888.22779999999</v>
       </c>
       <c r="G98" t="n">
-        <v>606939.721424893</v>
+        <v>138399.6965368424</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4196,22 +4508,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C99" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D99" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E99" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F99" t="n">
-        <v>1104.5343</v>
+        <v>30120</v>
       </c>
       <c r="G99" t="n">
-        <v>605835.187124893</v>
+        <v>168519.6965368424</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4220,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4232,22 +4550,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C100" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D100" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E100" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F100" t="n">
-        <v>2975.443</v>
+        <v>78367</v>
       </c>
       <c r="G100" t="n">
-        <v>605835.187124893</v>
+        <v>168519.6965368424</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4256,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +4592,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C101" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D101" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E101" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F101" t="n">
-        <v>84967.664</v>
+        <v>68081</v>
       </c>
       <c r="G101" t="n">
-        <v>605835.187124893</v>
+        <v>100438.6965368424</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4292,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4310,16 +4640,16 @@
         <v>15.7</v>
       </c>
       <c r="D102" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E102" t="n">
         <v>15.7</v>
       </c>
       <c r="F102" t="n">
-        <v>21000</v>
+        <v>159458.5294</v>
       </c>
       <c r="G102" t="n">
-        <v>626835.187124893</v>
+        <v>100438.6965368424</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4328,8 +4658,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4343,19 +4679,19 @@
         <v>15.7</v>
       </c>
       <c r="C103" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D103" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E103" t="n">
         <v>15.7</v>
       </c>
       <c r="F103" t="n">
-        <v>2420</v>
+        <v>206526.9533</v>
       </c>
       <c r="G103" t="n">
-        <v>626835.187124893</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4364,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4376,22 +4718,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C104" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D104" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E104" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F104" t="n">
-        <v>2410</v>
+        <v>62614.127</v>
       </c>
       <c r="G104" t="n">
-        <v>626835.187124893</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4400,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4760,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C105" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D105" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E105" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F105" t="n">
-        <v>2878</v>
+        <v>3701.5102</v>
       </c>
       <c r="G105" t="n">
-        <v>626835.187124893</v>
+        <v>306965.6498368424</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4436,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4802,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E106" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F106" t="n">
-        <v>19800</v>
+        <v>15260.0246</v>
       </c>
       <c r="G106" t="n">
-        <v>626835.187124893</v>
+        <v>291705.6252368424</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4472,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4484,22 +4844,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C107" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D107" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E107" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F107" t="n">
-        <v>3461.538</v>
+        <v>2613.7341</v>
       </c>
       <c r="G107" t="n">
-        <v>626835.187124893</v>
+        <v>294319.3593368424</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4508,8 +4868,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4520,22 +4886,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F108" t="n">
-        <v>3149.846</v>
+        <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>626835.187124893</v>
+        <v>294319.3593368424</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4544,8 +4910,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4556,22 +4928,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E109" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F109" t="n">
-        <v>33950.705</v>
+        <v>19200</v>
       </c>
       <c r="G109" t="n">
-        <v>592884.482124893</v>
+        <v>275119.3593368424</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4580,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4592,22 +4970,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E110" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F110" t="n">
-        <v>128.8652</v>
+        <v>24000</v>
       </c>
       <c r="G110" t="n">
-        <v>592884.482124893</v>
+        <v>275119.3593368424</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4616,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4628,22 +5012,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C111" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D111" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E111" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F111" t="n">
-        <v>18939.8733</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>592884.482124893</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4652,8 +5036,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4664,22 +5054,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C112" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D112" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E112" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F112" t="n">
-        <v>51400</v>
+        <v>47261.3734</v>
       </c>
       <c r="G112" t="n">
-        <v>644284.482124893</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4688,8 +5078,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4700,22 +5096,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C113" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D113" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E113" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F113" t="n">
-        <v>25863.523</v>
+        <v>283399.0189</v>
       </c>
       <c r="G113" t="n">
-        <v>618420.959124893</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4724,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4736,22 +5138,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E114" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F114" t="n">
-        <v>64516</v>
+        <v>1176.1708</v>
       </c>
       <c r="G114" t="n">
-        <v>682936.959124893</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4760,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4772,22 +5180,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C115" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D115" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E115" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F115" t="n">
-        <v>41718</v>
+        <v>2975.443</v>
       </c>
       <c r="G115" t="n">
-        <v>682936.959124893</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4796,8 +5204,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +5225,19 @@
         <v>15.7</v>
       </c>
       <c r="C116" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D116" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E116" t="n">
         <v>15.7</v>
       </c>
       <c r="F116" t="n">
-        <v>140</v>
+        <v>53110.72223924051</v>
       </c>
       <c r="G116" t="n">
-        <v>683076.959124893</v>
+        <v>275139.3593368424</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4832,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4844,22 +5264,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C117" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D117" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E117" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F117" t="n">
-        <v>63689.205</v>
+        <v>6990.6531</v>
       </c>
       <c r="G117" t="n">
-        <v>619387.754124893</v>
+        <v>268148.7062368424</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4868,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4880,22 +5306,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C118" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D118" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E118" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F118" t="n">
-        <v>123942.3763</v>
+        <v>113494.0506</v>
       </c>
       <c r="G118" t="n">
-        <v>619387.754124893</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4904,8 +5330,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +5348,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C119" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D119" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E119" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F119" t="n">
-        <v>93852.272</v>
+        <v>66800</v>
       </c>
       <c r="G119" t="n">
-        <v>619387.754124893</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4940,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4952,22 +5390,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C120" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D120" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E120" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F120" t="n">
-        <v>2977.8265</v>
+        <v>21000</v>
       </c>
       <c r="G120" t="n">
-        <v>619387.754124893</v>
+        <v>381642.7568368424</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4976,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4988,36 +5432,2640 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F121" t="n">
+        <v>91.5759</v>
+      </c>
+      <c r="G121" t="n">
+        <v>381551.1809368424</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C122" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E122" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>149955</v>
+      </c>
+      <c r="G122" t="n">
+        <v>531506.1809368425</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15067.9746</v>
+      </c>
+      <c r="G123" t="n">
+        <v>531506.1809368425</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>51.4873</v>
+      </c>
+      <c r="G124" t="n">
+        <v>531506.1809368425</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6200</v>
+      </c>
+      <c r="G125" t="n">
+        <v>531506.1809368425</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C126" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>535906.1809368425</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C127" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F127" t="n">
+        <v>299.371</v>
+      </c>
+      <c r="G127" t="n">
+        <v>535906.1809368425</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F128" t="n">
+        <v>85.9748</v>
+      </c>
+      <c r="G128" t="n">
+        <v>535820.2061368425</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1.01448051948052</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F129" t="n">
+        <v>600</v>
+      </c>
+      <c r="G129" t="n">
+        <v>536420.2061368425</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C130" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F130" t="n">
+        <v>24401.1320754717</v>
+      </c>
+      <c r="G130" t="n">
+        <v>536420.2061368425</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F131" t="n">
+        <v>24340.1292</v>
+      </c>
+      <c r="G131" t="n">
+        <v>512080.0769368425</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9134.284900000001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>521214.3618368425</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>220898.6008</v>
+      </c>
+      <c r="G133" t="n">
+        <v>742112.9626368425</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>15030.3047</v>
+      </c>
+      <c r="G134" t="n">
+        <v>727082.6579368425</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E135" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>745482.6579368425</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G136" t="n">
+        <v>645482.6579368425</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>430800</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1076282.657936843</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>248281</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1076282.657936843</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F139" t="n">
+        <v>326566.4654852878</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1076282.657936843</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>16</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16</v>
+      </c>
+      <c r="F140" t="n">
+        <v>8002.6875</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1084285.345436843</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1063285.345436843</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3170</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1066455.345436843</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>65844.689</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1000610.656436843</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3144.654088050314</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1003755.310524893</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>310479.1675</v>
+      </c>
+      <c r="G145" t="n">
+        <v>693276.143024893</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E146" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>33364</v>
+      </c>
+      <c r="G146" t="n">
+        <v>693276.143024893</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>316.4556962025317</v>
+      </c>
+      <c r="G147" t="n">
+        <v>693276.143024893</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E148" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>49347.184</v>
+      </c>
+      <c r="G148" t="n">
+        <v>693276.143024893</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>148771.4868</v>
+      </c>
+      <c r="G149" t="n">
+        <v>693276.143024893</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C150" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E150" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>153417.2923</v>
+      </c>
+      <c r="G150" t="n">
+        <v>539858.850724893</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E151" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25569.4629</v>
+      </c>
+      <c r="G151" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C152" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1258.846</v>
+      </c>
+      <c r="G152" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C153" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E153" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6444.6475</v>
+      </c>
+      <c r="G153" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>33999.6077</v>
+      </c>
+      <c r="G154" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C155" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E155" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>11253.5568</v>
+      </c>
+      <c r="G155" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C156" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D156" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E156" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2732.3626</v>
+      </c>
+      <c r="G156" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C157" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D157" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>45.5505</v>
+      </c>
+      <c r="G157" t="n">
+        <v>565428.3136248931</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>566428.3136248931</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>45788.4711</v>
+      </c>
+      <c r="G159" t="n">
+        <v>520639.8425248931</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>15361.0995</v>
+      </c>
+      <c r="G160" t="n">
+        <v>520639.8425248931</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C161" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="F161" t="n">
+        <v>185233.9067</v>
+      </c>
+      <c r="G161" t="n">
+        <v>705873.7492248931</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17553.2911</v>
+      </c>
+      <c r="G162" t="n">
+        <v>688320.458124893</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C163" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="D163" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>17800.1257</v>
+      </c>
+      <c r="G163" t="n">
+        <v>706120.583824893</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E164" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G164" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C165" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>27753.8607</v>
+      </c>
+      <c r="G165" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C166" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E166" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>15252.5683</v>
+      </c>
+      <c r="G166" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C167" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>120755.7459</v>
+      </c>
+      <c r="G167" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E168" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2263.8405</v>
+      </c>
+      <c r="G168" t="n">
+        <v>656120.583824893</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D169" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F169" t="n">
+        <v>49180.8624</v>
+      </c>
+      <c r="G169" t="n">
+        <v>606939.721424893</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C170" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D170" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E170" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1104.5343</v>
+      </c>
+      <c r="G170" t="n">
+        <v>605835.187124893</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D171" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2975.443</v>
+      </c>
+      <c r="G171" t="n">
+        <v>605835.187124893</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C172" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D172" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E172" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F172" t="n">
+        <v>84967.664</v>
+      </c>
+      <c r="G172" t="n">
+        <v>605835.187124893</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>21000</v>
+      </c>
+      <c r="G173" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2420</v>
+      </c>
+      <c r="G174" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E175" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2410</v>
+      </c>
+      <c r="G175" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2878</v>
+      </c>
+      <c r="G176" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C177" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D177" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E177" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19800</v>
+      </c>
+      <c r="G177" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3461.538</v>
+      </c>
+      <c r="G178" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C179" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D179" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E179" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3149.846</v>
+      </c>
+      <c r="G179" t="n">
+        <v>626835.187124893</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F180" t="n">
+        <v>33950.705</v>
+      </c>
+      <c r="G180" t="n">
+        <v>592884.482124893</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C181" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E181" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F181" t="n">
+        <v>128.8652</v>
+      </c>
+      <c r="G181" t="n">
+        <v>592884.482124893</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C182" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>18939.8733</v>
+      </c>
+      <c r="G182" t="n">
+        <v>592884.482124893</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C183" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D183" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E183" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F183" t="n">
+        <v>51400</v>
+      </c>
+      <c r="G183" t="n">
+        <v>644284.482124893</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E184" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="F184" t="n">
+        <v>25863.523</v>
+      </c>
+      <c r="G184" t="n">
+        <v>618420.959124893</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E185" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F185" t="n">
+        <v>64516</v>
+      </c>
+      <c r="G185" t="n">
+        <v>682936.959124893</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C186" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D186" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E186" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F186" t="n">
+        <v>41718</v>
+      </c>
+      <c r="G186" t="n">
+        <v>682936.959124893</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C187" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D187" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E187" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F187" t="n">
+        <v>140</v>
+      </c>
+      <c r="G187" t="n">
+        <v>683076.959124893</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E188" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F188" t="n">
+        <v>63689.205</v>
+      </c>
+      <c r="G188" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E189" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F189" t="n">
+        <v>123942.3763</v>
+      </c>
+      <c r="G189" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F190" t="n">
+        <v>93852.272</v>
+      </c>
+      <c r="G190" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2977.8265</v>
+      </c>
+      <c r="G191" t="n">
+        <v>619387.754124893</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E192" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="F192" t="n">
         <v>36692.3119</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G192" t="n">
         <v>619387.754124893</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-275385.9520631579</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>15.4</v>
       </c>
       <c r="J3" t="n">
         <v>15.4</v>
       </c>
-      <c r="K3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +560,23 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>15.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,26 +601,23 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="J6" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>15.4</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -662,24 +642,23 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +683,23 @@
         <v>228308.5313368421</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>15.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +726,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,22 +765,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,22 +804,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,22 +843,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,22 +882,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,22 +921,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1000,22 +960,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1042,22 +999,19 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1084,22 +1038,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1077,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1116,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1155,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1194,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1233,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1272,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1311,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1350,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1389,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1428,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1467,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1506,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1630,22 +1545,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1672,22 +1584,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1623,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1662,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1701,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1740,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1779,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1818,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1857,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1896,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1935,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1974,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +2013,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +2052,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2091,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2258,24 +2128,21 @@
         <v>206273.121136842</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2300,24 +2167,21 @@
         <v>206273.121136842</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2342,24 +2206,21 @@
         <v>206273.121136842</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +2247,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,22 +2286,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2325,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2364,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,22 +2403,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2442,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2481,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2520,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2559,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2598,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2637,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2676,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,22 +2715,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,22 +2754,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,22 +2793,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,22 +2832,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3058,22 +2871,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3100,22 +2910,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,22 +2949,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3184,22 +2988,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3226,22 +3027,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3268,22 +3066,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3310,22 +3105,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3352,22 +3144,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3394,22 +3183,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3436,22 +3222,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3478,22 +3261,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3520,22 +3300,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3562,22 +3339,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3604,22 +3378,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3646,22 +3417,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3688,22 +3456,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3730,22 +3495,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3772,22 +3534,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3814,22 +3573,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3854,24 +3610,21 @@
         <v>-933231.2241631576</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.01448051948052</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3898,22 +3651,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3940,22 +3684,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3982,22 +3717,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4024,22 +3750,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4066,22 +3783,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4108,22 +3816,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4150,22 +3849,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4192,22 +3882,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4234,22 +3915,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4274,24 +3946,15 @@
         <v>-637338.3720631576</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4316,24 +3979,15 @@
         <v>363971.4511368424</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4358,24 +4012,15 @@
         <v>223287.9243368424</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4400,24 +4045,15 @@
         <v>223287.9243368424</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4442,24 +4078,15 @@
         <v>223287.9243368424</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4484,24 +4111,15 @@
         <v>138399.6965368424</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4526,24 +4144,15 @@
         <v>168519.6965368424</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4568,24 +4177,15 @@
         <v>168519.6965368424</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4612,22 +4212,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4654,22 +4245,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4696,22 +4278,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4738,22 +4311,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4780,22 +4344,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4822,22 +4377,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4864,22 +4410,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4906,22 +4443,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4948,22 +4476,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4990,22 +4509,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5032,22 +4542,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5074,22 +4575,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5116,22 +4608,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5158,22 +4641,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5200,22 +4674,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5242,22 +4707,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5284,22 +4740,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5326,22 +4773,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5368,22 +4806,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5410,22 +4839,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5452,22 +4872,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5494,22 +4905,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5536,22 +4938,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5578,22 +4971,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5620,22 +5004,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5662,22 +5037,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5704,22 +5070,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5746,22 +5103,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1.01448051948052</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5788,16 +5136,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5824,16 +5169,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5860,16 +5202,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5896,16 +5235,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5932,16 +5268,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5968,16 +5301,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6004,16 +5334,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6038,18 +5365,15 @@
         <v>645482.6579368425</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6074,18 +5398,15 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6110,18 +5431,15 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6146,18 +5464,15 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6182,18 +5497,15 @@
         <v>1084285.345436843</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6218,18 +5530,15 @@
         <v>1063285.345436843</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6254,18 +5563,15 @@
         <v>1066455.345436843</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6290,18 +5596,15 @@
         <v>1000610.656436843</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6326,18 +5629,15 @@
         <v>1003755.310524893</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6362,18 +5662,15 @@
         <v>693276.143024893</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6398,18 +5695,15 @@
         <v>693276.143024893</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6434,18 +5728,15 @@
         <v>693276.143024893</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6472,16 +5763,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6508,16 +5796,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6544,16 +5829,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6580,16 +5862,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6614,18 +5893,15 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6650,18 +5926,15 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6686,18 +5959,15 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6724,16 +5994,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6758,18 +6025,15 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6794,18 +6058,15 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6832,16 +6093,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6868,16 +6126,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6902,18 +6157,15 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6938,18 +6190,15 @@
         <v>705873.7492248931</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6974,18 +6223,15 @@
         <v>688320.458124893</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7012,16 +6258,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7046,18 +6289,15 @@
         <v>656120.583824893</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7082,18 +6322,15 @@
         <v>656120.583824893</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7118,18 +6355,15 @@
         <v>656120.583824893</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7156,16 +6390,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7192,16 +6423,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7228,16 +6456,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7264,16 +6489,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7300,16 +6522,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7336,16 +6555,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7372,16 +6588,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7408,16 +6621,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7444,16 +6654,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7480,16 +6687,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7516,16 +6720,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7552,16 +6753,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7588,16 +6786,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7624,16 +6819,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7660,16 +6852,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7696,16 +6885,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7732,16 +6918,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7768,16 +6951,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7804,16 +6984,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7840,16 +7017,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7876,16 +7050,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7912,16 +7083,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7948,16 +7116,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7982,18 +7147,15 @@
         <v>619387.754124893</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8018,18 +7180,15 @@
         <v>619387.754124893</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8056,18 +7215,15 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-275385.9520631579</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>15.4</v>
@@ -560,11 +560,9 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>15.4</v>
       </c>
@@ -601,7 +599,7 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>15.3</v>
@@ -642,11 +640,9 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>15.4</v>
       </c>
@@ -683,11 +679,9 @@
         <v>228308.5313368421</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>15.4</v>
       </c>
@@ -2128,7 +2122,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
@@ -2167,7 +2161,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
@@ -2206,7 +2200,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
@@ -3610,7 +3604,7 @@
         <v>-933231.2241631576</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
@@ -3618,11 +3612,11 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.01448051948052</v>
+        <v>1</v>
       </c>
       <c r="M83" t="inlineStr"/>
     </row>
@@ -3652,8 +3646,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3685,8 +3685,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3718,8 +3724,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3751,8 +3763,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3784,8 +3802,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3817,8 +3841,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3850,8 +3880,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3883,8 +3919,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3916,8 +3958,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3946,11 +3994,17 @@
         <v>-637338.3720631576</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3979,11 +4033,17 @@
         <v>363971.4511368424</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4012,11 +4072,17 @@
         <v>223287.9243368424</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4045,11 +4111,17 @@
         <v>223287.9243368424</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4078,11 +4150,17 @@
         <v>223287.9243368424</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4111,11 +4189,17 @@
         <v>138399.6965368424</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +4228,17 @@
         <v>168519.6965368424</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4177,11 +4267,17 @@
         <v>168519.6965368424</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4213,8 +4309,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4246,8 +4348,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4279,8 +4387,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4312,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4345,8 +4465,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4378,8 +4504,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4411,8 +4543,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4444,8 +4582,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4477,8 +4621,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4510,8 +4660,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4543,8 +4699,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4576,8 +4738,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4609,8 +4777,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4642,8 +4816,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4675,8 +4855,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4708,8 +4894,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4741,8 +4933,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4774,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4807,8 +5011,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4840,8 +5050,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4873,8 +5089,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4906,8 +5128,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4939,8 +5167,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4969,13 +5203,19 @@
         <v>531506.1809368425</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>1.020974025974026</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
@@ -5035,7 +5275,7 @@
         <v>535906.1809368425</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5068,7 +5308,7 @@
         <v>535906.1809368425</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5101,7 +5341,7 @@
         <v>535820.2061368425</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5134,7 +5374,7 @@
         <v>536420.2061368425</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5167,7 +5407,7 @@
         <v>536420.2061368425</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5200,7 +5440,7 @@
         <v>512080.0769368425</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5233,7 +5473,7 @@
         <v>521214.3618368425</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5266,7 +5506,7 @@
         <v>742112.9626368425</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5299,7 +5539,7 @@
         <v>727082.6579368425</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5365,7 +5605,7 @@
         <v>645482.6579368425</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5398,7 +5638,7 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5431,7 +5671,7 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5464,7 +5704,7 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5497,7 +5737,7 @@
         <v>1084285.345436843</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5530,7 +5770,7 @@
         <v>1063285.345436843</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5563,7 +5803,7 @@
         <v>1066455.345436843</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5596,7 +5836,7 @@
         <v>1000610.656436843</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5629,7 +5869,7 @@
         <v>1003755.310524893</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5662,7 +5902,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5695,7 +5935,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5728,7 +5968,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5761,7 +6001,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5794,7 +6034,7 @@
         <v>693276.143024893</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5827,7 +6067,7 @@
         <v>539858.850724893</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5860,7 +6100,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5893,7 +6133,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5926,7 +6166,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5959,7 +6199,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5992,7 +6232,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6025,7 +6265,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6058,7 +6298,7 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6091,7 +6331,7 @@
         <v>566428.3136248931</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6124,7 +6364,7 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6157,7 +6397,7 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6190,7 +6430,7 @@
         <v>705873.7492248931</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6223,7 +6463,7 @@
         <v>688320.458124893</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6256,7 +6496,7 @@
         <v>706120.583824893</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6289,7 +6529,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6322,7 +6562,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6355,7 +6595,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6388,7 +6628,7 @@
         <v>656120.583824893</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6619,7 +6859,7 @@
         <v>626835.187124893</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6751,7 +6991,7 @@
         <v>626835.187124893</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6784,7 +7024,7 @@
         <v>626835.187124893</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6817,7 +7057,7 @@
         <v>592884.482124893</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6850,7 +7090,7 @@
         <v>592884.482124893</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6883,7 +7123,7 @@
         <v>592884.482124893</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6916,7 +7156,7 @@
         <v>644284.482124893</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6949,7 +7189,7 @@
         <v>618420.959124893</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6982,7 +7222,7 @@
         <v>682936.959124893</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7015,7 +7255,7 @@
         <v>682936.959124893</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7048,7 +7288,7 @@
         <v>683076.959124893</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7081,7 +7321,7 @@
         <v>619387.754124893</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7114,7 +7354,7 @@
         <v>619387.754124893</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7147,7 +7387,7 @@
         <v>619387.754124893</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7180,7 +7420,7 @@
         <v>619387.754124893</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7213,7 +7453,7 @@
         <v>619387.754124893</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7224,6 +7464,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,14 +484,10 @@
         <v>-291480.4499631579</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>15.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,19 +583,11 @@
         <v>124972.3776368421</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -643,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -682,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -721,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -760,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -799,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -838,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -877,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -916,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -955,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -994,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1072,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1111,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1150,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1189,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1228,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1267,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1306,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1345,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1384,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1423,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1462,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1501,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1540,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1579,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1618,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1657,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>203768.109636842</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1606,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1639,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1672,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1705,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1738,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1771,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1804,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1837,11 @@
         <v>206273.121136842</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2125,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2164,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2203,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2242,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2281,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2320,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2359,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2398,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2437,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2476,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2515,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2554,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2593,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2671,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2710,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2749,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2788,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2824,17 +2464,15 @@
         <v>-995310.1520631579</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>15.5</v>
+      </c>
       <c r="J63" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2867,11 +2505,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2906,7 +2544,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2945,7 +2583,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2984,7 +2622,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3023,7 +2661,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3062,7 +2700,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3101,7 +2739,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3136,11 +2774,13 @@
         <v>-1116663.554563158</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>15.3</v>
+      </c>
       <c r="J71" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3179,7 +2819,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3218,7 +2858,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3257,7 +2897,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3296,7 +2936,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3335,7 +2975,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3374,7 +3014,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3413,7 +3053,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3452,7 +3092,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3491,7 +3131,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3530,7 +3170,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3569,7 +3209,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3608,7 +3248,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3647,7 +3287,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3686,7 +3326,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3725,7 +3365,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3764,7 +3404,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3803,7 +3443,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3842,7 +3482,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3881,7 +3521,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3920,7 +3560,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3959,7 +3599,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3998,7 +3638,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4037,7 +3677,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4076,7 +3716,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4115,7 +3755,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4154,7 +3794,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4193,7 +3833,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4232,7 +3872,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4271,7 +3911,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4310,7 +3950,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4349,7 +3989,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4388,7 +4028,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4427,7 +4067,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4466,7 +4106,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4505,7 +4145,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4544,7 +4184,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4583,7 +4223,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4622,7 +4262,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4661,7 +4301,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4700,7 +4340,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4739,7 +4379,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4778,7 +4418,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4817,7 +4457,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4856,7 +4496,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4895,7 +4535,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4934,7 +4574,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4973,7 +4613,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5012,7 +4652,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5051,7 +4691,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5090,7 +4730,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5129,7 +4769,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5168,7 +4808,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5203,19 +4843,19 @@
         <v>531506.1809368425</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>1.020974025974026</v>
+        <v>1</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
@@ -5245,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5275,11 +4921,17 @@
         <v>535906.1809368425</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +4960,17 @@
         <v>535906.1809368425</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +4999,17 @@
         <v>535820.2061368425</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +5038,17 @@
         <v>536420.2061368425</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +5077,17 @@
         <v>536420.2061368425</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5116,17 @@
         <v>512080.0769368425</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5473,11 +5155,17 @@
         <v>521214.3618368425</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5194,17 @@
         <v>742112.9626368425</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5539,11 +5233,17 @@
         <v>727082.6579368425</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5575,8 +5275,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5311,17 @@
         <v>645482.6579368425</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5638,11 +5350,17 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5671,11 +5389,17 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +5428,17 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5737,11 +5467,17 @@
         <v>1084285.345436843</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5770,11 +5506,17 @@
         <v>1063285.345436843</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5803,11 +5545,17 @@
         <v>1066455.345436843</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5836,11 +5584,17 @@
         <v>1000610.656436843</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5869,11 +5623,17 @@
         <v>1003755.310524893</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5902,11 +5662,17 @@
         <v>693276.143024893</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5935,11 +5701,17 @@
         <v>693276.143024893</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5968,11 +5740,17 @@
         <v>693276.143024893</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6001,11 +5779,17 @@
         <v>693276.143024893</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6034,11 +5818,17 @@
         <v>693276.143024893</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6067,11 +5857,17 @@
         <v>539858.850724893</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6100,11 +5896,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6133,11 +5935,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6166,11 +5974,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6199,11 +6013,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6232,11 +6052,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6265,11 +6091,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6298,11 +6130,17 @@
         <v>565428.3136248931</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6331,11 +6169,17 @@
         <v>566428.3136248931</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6364,11 +6208,17 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6397,11 +6247,17 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +6286,17 @@
         <v>705873.7492248931</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +6325,17 @@
         <v>688320.458124893</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6496,11 +6364,17 @@
         <v>706120.583824893</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6529,11 +6403,17 @@
         <v>656120.583824893</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6562,11 +6442,17 @@
         <v>656120.583824893</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6595,11 +6481,17 @@
         <v>656120.583824893</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6628,11 +6520,17 @@
         <v>656120.583824893</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6664,8 +6562,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6697,8 +6601,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6730,8 +6640,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6763,8 +6679,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6796,8 +6718,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6829,8 +6757,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6859,11 +6793,17 @@
         <v>626835.187124893</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6895,8 +6835,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6928,8 +6874,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6961,8 +6913,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6991,11 +6949,17 @@
         <v>626835.187124893</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7024,11 +6988,17 @@
         <v>626835.187124893</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7057,11 +7027,17 @@
         <v>592884.482124893</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7090,11 +7066,17 @@
         <v>592884.482124893</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7123,11 +7105,17 @@
         <v>592884.482124893</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7156,11 +7144,17 @@
         <v>644284.482124893</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7189,11 +7183,17 @@
         <v>618420.959124893</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7222,11 +7222,17 @@
         <v>682936.959124893</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7255,11 +7261,17 @@
         <v>682936.959124893</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7288,11 +7300,17 @@
         <v>683076.959124893</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7321,11 +7339,17 @@
         <v>619387.754124893</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7354,11 +7378,17 @@
         <v>619387.754124893</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7387,11 +7417,17 @@
         <v>619387.754124893</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +7456,17 @@
         <v>619387.754124893</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7453,17 +7495,23 @@
         <v>619387.754124893</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -1507,7 +1507,7 @@
         <v>203768.109636842</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>206273.121136842</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2464,14 +2464,10 @@
         <v>-995310.1520631579</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>15.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2504,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2582,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2774,19 +2728,11 @@
         <v>-1116663.554563158</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2857,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2935,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2974,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3013,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3208,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3247,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3286,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3325,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3364,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3403,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3442,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3481,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3520,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3559,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3598,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3637,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3676,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3715,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3754,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3793,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3832,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3871,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3910,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3949,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3988,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4027,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4066,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4105,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4183,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4222,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4261,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4300,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4339,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4378,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4417,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4495,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4534,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4573,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4612,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4651,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4690,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4729,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4768,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4807,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4846,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4885,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4924,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4999,17 +4609,11 @@
         <v>535820.2061368425</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5041,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5080,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5116,17 +4708,11 @@
         <v>512080.0769368425</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5158,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5197,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5236,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5275,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5353,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5392,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5428,17 +4972,11 @@
         <v>1076282.657936843</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5467,17 +5005,11 @@
         <v>1084285.345436843</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5506,17 +5038,11 @@
         <v>1063285.345436843</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5545,17 +5071,11 @@
         <v>1066455.345436843</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5584,17 +5104,11 @@
         <v>1000610.656436843</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5623,17 +5137,11 @@
         <v>1003755.310524893</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5662,17 +5170,11 @@
         <v>693276.143024893</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5701,17 +5203,11 @@
         <v>693276.143024893</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5740,17 +5236,11 @@
         <v>693276.143024893</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5782,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5821,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5860,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5899,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5938,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5977,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6016,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6055,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6094,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6133,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6172,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6211,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6247,17 +5665,11 @@
         <v>520639.8425248931</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6289,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6325,17 +5731,11 @@
         <v>688320.458124893</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6364,17 +5764,11 @@
         <v>706120.583824893</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6403,17 +5797,11 @@
         <v>656120.583824893</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6445,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6484,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6523,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6562,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6601,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6640,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6679,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6718,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6757,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6796,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6835,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6874,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6913,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6952,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6991,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7030,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7069,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7108,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7147,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7186,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7225,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7264,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7303,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7381,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7420,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7459,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7498,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-01 BackTest SNT.xlsx
+++ b/BackTest/2019-11-01 BackTest SNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>2674.339</v>
       </c>
       <c r="G2" t="n">
-        <v>-275385.9520631579</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>16094.4979</v>
       </c>
       <c r="G3" t="n">
-        <v>-291480.4499631579</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>14681.541</v>
       </c>
       <c r="G4" t="n">
-        <v>-291480.4499631579</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>360.7094</v>
       </c>
       <c r="G5" t="n">
-        <v>-291480.4499631579</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>416452.8276</v>
       </c>
       <c r="G6" t="n">
-        <v>124972.3776368421</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>159668.0737</v>
       </c>
       <c r="G7" t="n">
-        <v>124972.3776368421</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>103336.1537</v>
       </c>
       <c r="G8" t="n">
-        <v>228308.5313368421</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2599.9999</v>
       </c>
       <c r="G9" t="n">
-        <v>228308.5313368421</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>39142.3626</v>
       </c>
       <c r="G10" t="n">
-        <v>267450.8939368421</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1035839.2229</v>
       </c>
       <c r="G11" t="n">
-        <v>267450.8939368421</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>80717.4143</v>
       </c>
       <c r="G12" t="n">
-        <v>186733.4796368421</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>659063.2668</v>
       </c>
       <c r="G13" t="n">
-        <v>845796.746436842</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>40130.8294</v>
       </c>
       <c r="G14" t="n">
-        <v>805665.917036842</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>23982.58976751592</v>
       </c>
       <c r="G15" t="n">
-        <v>805665.917036842</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>105</v>
       </c>
       <c r="G16" t="n">
-        <v>805665.917036842</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>47950.1305</v>
       </c>
       <c r="G17" t="n">
-        <v>757715.786536842</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>82650.092</v>
       </c>
       <c r="G18" t="n">
-        <v>757715.786536842</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>11527.2292</v>
       </c>
       <c r="G19" t="n">
-        <v>769243.0157368419</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>47358.535</v>
       </c>
       <c r="G20" t="n">
-        <v>769243.0157368419</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>524742.1784</v>
       </c>
       <c r="G21" t="n">
-        <v>244500.837336842</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>64.1025641025641</v>
       </c>
       <c r="G22" t="n">
-        <v>244500.837336842</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>38553.846</v>
       </c>
       <c r="G23" t="n">
-        <v>244500.837336842</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>1153.846</v>
       </c>
       <c r="G24" t="n">
-        <v>244500.837336842</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>17800</v>
       </c>
       <c r="G25" t="n">
-        <v>226700.837336842</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>59000</v>
       </c>
       <c r="G26" t="n">
-        <v>285700.837336842</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>17778.7991</v>
       </c>
       <c r="G27" t="n">
-        <v>303479.636436842</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>3520.0143</v>
       </c>
       <c r="G28" t="n">
-        <v>303479.636436842</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>303409.636436842</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>3730</v>
       </c>
       <c r="G30" t="n">
-        <v>303409.636436842</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>27631.3367</v>
       </c>
       <c r="G31" t="n">
-        <v>275778.299736842</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2907.52</v>
       </c>
       <c r="G32" t="n">
-        <v>278685.819736842</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>34605.9533</v>
       </c>
       <c r="G33" t="n">
-        <v>244079.866436842</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>40311.7568</v>
       </c>
       <c r="G34" t="n">
-        <v>203768.109636842</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2505.0115</v>
       </c>
       <c r="G35" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>72372.17329999999</v>
       </c>
       <c r="G36" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>2545584.8143</v>
       </c>
       <c r="G37" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>18363139.9773</v>
       </c>
       <c r="G38" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>17512367.8574</v>
       </c>
       <c r="G39" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>18424422.0285</v>
       </c>
       <c r="G40" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>18464296.2324</v>
       </c>
       <c r="G41" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>19313978.2302</v>
       </c>
       <c r="G42" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>13098953.6593</v>
       </c>
       <c r="G43" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>30112137.2313</v>
       </c>
       <c r="G44" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>29766020.7114</v>
       </c>
       <c r="G45" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>6230097.3582</v>
       </c>
       <c r="G46" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>10117815.5688</v>
       </c>
       <c r="G47" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>19113648.5381</v>
       </c>
       <c r="G48" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>18964904.1915</v>
       </c>
       <c r="G49" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>19336765.058</v>
       </c>
       <c r="G50" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>11453314.6882</v>
       </c>
       <c r="G51" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>41495.7971</v>
       </c>
       <c r="G52" t="n">
-        <v>206273.121136842</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1206419.3423</v>
       </c>
       <c r="G53" t="n">
-        <v>-1000146.221163158</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>23997.9299</v>
       </c>
       <c r="G54" t="n">
-        <v>-976148.2912631579</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>63239.5197</v>
       </c>
       <c r="G55" t="n">
-        <v>-1039387.810963158</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>23045.2666</v>
       </c>
       <c r="G56" t="n">
-        <v>-1039387.810963158</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>25081.0544</v>
       </c>
       <c r="G57" t="n">
-        <v>-1039387.810963158</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>13249.7831</v>
       </c>
       <c r="G58" t="n">
-        <v>-1039387.810963158</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>17224.718</v>
       </c>
       <c r="G59" t="n">
-        <v>-1056612.528963158</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>61302.3769</v>
       </c>
       <c r="G60" t="n">
-        <v>-995310.1520631579</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>662.064</v>
       </c>
       <c r="G61" t="n">
-        <v>-995310.1520631579</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>50000</v>
       </c>
       <c r="G62" t="n">
-        <v>-995310.1520631579</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>50000</v>
       </c>
       <c r="G63" t="n">
-        <v>-995310.1520631579</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>45191.6779</v>
       </c>
       <c r="G64" t="n">
-        <v>-1040501.829963158</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>87</v>
       </c>
       <c r="G65" t="n">
-        <v>-1040414.829963158</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>61000</v>
       </c>
       <c r="G66" t="n">
-        <v>-1101414.829963158</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>101114.922</v>
       </c>
       <c r="G67" t="n">
-        <v>-1101414.829963158</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>3243.5805</v>
       </c>
       <c r="G68" t="n">
-        <v>-1101414.829963158</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>5248.6922</v>
       </c>
       <c r="G69" t="n">
-        <v>-1101414.829963158</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>26128.2136</v>
       </c>
       <c r="G70" t="n">
-        <v>-1127543.043563158</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10879.489</v>
       </c>
       <c r="G71" t="n">
-        <v>-1116663.554563158</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>21000</v>
       </c>
       <c r="G72" t="n">
-        <v>-1095663.554563158</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>9523</v>
       </c>
       <c r="G73" t="n">
-        <v>-1086140.554563158</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>232799.4393</v>
       </c>
       <c r="G74" t="n">
-        <v>-1086140.554563158</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>230746.6097</v>
       </c>
       <c r="G75" t="n">
-        <v>-855393.9448631577</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>65687.48209999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-855393.9448631577</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>14685.712</v>
       </c>
       <c r="G77" t="n">
-        <v>-855393.9448631577</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>568375.7010999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-855393.9448631577</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>120604.6335</v>
       </c>
       <c r="G79" t="n">
-        <v>-734789.3113631577</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>4404.6248</v>
       </c>
       <c r="G80" t="n">
-        <v>-739193.9361631577</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>8260.712</v>
       </c>
       <c r="G81" t="n">
-        <v>-730933.2241631576</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>6195.5379</v>
       </c>
       <c r="G82" t="n">
-        <v>-730933.2241631576</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>202298</v>
       </c>
       <c r="G83" t="n">
-        <v>-933231.2241631576</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>64297.3342</v>
       </c>
       <c r="G84" t="n">
-        <v>-933231.2241631576</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>50313.04</v>
       </c>
       <c r="G85" t="n">
-        <v>-933231.2241631576</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>3256.3381</v>
       </c>
       <c r="G86" t="n">
-        <v>-933231.2241631576</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>7894.8585</v>
       </c>
       <c r="G87" t="n">
-        <v>-925336.3656631577</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>253914.5641</v>
       </c>
       <c r="G88" t="n">
-        <v>-1179250.929763158</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>288534.0354</v>
       </c>
       <c r="G89" t="n">
-        <v>-890716.8943631577</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>47800</v>
       </c>
       <c r="G90" t="n">
-        <v>-938516.8943631577</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>122512.9366</v>
       </c>
       <c r="G91" t="n">
-        <v>-938516.8943631577</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>513648.0517</v>
       </c>
       <c r="G92" t="n">
-        <v>-424868.8426631577</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>212469.5294</v>
       </c>
       <c r="G93" t="n">
-        <v>-637338.3720631576</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1001309.8232</v>
       </c>
       <c r="G94" t="n">
-        <v>363971.4511368424</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>140683.5268</v>
       </c>
       <c r="G95" t="n">
-        <v>223287.9243368424</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>99233.59729999999</v>
       </c>
       <c r="G96" t="n">
-        <v>223287.9243368424</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>403904.4489</v>
       </c>
       <c r="G97" t="n">
-        <v>223287.9243368424</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>84888.22779999999</v>
       </c>
       <c r="G98" t="n">
-        <v>138399.6965368424</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>30120</v>
       </c>
       <c r="G99" t="n">
-        <v>168519.6965368424</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>78367</v>
       </c>
       <c r="G100" t="n">
-        <v>168519.6965368424</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>68081</v>
       </c>
       <c r="G101" t="n">
-        <v>100438.6965368424</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>159458.5294</v>
       </c>
       <c r="G102" t="n">
-        <v>100438.6965368424</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>206526.9533</v>
       </c>
       <c r="G103" t="n">
-        <v>306965.6498368424</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>62614.127</v>
       </c>
       <c r="G104" t="n">
-        <v>306965.6498368424</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>3701.5102</v>
       </c>
       <c r="G105" t="n">
-        <v>306965.6498368424</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>15260.0246</v>
       </c>
       <c r="G106" t="n">
-        <v>291705.6252368424</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>2613.7341</v>
       </c>
       <c r="G107" t="n">
-        <v>294319.3593368424</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>294319.3593368424</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>19200</v>
       </c>
       <c r="G109" t="n">
-        <v>275119.3593368424</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>24000</v>
       </c>
       <c r="G110" t="n">
-        <v>275119.3593368424</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>275139.3593368424</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>47261.3734</v>
       </c>
       <c r="G112" t="n">
-        <v>275139.3593368424</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>283399.0189</v>
       </c>
       <c r="G113" t="n">
-        <v>275139.3593368424</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>1176.1708</v>
       </c>
       <c r="G114" t="n">
-        <v>275139.3593368424</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>2975.443</v>
       </c>
       <c r="G115" t="n">
-        <v>275139.3593368424</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>53110.72223924051</v>
       </c>
       <c r="G116" t="n">
-        <v>275139.3593368424</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>6990.6531</v>
       </c>
       <c r="G117" t="n">
-        <v>268148.7062368424</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>113494.0506</v>
       </c>
       <c r="G118" t="n">
-        <v>381642.7568368424</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>66800</v>
       </c>
       <c r="G119" t="n">
-        <v>381642.7568368424</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>21000</v>
       </c>
       <c r="G120" t="n">
-        <v>381642.7568368424</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>91.5759</v>
       </c>
       <c r="G121" t="n">
-        <v>381551.1809368424</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>149955</v>
       </c>
       <c r="G122" t="n">
-        <v>531506.1809368425</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>15067.9746</v>
       </c>
       <c r="G123" t="n">
-        <v>531506.1809368425</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>51.4873</v>
       </c>
       <c r="G124" t="n">
-        <v>531506.1809368425</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>6200</v>
       </c>
       <c r="G125" t="n">
-        <v>531506.1809368425</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>4400</v>
       </c>
       <c r="G126" t="n">
-        <v>535906.1809368425</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>299.371</v>
       </c>
       <c r="G127" t="n">
-        <v>535906.1809368425</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>85.9748</v>
       </c>
       <c r="G128" t="n">
-        <v>535820.2061368425</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>600</v>
       </c>
       <c r="G129" t="n">
-        <v>536420.2061368425</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>24401.1320754717</v>
       </c>
       <c r="G130" t="n">
-        <v>536420.2061368425</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>24340.1292</v>
       </c>
       <c r="G131" t="n">
-        <v>512080.0769368425</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>9134.284900000001</v>
       </c>
       <c r="G132" t="n">
-        <v>521214.3618368425</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>220898.6008</v>
       </c>
       <c r="G133" t="n">
-        <v>742112.9626368425</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>15030.3047</v>
       </c>
       <c r="G134" t="n">
-        <v>727082.6579368425</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>18400</v>
       </c>
       <c r="G135" t="n">
-        <v>745482.6579368425</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>100000</v>
       </c>
       <c r="G136" t="n">
-        <v>645482.6579368425</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>430800</v>
       </c>
       <c r="G137" t="n">
-        <v>1076282.657936843</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>248281</v>
       </c>
       <c r="G138" t="n">
-        <v>1076282.657936843</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>326566.4654852878</v>
       </c>
       <c r="G139" t="n">
-        <v>1076282.657936843</v>
-      </c>
-      <c r="H139" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>8002.6875</v>
       </c>
       <c r="G140" t="n">
-        <v>1084285.345436843</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>21000</v>
       </c>
       <c r="G141" t="n">
-        <v>1063285.345436843</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>3170</v>
       </c>
       <c r="G142" t="n">
-        <v>1066455.345436843</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>65844.689</v>
       </c>
       <c r="G143" t="n">
-        <v>1000610.656436843</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>3144.654088050314</v>
       </c>
       <c r="G144" t="n">
-        <v>1003755.310524893</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>310479.1675</v>
       </c>
       <c r="G145" t="n">
-        <v>693276.143024893</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>33364</v>
       </c>
       <c r="G146" t="n">
-        <v>693276.143024893</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>316.4556962025317</v>
       </c>
       <c r="G147" t="n">
-        <v>693276.143024893</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>49347.184</v>
       </c>
       <c r="G148" t="n">
-        <v>693276.143024893</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>148771.4868</v>
       </c>
       <c r="G149" t="n">
-        <v>693276.143024893</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>153417.2923</v>
       </c>
       <c r="G150" t="n">
-        <v>539858.850724893</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>25569.4629</v>
       </c>
       <c r="G151" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>1258.846</v>
       </c>
       <c r="G152" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>6444.6475</v>
       </c>
       <c r="G153" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>33999.6077</v>
       </c>
       <c r="G154" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>11253.5568</v>
       </c>
       <c r="G155" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>2732.3626</v>
       </c>
       <c r="G156" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>45.5505</v>
       </c>
       <c r="G157" t="n">
-        <v>565428.3136248931</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>1000</v>
       </c>
       <c r="G158" t="n">
-        <v>566428.3136248931</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>45788.4711</v>
       </c>
       <c r="G159" t="n">
-        <v>520639.8425248931</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>15361.0995</v>
       </c>
       <c r="G160" t="n">
-        <v>520639.8425248931</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>185233.9067</v>
       </c>
       <c r="G161" t="n">
-        <v>705873.7492248931</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>17553.2911</v>
       </c>
       <c r="G162" t="n">
-        <v>688320.458124893</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>17800.1257</v>
       </c>
       <c r="G163" t="n">
-        <v>706120.583824893</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>50000</v>
       </c>
       <c r="G164" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>27753.8607</v>
       </c>
       <c r="G165" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>15252.5683</v>
       </c>
       <c r="G166" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>120755.7459</v>
       </c>
       <c r="G167" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>2263.8405</v>
       </c>
       <c r="G168" t="n">
-        <v>656120.583824893</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>49180.8624</v>
       </c>
       <c r="G169" t="n">
-        <v>606939.721424893</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>1104.5343</v>
       </c>
       <c r="G170" t="n">
-        <v>605835.187124893</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>2975.443</v>
       </c>
       <c r="G171" t="n">
-        <v>605835.187124893</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>84967.664</v>
       </c>
       <c r="G172" t="n">
-        <v>605835.187124893</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>21000</v>
       </c>
       <c r="G173" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>2420</v>
       </c>
       <c r="G174" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>2410</v>
       </c>
       <c r="G175" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>2878</v>
       </c>
       <c r="G176" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>19800</v>
       </c>
       <c r="G177" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>3461.538</v>
       </c>
       <c r="G178" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>3149.846</v>
       </c>
       <c r="G179" t="n">
-        <v>626835.187124893</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>33950.705</v>
       </c>
       <c r="G180" t="n">
-        <v>592884.482124893</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>128.8652</v>
       </c>
       <c r="G181" t="n">
-        <v>592884.482124893</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>18939.8733</v>
       </c>
       <c r="G182" t="n">
-        <v>592884.482124893</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>51400</v>
       </c>
       <c r="G183" t="n">
-        <v>644284.482124893</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>25863.523</v>
       </c>
       <c r="G184" t="n">
-        <v>618420.959124893</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>64516</v>
       </c>
       <c r="G185" t="n">
-        <v>682936.959124893</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>41718</v>
       </c>
       <c r="G186" t="n">
-        <v>682936.959124893</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>140</v>
       </c>
       <c r="G187" t="n">
-        <v>683076.959124893</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>63689.205</v>
       </c>
       <c r="G188" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>123942.3763</v>
       </c>
       <c r="G189" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>93852.272</v>
       </c>
       <c r="G190" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>2977.8265</v>
       </c>
       <c r="G191" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>36692.3119</v>
       </c>
       <c r="G192" t="n">
-        <v>619387.754124893</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
